--- a/June2017/ISWRPQAQ_stats.xlsx
+++ b/June2017/ISWRPQAQ_stats.xlsx
@@ -767,10 +767,10 @@
         <v>695</v>
       </c>
       <c r="S4">
-        <v>11.20968345323741</v>
+        <v>11.20969784172662</v>
       </c>
       <c r="T4">
-        <v>1.442063408355253</v>
+        <v>1.442047174214854</v>
       </c>
       <c r="U4">
         <v>7.91</v>
@@ -839,10 +839,10 @@
         <v>695</v>
       </c>
       <c r="AQ4">
-        <v>50.48017266187052</v>
+        <v>50.48031654676261</v>
       </c>
       <c r="AR4">
-        <v>34.63605097379725</v>
+        <v>34.6362513680879</v>
       </c>
       <c r="AS4">
         <v>2.01</v>
@@ -887,10 +887,10 @@
         <v>695</v>
       </c>
       <c r="BG4">
-        <v>4.109425467625901</v>
+        <v>4.109411079136692</v>
       </c>
       <c r="BH4">
-        <v>4.38549216245385</v>
+        <v>4.385495331200106</v>
       </c>
       <c r="BI4">
         <v>0.0549</v>
@@ -940,10 +940,10 @@
         <v>696</v>
       </c>
       <c r="K5">
-        <v>46.72370689655178</v>
+        <v>46.72399425287361</v>
       </c>
       <c r="L5">
-        <v>1.148598668385577</v>
+        <v>1.148830682327719</v>
       </c>
       <c r="M5">
         <v>45.2</v>
@@ -964,10 +964,10 @@
         <v>696</v>
       </c>
       <c r="S5">
-        <v>12.60402298850575</v>
+        <v>12.60387931034483</v>
       </c>
       <c r="T5">
-        <v>1.452226638490945</v>
+        <v>1.451895078091786</v>
       </c>
       <c r="U5">
         <v>10.3</v>
@@ -1012,10 +1012,10 @@
         <v>696</v>
       </c>
       <c r="AI5">
-        <v>203.2166666666666</v>
+        <v>203.2181034482759</v>
       </c>
       <c r="AJ5">
-        <v>99.83272964751036</v>
+        <v>99.83199867559189</v>
       </c>
       <c r="AK5">
         <v>95</v>
@@ -1024,7 +1024,7 @@
         <v>132</v>
       </c>
       <c r="AM5">
-        <v>151.5</v>
+        <v>152</v>
       </c>
       <c r="AN5">
         <v>265.75</v>
@@ -1036,10 +1036,10 @@
         <v>696</v>
       </c>
       <c r="AQ5">
-        <v>53.84686781609195</v>
+        <v>53.84672413793103</v>
       </c>
       <c r="AR5">
-        <v>38.06280716353055</v>
+        <v>38.06283134466891</v>
       </c>
       <c r="AS5">
         <v>2.32</v>
@@ -1060,10 +1060,10 @@
         <v>696</v>
       </c>
       <c r="AY5">
-        <v>0.01693728793103449</v>
+        <v>0.01693769037356323</v>
       </c>
       <c r="AZ5">
-        <v>0.02352728455099911</v>
+        <v>0.02352756223144917</v>
       </c>
       <c r="BA5">
         <v>-0.0112</v>
@@ -1084,10 +1084,10 @@
         <v>696</v>
       </c>
       <c r="BG5">
-        <v>0.6007321566091949</v>
+        <v>0.6007403606321837</v>
       </c>
       <c r="BH5">
-        <v>0.621460569812001</v>
+        <v>0.6214611733569771</v>
       </c>
       <c r="BI5">
         <v>-0.544</v>
@@ -1257,10 +1257,10 @@
         <v>696</v>
       </c>
       <c r="AY6">
-        <v>0.01379038160919539</v>
+        <v>0.01379048007183908</v>
       </c>
       <c r="AZ6">
-        <v>0.02407106483064529</v>
+        <v>0.02407100893745498</v>
       </c>
       <c r="BA6">
         <v>-0.00349</v>
@@ -1281,10 +1281,10 @@
         <v>696</v>
       </c>
       <c r="BG6">
-        <v>0.3438910014367815</v>
+        <v>0.3438968031609194</v>
       </c>
       <c r="BH6">
-        <v>0.2566463957083237</v>
+        <v>0.2566493601010121</v>
       </c>
       <c r="BI6">
         <v>-0.241</v>
@@ -1337,7 +1337,7 @@
         <v>46.73591954022992</v>
       </c>
       <c r="L7">
-        <v>1.147949069818957</v>
+        <v>1.148312500703666</v>
       </c>
       <c r="M7">
         <v>45.2</v>
@@ -1358,10 +1358,10 @@
         <v>696</v>
       </c>
       <c r="S7">
-        <v>12.61436781609197</v>
+        <v>12.61465517241381</v>
       </c>
       <c r="T7">
-        <v>1.453102026372904</v>
+        <v>1.452742639247185</v>
       </c>
       <c r="U7">
         <v>10.3</v>
@@ -1430,10 +1430,10 @@
         <v>696</v>
       </c>
       <c r="AQ7">
-        <v>53.8447988505747</v>
+        <v>53.84492816091953</v>
       </c>
       <c r="AR7">
-        <v>38.06202363412839</v>
+        <v>38.06213625257968</v>
       </c>
       <c r="AS7">
         <v>2.32</v>
@@ -1454,10 +1454,10 @@
         <v>696</v>
       </c>
       <c r="AY7">
-        <v>0.01921625862068967</v>
+        <v>0.01921625574712644</v>
       </c>
       <c r="AZ7">
-        <v>0.02509985450969465</v>
+        <v>0.02510018529240207</v>
       </c>
       <c r="BA7">
         <v>0.000713</v>
@@ -1478,10 +1478,10 @@
         <v>696</v>
       </c>
       <c r="BG7">
-        <v>0.6374358477011506</v>
+        <v>0.6374288074712655</v>
       </c>
       <c r="BH7">
-        <v>0.3621143282622294</v>
+        <v>0.3621174301883321</v>
       </c>
       <c r="BI7">
         <v>0.00661</v>
@@ -1555,10 +1555,10 @@
         <v>696</v>
       </c>
       <c r="S8">
-        <v>12.31645114942528</v>
+        <v>12.31630747126436</v>
       </c>
       <c r="T8">
-        <v>1.485066156188898</v>
+        <v>1.484956318036485</v>
       </c>
       <c r="U8">
         <v>9.91</v>
@@ -1603,10 +1603,10 @@
         <v>696</v>
       </c>
       <c r="AI8">
-        <v>203.1965517241379</v>
+        <v>203.1951149425287</v>
       </c>
       <c r="AJ8">
-        <v>99.82311443319459</v>
+        <v>99.82060198385106</v>
       </c>
       <c r="AK8">
         <v>95</v>
@@ -1627,10 +1627,10 @@
         <v>696</v>
       </c>
       <c r="AQ8">
-        <v>53.84452586206897</v>
+        <v>53.84436781609195</v>
       </c>
       <c r="AR8">
-        <v>38.06209439081297</v>
+        <v>38.06198198965814</v>
       </c>
       <c r="AS8">
         <v>2.32</v>
@@ -1651,10 +1651,10 @@
         <v>696</v>
       </c>
       <c r="AY8">
-        <v>0.007243004324712654</v>
+        <v>0.007242476291666675</v>
       </c>
       <c r="AZ8">
-        <v>0.02483918648023455</v>
+        <v>0.02483920561035225</v>
       </c>
       <c r="BA8">
         <v>-0.0182</v>
@@ -1663,7 +1663,7 @@
         <v>-0.004565</v>
       </c>
       <c r="BC8">
-        <v>-1.0195E-05</v>
+        <v>-1.02505E-05</v>
       </c>
       <c r="BD8">
         <v>0.008592500000000001</v>
@@ -1675,10 +1675,10 @@
         <v>696</v>
       </c>
       <c r="BG8">
-        <v>-0.05007734051724145</v>
+        <v>-0.05008173979885066</v>
       </c>
       <c r="BH8">
-        <v>0.4887922747466428</v>
+        <v>0.4887870098284931</v>
       </c>
       <c r="BI8">
         <v>-2.36</v>
@@ -1687,7 +1687,7 @@
         <v>-0.2695</v>
       </c>
       <c r="BK8">
-        <v>-0.0007745</v>
+        <v>-0.00077545</v>
       </c>
       <c r="BL8">
         <v>0.23575</v>
@@ -1848,10 +1848,10 @@
         <v>696</v>
       </c>
       <c r="AY9">
-        <v>0.01142453821839081</v>
+        <v>0.01142455143678161</v>
       </c>
       <c r="AZ9">
-        <v>0.02341777800658513</v>
+        <v>0.02341777348483946</v>
       </c>
       <c r="BA9">
         <v>-0.00572</v>
@@ -1872,10 +1872,10 @@
         <v>696</v>
       </c>
       <c r="BG9">
-        <v>0.2058302298850574</v>
+        <v>0.2058312787356322</v>
       </c>
       <c r="BH9">
-        <v>0.3034340032366755</v>
+        <v>0.3034345384123697</v>
       </c>
       <c r="BI9">
         <v>-0.93</v>
@@ -1925,10 +1925,10 @@
         <v>696</v>
       </c>
       <c r="K10">
-        <v>45.34813218390805</v>
+        <v>45.34712643678161</v>
       </c>
       <c r="L10">
-        <v>1.297655645889164</v>
+        <v>1.297232390375071</v>
       </c>
       <c r="M10">
         <v>43.2</v>
@@ -1949,10 +1949,10 @@
         <v>696</v>
       </c>
       <c r="S10">
-        <v>11.22573275862069</v>
+        <v>11.22527298850575</v>
       </c>
       <c r="T10">
-        <v>1.364890079793289</v>
+        <v>1.364995980246634</v>
       </c>
       <c r="U10">
         <v>9.1</v>
@@ -1997,10 +1997,10 @@
         <v>696</v>
       </c>
       <c r="AI10">
-        <v>201.7727011494253</v>
+        <v>201.7711206896552</v>
       </c>
       <c r="AJ10">
-        <v>98.08261223094438</v>
+        <v>98.08348689863887</v>
       </c>
       <c r="AK10">
         <v>95</v>
@@ -2021,10 +2021,10 @@
         <v>696</v>
       </c>
       <c r="AQ10">
-        <v>53.44535919540231</v>
+        <v>53.44291666666668</v>
       </c>
       <c r="AR10">
-        <v>37.5573993152352</v>
+        <v>37.55406499142399</v>
       </c>
       <c r="AS10">
         <v>2.32</v>
@@ -2045,10 +2045,10 @@
         <v>696</v>
       </c>
       <c r="AY10">
-        <v>-0.003416568534482761</v>
+        <v>-0.003416461925287358</v>
       </c>
       <c r="AZ10">
-        <v>0.02190584246896102</v>
+        <v>0.02190497352955368</v>
       </c>
       <c r="BA10">
         <v>-0.0374</v>
@@ -2060,7 +2060,7 @@
         <v>-0.008015</v>
       </c>
       <c r="BD10">
-        <v>0.0006734999999999999</v>
+        <v>0.0006745</v>
       </c>
       <c r="BE10">
         <v>0.131</v>
@@ -2069,10 +2069,10 @@
         <v>696</v>
       </c>
       <c r="BG10">
-        <v>-0.5949539080459771</v>
+        <v>-0.5949456321839083</v>
       </c>
       <c r="BH10">
-        <v>0.9262385839592959</v>
+        <v>0.9262385245179462</v>
       </c>
       <c r="BI10">
         <v>-4.9</v>
@@ -2084,7 +2084,7 @@
         <v>-0.309</v>
       </c>
       <c r="BL10">
-        <v>0.019075</v>
+        <v>0.0191</v>
       </c>
       <c r="BM10">
         <v>0.825</v>
@@ -2122,10 +2122,10 @@
         <v>696</v>
       </c>
       <c r="K11">
-        <v>44.20431034482755</v>
+        <v>44.20359195402296</v>
       </c>
       <c r="L11">
-        <v>1.513967140366216</v>
+        <v>1.513926250123455</v>
       </c>
       <c r="M11">
         <v>41.9</v>
@@ -2146,10 +2146,10 @@
         <v>696</v>
       </c>
       <c r="S11">
-        <v>10.08340517241379</v>
+        <v>10.08209770114942</v>
       </c>
       <c r="T11">
-        <v>1.145317291177256</v>
+        <v>1.145162447938006</v>
       </c>
       <c r="U11">
         <v>7.94</v>
@@ -2194,10 +2194,10 @@
         <v>696</v>
       </c>
       <c r="AI11">
-        <v>188.9781609195402</v>
+        <v>188.9738505747126</v>
       </c>
       <c r="AJ11">
-        <v>84.00522087274761</v>
+        <v>84.00238489317829</v>
       </c>
       <c r="AK11">
         <v>95</v>
@@ -2218,10 +2218,10 @@
         <v>696</v>
       </c>
       <c r="AQ11">
-        <v>49.9287356321839</v>
+        <v>49.92816091954022</v>
       </c>
       <c r="AR11">
-        <v>33.2062213310958</v>
+        <v>33.20582837905923</v>
       </c>
       <c r="AS11">
         <v>2.19</v>
@@ -2233,7 +2233,7 @@
         <v>44.3</v>
       </c>
       <c r="AV11">
-        <v>70.22499999999999</v>
+        <v>70.14999999999999</v>
       </c>
       <c r="AW11">
         <v>166</v>
@@ -2242,10 +2242,10 @@
         <v>696</v>
       </c>
       <c r="AY11">
-        <v>0.0006599054597701136</v>
+        <v>0.0006598153735632165</v>
       </c>
       <c r="AZ11">
-        <v>0.02410628644421114</v>
+        <v>0.02410622412551023</v>
       </c>
       <c r="BA11">
         <v>-0.0563</v>
@@ -2266,10 +2266,10 @@
         <v>696</v>
       </c>
       <c r="BG11">
-        <v>-0.3585403160919547</v>
+        <v>-0.3585354885057478</v>
       </c>
       <c r="BH11">
-        <v>1.329962100159374</v>
+        <v>1.329960938694117</v>
       </c>
       <c r="BI11">
         <v>-9.35</v>
@@ -2439,10 +2439,10 @@
         <v>696</v>
       </c>
       <c r="AY12">
-        <v>0.009624830330459768</v>
+        <v>0.009624800905172414</v>
       </c>
       <c r="AZ12">
-        <v>0.0153888385101257</v>
+        <v>0.01538885576491672</v>
       </c>
       <c r="BA12">
         <v>-0.00248</v>
@@ -2463,10 +2463,10 @@
         <v>696</v>
       </c>
       <c r="BG12">
-        <v>0.2411219454022988</v>
+        <v>0.2411153922413793</v>
       </c>
       <c r="BH12">
-        <v>0.2166608978171869</v>
+        <v>0.2166632104115215</v>
       </c>
       <c r="BI12">
         <v>-0.392</v>
@@ -2636,10 +2636,10 @@
         <v>696</v>
       </c>
       <c r="AY13">
-        <v>0.01131131991522989</v>
+        <v>0.01131132122988506</v>
       </c>
       <c r="AZ13">
-        <v>0.01563450915980547</v>
+        <v>0.01563450823006311</v>
       </c>
       <c r="BA13">
         <v>-0.000336</v>
@@ -2660,10 +2660,10 @@
         <v>696</v>
       </c>
       <c r="BG13">
-        <v>0.3250030262499999</v>
+        <v>0.3250045783189655</v>
       </c>
       <c r="BH13">
-        <v>0.2312157344633921</v>
+        <v>0.2312184488397556</v>
       </c>
       <c r="BI13">
         <v>-0.0149</v>
@@ -2713,10 +2713,10 @@
         <v>696</v>
       </c>
       <c r="K14">
-        <v>43.94741379310348</v>
+        <v>43.94655172413795</v>
       </c>
       <c r="L14">
-        <v>1.699841441961421</v>
+        <v>1.700838440780694</v>
       </c>
       <c r="M14">
         <v>41.7</v>
@@ -2737,10 +2737,10 @@
         <v>696</v>
       </c>
       <c r="S14">
-        <v>9.826091954022994</v>
+        <v>9.825948275862073</v>
       </c>
       <c r="T14">
-        <v>0.9689054642876855</v>
+        <v>0.9690879596712338</v>
       </c>
       <c r="U14">
         <v>8.48</v>
@@ -2785,10 +2785,10 @@
         <v>696</v>
       </c>
       <c r="AI14">
-        <v>182.7439655172414</v>
+        <v>182.7367816091954</v>
       </c>
       <c r="AJ14">
-        <v>78.51450779795822</v>
+        <v>78.51383343621733</v>
       </c>
       <c r="AK14">
         <v>95</v>
@@ -2809,10 +2809,10 @@
         <v>696</v>
       </c>
       <c r="AQ14">
-        <v>48.2283764367816</v>
+        <v>48.22577586206896</v>
       </c>
       <c r="AR14">
-        <v>31.35531069645207</v>
+        <v>31.35208868654022</v>
       </c>
       <c r="AS14">
         <v>2.16</v>
@@ -2833,10 +2833,10 @@
         <v>696</v>
       </c>
       <c r="AY14">
-        <v>0.01189829308333333</v>
+        <v>0.01189799372413794</v>
       </c>
       <c r="AZ14">
-        <v>0.01600913117964132</v>
+        <v>0.01600873387137979</v>
       </c>
       <c r="BA14">
         <v>-4.53E-05</v>
@@ -2857,10 +2857,10 @@
         <v>696</v>
       </c>
       <c r="BG14">
-        <v>0.3485745224137929</v>
+        <v>0.3485711997126437</v>
       </c>
       <c r="BH14">
-        <v>0.2407845278861625</v>
+        <v>0.2407858414574287</v>
       </c>
       <c r="BI14">
         <v>-0.00222</v>
@@ -2872,7 +2872,7 @@
         <v>0.3955</v>
       </c>
       <c r="BL14">
-        <v>0.505</v>
+        <v>0.50525</v>
       </c>
       <c r="BM14">
         <v>1.27</v>
@@ -2910,10 +2910,10 @@
         <v>696</v>
       </c>
       <c r="K15">
-        <v>43.94281609195404</v>
+        <v>43.94511494252875</v>
       </c>
       <c r="L15">
-        <v>1.702213573856482</v>
+        <v>1.702111845611399</v>
       </c>
       <c r="M15">
         <v>41.7</v>
@@ -2934,16 +2934,16 @@
         <v>696</v>
       </c>
       <c r="S15">
-        <v>9.822744252873569</v>
+        <v>9.823836206896557</v>
       </c>
       <c r="T15">
-        <v>0.9686986438293653</v>
+        <v>0.9681307787628153</v>
       </c>
       <c r="U15">
         <v>8.48</v>
       </c>
       <c r="V15">
-        <v>9.0275</v>
+        <v>9.035</v>
       </c>
       <c r="W15">
         <v>9.705</v>
@@ -2982,10 +2982,10 @@
         <v>696</v>
       </c>
       <c r="AI15">
-        <v>182.6419540229885</v>
+        <v>182.6448275862069</v>
       </c>
       <c r="AJ15">
-        <v>78.45521395700614</v>
+        <v>78.45333802069187</v>
       </c>
       <c r="AK15">
         <v>95</v>
@@ -3006,10 +3006,10 @@
         <v>696</v>
       </c>
       <c r="AQ15">
-        <v>48.19015804597699</v>
+        <v>48.19290229885055</v>
       </c>
       <c r="AR15">
-        <v>31.3205980464833</v>
+        <v>31.3235938274901</v>
       </c>
       <c r="AS15">
         <v>2.16</v>
@@ -3030,13 +3030,13 @@
         <v>696</v>
       </c>
       <c r="AY15">
-        <v>0.01225137870689655</v>
+        <v>0.01225165216954023</v>
       </c>
       <c r="AZ15">
-        <v>0.01638434101599676</v>
+        <v>0.0163844566642828</v>
       </c>
       <c r="BA15">
-        <v>3.71E-06</v>
+        <v>3.56E-06</v>
       </c>
       <c r="BB15">
         <v>0.0037175</v>
@@ -3054,13 +3054,13 @@
         <v>696</v>
       </c>
       <c r="BG15">
-        <v>0.3597640732758621</v>
+        <v>0.3597772974137931</v>
       </c>
       <c r="BH15">
-        <v>0.2451278267020041</v>
+        <v>0.2451371467579866</v>
       </c>
       <c r="BI15">
-        <v>0.000201</v>
+        <v>0.000193</v>
       </c>
       <c r="BJ15">
         <v>0.15675</v>
@@ -3107,10 +3107,10 @@
         <v>696</v>
       </c>
       <c r="K16">
-        <v>43.93979885057476</v>
+        <v>43.94037356321842</v>
       </c>
       <c r="L16">
-        <v>1.703600745200893</v>
+        <v>1.703874342173973</v>
       </c>
       <c r="M16">
         <v>41.7</v>
@@ -3131,10 +3131,10 @@
         <v>696</v>
       </c>
       <c r="S16">
-        <v>9.819899425287355</v>
+        <v>9.820890804597701</v>
       </c>
       <c r="T16">
-        <v>0.967618371885931</v>
+        <v>0.9680918320352943</v>
       </c>
       <c r="U16">
         <v>8.48</v>
@@ -3179,10 +3179,10 @@
         <v>696</v>
       </c>
       <c r="AI16">
-        <v>182.5701149425287</v>
+        <v>182.5729885057471</v>
       </c>
       <c r="AJ16">
-        <v>78.39058193312569</v>
+        <v>78.39212110042897</v>
       </c>
       <c r="AK16">
         <v>95</v>
@@ -3203,10 +3203,10 @@
         <v>696</v>
       </c>
       <c r="AQ16">
-        <v>48.17385057471265</v>
+        <v>48.1743103448276</v>
       </c>
       <c r="AR16">
-        <v>31.30867155214947</v>
+        <v>31.30878721595206</v>
       </c>
       <c r="AS16">
         <v>2.16</v>
@@ -3227,10 +3227,10 @@
         <v>696</v>
       </c>
       <c r="AY16">
-        <v>0.01253717270114943</v>
+        <v>0.01253721077586207</v>
       </c>
       <c r="AZ16">
-        <v>0.01672906252012315</v>
+        <v>0.01672904411659918</v>
       </c>
       <c r="BA16">
         <v>1.45E-05</v>
@@ -3251,13 +3251,13 @@
         <v>696</v>
       </c>
       <c r="BG16">
-        <v>0.3680058850574712</v>
+        <v>0.3680107859195402</v>
       </c>
       <c r="BH16">
-        <v>0.2476033718412534</v>
+        <v>0.2476043152504831</v>
       </c>
       <c r="BI16">
-        <v>0.000788</v>
+        <v>0.000786</v>
       </c>
       <c r="BJ16">
         <v>0.16175</v>
@@ -3304,10 +3304,10 @@
         <v>696</v>
       </c>
       <c r="K17">
-        <v>43.93534482758624</v>
+        <v>43.93735632183913</v>
       </c>
       <c r="L17">
-        <v>1.703264118656078</v>
+        <v>1.704496269659669</v>
       </c>
       <c r="M17">
         <v>41.7</v>
@@ -3328,19 +3328,19 @@
         <v>696</v>
       </c>
       <c r="S17">
-        <v>9.815804597701154</v>
+        <v>9.817801724137933</v>
       </c>
       <c r="T17">
-        <v>0.9671318937417477</v>
+        <v>0.9666832240160914</v>
       </c>
       <c r="U17">
         <v>8.48</v>
       </c>
       <c r="V17">
-        <v>9.024999999999999</v>
+        <v>9.0275</v>
       </c>
       <c r="W17">
-        <v>9.695</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X17">
         <v>10.425</v>
@@ -3376,10 +3376,10 @@
         <v>696</v>
       </c>
       <c r="AI17">
-        <v>182.5140804597701</v>
+        <v>182.5284482758621</v>
       </c>
       <c r="AJ17">
-        <v>78.36072465439463</v>
+        <v>78.35714010451422</v>
       </c>
       <c r="AK17">
         <v>95</v>
@@ -3400,10 +3400,10 @@
         <v>696</v>
       </c>
       <c r="AQ17">
-        <v>48.16254310344829</v>
+        <v>48.16441091954025</v>
       </c>
       <c r="AR17">
-        <v>31.30191229588752</v>
+        <v>31.30234725283997</v>
       </c>
       <c r="AS17">
         <v>2.16</v>
@@ -3424,10 +3424,10 @@
         <v>696</v>
       </c>
       <c r="AY17">
-        <v>0.01278742715517239</v>
+        <v>0.01278760431034481</v>
       </c>
       <c r="AZ17">
-        <v>0.01703803400741774</v>
+        <v>0.01703818531721135</v>
       </c>
       <c r="BA17">
         <v>1.98E-05</v>
@@ -3448,10 +3448,10 @@
         <v>696</v>
       </c>
       <c r="BG17">
-        <v>0.3748122126436783</v>
+        <v>0.3748196839080462</v>
       </c>
       <c r="BH17">
-        <v>0.2495397537597246</v>
+        <v>0.2495406921131933</v>
       </c>
       <c r="BI17">
         <v>0.00107</v>
@@ -3501,10 +3501,10 @@
         <v>696</v>
       </c>
       <c r="K18">
-        <v>43.93333333333337</v>
+        <v>43.93534482758625</v>
       </c>
       <c r="L18">
-        <v>1.703625700551017</v>
+        <v>1.704226872643671</v>
       </c>
       <c r="M18">
         <v>41.7</v>
@@ -3525,10 +3525,10 @@
         <v>696</v>
       </c>
       <c r="S18">
-        <v>9.813089080459772</v>
+        <v>9.815445402298854</v>
       </c>
       <c r="T18">
-        <v>0.9646782432068023</v>
+        <v>0.9659355340847582</v>
       </c>
       <c r="U18">
         <v>8.48</v>
@@ -3537,13 +3537,13 @@
         <v>9.024999999999999</v>
       </c>
       <c r="W18">
-        <v>9.695</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X18">
-        <v>10.4</v>
+        <v>10.425</v>
       </c>
       <c r="Y18">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="Z18">
         <v>696</v>
@@ -3573,10 +3573,10 @@
         <v>696</v>
       </c>
       <c r="AI18">
-        <v>182.4609195402299</v>
+        <v>182.476724137931</v>
       </c>
       <c r="AJ18">
-        <v>78.34099303649784</v>
+        <v>78.34342367419413</v>
       </c>
       <c r="AK18">
         <v>95</v>
@@ -3597,10 +3597,10 @@
         <v>696</v>
       </c>
       <c r="AQ18">
-        <v>48.15204022988505</v>
+        <v>48.15277298850574</v>
       </c>
       <c r="AR18">
-        <v>31.29490823279561</v>
+        <v>31.29532258585472</v>
       </c>
       <c r="AS18">
         <v>2.16</v>
@@ -3621,10 +3621,10 @@
         <v>696</v>
       </c>
       <c r="AY18">
-        <v>0.0130252908045977</v>
+        <v>0.01302530517241379</v>
       </c>
       <c r="AZ18">
-        <v>0.0173385470735522</v>
+        <v>0.0173385442584372</v>
       </c>
       <c r="BA18">
         <v>2.21E-05</v>
@@ -3645,10 +3645,10 @@
         <v>696</v>
       </c>
       <c r="BG18">
-        <v>0.3813717528735632</v>
+        <v>0.3813760919540229</v>
       </c>
       <c r="BH18">
-        <v>0.252555181643641</v>
+        <v>0.252555340008038</v>
       </c>
       <c r="BI18">
         <v>0.0012</v>
@@ -3698,10 +3698,10 @@
         <v>696</v>
       </c>
       <c r="K19">
-        <v>43.93362068965521</v>
+        <v>43.93419540229889</v>
       </c>
       <c r="L19">
-        <v>1.704869570682445</v>
+        <v>1.705018470511267</v>
       </c>
       <c r="M19">
         <v>41.7</v>
@@ -3722,22 +3722,22 @@
         <v>696</v>
       </c>
       <c r="S19">
-        <v>9.814022988505748</v>
+        <v>9.81468390804598</v>
       </c>
       <c r="T19">
-        <v>0.9645808987649165</v>
+        <v>0.9645734364632911</v>
       </c>
       <c r="U19">
         <v>8.48</v>
       </c>
       <c r="V19">
-        <v>9.0275</v>
+        <v>9.024999999999999</v>
       </c>
       <c r="W19">
         <v>9.695</v>
       </c>
       <c r="X19">
-        <v>10.4</v>
+        <v>10.425</v>
       </c>
       <c r="Y19">
         <v>12.1</v>
@@ -3770,10 +3770,10 @@
         <v>696</v>
       </c>
       <c r="AI19">
-        <v>182.4206896551724</v>
+        <v>182.425</v>
       </c>
       <c r="AJ19">
-        <v>78.30866763926808</v>
+        <v>78.30802879718492</v>
       </c>
       <c r="AK19">
         <v>95</v>
@@ -3794,10 +3794,10 @@
         <v>696</v>
       </c>
       <c r="AQ19">
-        <v>48.14298850574713</v>
+        <v>48.1435632183908</v>
       </c>
       <c r="AR19">
-        <v>31.28698956812304</v>
+        <v>31.2870945459455</v>
       </c>
       <c r="AS19">
         <v>2.16</v>
@@ -3818,13 +3818,13 @@
         <v>696</v>
       </c>
       <c r="AY19">
-        <v>0.01324638275862067</v>
+        <v>0.01324637974137929</v>
       </c>
       <c r="AZ19">
-        <v>0.01760279703722767</v>
+        <v>0.01760280445670311</v>
       </c>
       <c r="BA19">
-        <v>2.35E-05</v>
+        <v>2.34E-05</v>
       </c>
       <c r="BB19">
         <v>0.00412</v>
@@ -3842,10 +3842,10 @@
         <v>696</v>
       </c>
       <c r="BG19">
-        <v>0.3876153160919539</v>
+        <v>0.3876210919540229</v>
       </c>
       <c r="BH19">
-        <v>0.2553312659873276</v>
+        <v>0.2553309895547491</v>
       </c>
       <c r="BI19">
         <v>0.00127</v>
@@ -3919,10 +3919,10 @@
         <v>696</v>
       </c>
       <c r="S20">
-        <v>9.810704022988507</v>
+        <v>9.810229885057472</v>
       </c>
       <c r="T20">
-        <v>0.9632205833181086</v>
+        <v>0.9629577959915963</v>
       </c>
       <c r="U20">
         <v>8.48</v>
@@ -3967,10 +3967,10 @@
         <v>696</v>
       </c>
       <c r="AI20">
-        <v>182.3818965517241</v>
+        <v>182.3833333333333</v>
       </c>
       <c r="AJ20">
-        <v>78.28732021423379</v>
+        <v>78.28677099733669</v>
       </c>
       <c r="AK20">
         <v>95</v>
@@ -3991,10 +3991,10 @@
         <v>696</v>
       </c>
       <c r="AQ20">
-        <v>48.13436781609194</v>
+        <v>48.1340804597701</v>
       </c>
       <c r="AR20">
-        <v>31.28052843032456</v>
+        <v>31.28039902990012</v>
       </c>
       <c r="AS20">
         <v>2.16</v>
@@ -4015,13 +4015,13 @@
         <v>696</v>
       </c>
       <c r="AY20">
-        <v>0.01344315790229885</v>
+        <v>0.01344313994252874</v>
       </c>
       <c r="AZ20">
-        <v>0.01784473536812744</v>
+        <v>0.01784475072919302</v>
       </c>
       <c r="BA20">
-        <v>2.54E-05</v>
+        <v>2.53E-05</v>
       </c>
       <c r="BB20">
         <v>0.00421</v>
@@ -4039,10 +4039,10 @@
         <v>696</v>
       </c>
       <c r="BG20">
-        <v>0.3927804885057477</v>
+        <v>0.3927818678160926</v>
       </c>
       <c r="BH20">
-        <v>0.2558897665636342</v>
+        <v>0.2558885202706256</v>
       </c>
       <c r="BI20">
         <v>0.00137</v>
@@ -4095,7 +4095,7 @@
         <v>43.93103448275866</v>
       </c>
       <c r="L21">
-        <v>1.704994632862464</v>
+        <v>1.704969315604993</v>
       </c>
       <c r="M21">
         <v>41.7</v>
@@ -4116,10 +4116,10 @@
         <v>696</v>
       </c>
       <c r="S21">
-        <v>9.808936781609194</v>
+        <v>9.808764367816092</v>
       </c>
       <c r="T21">
-        <v>0.9615771017533583</v>
+        <v>0.9612822202597487</v>
       </c>
       <c r="U21">
         <v>8.48</v>
@@ -4188,10 +4188,10 @@
         <v>696</v>
       </c>
       <c r="AQ21">
-        <v>48.12764367816094</v>
+        <v>48.12793103448277</v>
       </c>
       <c r="AR21">
-        <v>31.2772015283809</v>
+        <v>31.27736090314752</v>
       </c>
       <c r="AS21">
         <v>2.16</v>
@@ -4212,10 +4212,10 @@
         <v>696</v>
       </c>
       <c r="AY21">
-        <v>0.01361762212643679</v>
+        <v>0.0136176235632184</v>
       </c>
       <c r="AZ21">
-        <v>0.01807733852500725</v>
+        <v>0.01807733744493698</v>
       </c>
       <c r="BA21">
         <v>2.75E-05</v>
@@ -4236,10 +4236,10 @@
         <v>696</v>
       </c>
       <c r="BG21">
-        <v>0.3967904166666666</v>
+        <v>0.3967904310344826</v>
       </c>
       <c r="BH21">
-        <v>0.2543996239917903</v>
+        <v>0.2543996016355607</v>
       </c>
       <c r="BI21">
         <v>0.00148</v>
@@ -4289,10 +4289,10 @@
         <v>696</v>
       </c>
       <c r="K22">
-        <v>43.9277298850575</v>
+        <v>43.92873563218394</v>
       </c>
       <c r="L22">
-        <v>1.707728860430102</v>
+        <v>1.706688192413661</v>
       </c>
       <c r="M22">
         <v>41.7</v>
@@ -4313,10 +4313,10 @@
         <v>696</v>
       </c>
       <c r="S22">
-        <v>9.808290229885051</v>
+        <v>9.808390804597696</v>
       </c>
       <c r="T22">
-        <v>0.9615684619476259</v>
+        <v>0.9614540829009125</v>
       </c>
       <c r="U22">
         <v>8.48</v>
@@ -4361,10 +4361,10 @@
         <v>696</v>
       </c>
       <c r="AI22">
-        <v>182.3488505747127</v>
+        <v>182.3502873563218</v>
       </c>
       <c r="AJ22">
-        <v>78.26590388481524</v>
+        <v>78.26984075070258</v>
       </c>
       <c r="AK22">
         <v>95</v>
@@ -4385,10 +4385,10 @@
         <v>696</v>
       </c>
       <c r="AQ22">
-        <v>48.12181034482757</v>
+        <v>48.12295977011492</v>
       </c>
       <c r="AR22">
-        <v>31.27414447573521</v>
+        <v>31.27391729351844</v>
       </c>
       <c r="AS22">
         <v>2.16</v>
@@ -4409,10 +4409,10 @@
         <v>696</v>
       </c>
       <c r="AY22">
-        <v>0.01377389985632185</v>
+        <v>0.01377391307471265</v>
       </c>
       <c r="AZ22">
-        <v>0.01829595940296124</v>
+        <v>0.0182959520939324</v>
       </c>
       <c r="BA22">
         <v>3.03E-05</v>
@@ -4433,10 +4433,10 @@
         <v>696</v>
       </c>
       <c r="BG22">
-        <v>0.4003079597701146</v>
+        <v>0.4003109051724135</v>
       </c>
       <c r="BH22">
-        <v>0.2531755763070787</v>
+        <v>0.2531753345582384</v>
       </c>
       <c r="BI22">
         <v>0.00162</v>
@@ -4486,10 +4486,10 @@
         <v>696</v>
       </c>
       <c r="K23">
-        <v>43.92672413793105</v>
+        <v>43.92701149425289</v>
       </c>
       <c r="L23">
-        <v>1.708481984726775</v>
+        <v>1.708300591844981</v>
       </c>
       <c r="M23">
         <v>41.7</v>
@@ -4510,13 +4510,13 @@
         <v>696</v>
       </c>
       <c r="S23">
-        <v>9.807816091954017</v>
+        <v>9.80813218390804</v>
       </c>
       <c r="T23">
-        <v>0.9617658223623961</v>
+        <v>0.9615764722572389</v>
       </c>
       <c r="U23">
-        <v>8.470000000000001</v>
+        <v>8.48</v>
       </c>
       <c r="V23">
         <v>9.024999999999999</v>
@@ -4558,10 +4558,10 @@
         <v>696</v>
       </c>
       <c r="AI23">
-        <v>182.3100574712644</v>
+        <v>182.3158045977011</v>
       </c>
       <c r="AJ23">
-        <v>78.23924965432313</v>
+        <v>78.24592044574632</v>
       </c>
       <c r="AK23">
         <v>95</v>
@@ -4582,10 +4582,10 @@
         <v>696</v>
       </c>
       <c r="AQ23">
-        <v>48.11669540229883</v>
+        <v>48.11798850574711</v>
       </c>
       <c r="AR23">
-        <v>31.26966733054898</v>
+        <v>31.27008832973626</v>
       </c>
       <c r="AS23">
         <v>2.16</v>
@@ -4606,13 +4606,13 @@
         <v>696</v>
       </c>
       <c r="AY23">
-        <v>0.01393511264367816</v>
+        <v>0.01393512212643678</v>
       </c>
       <c r="AZ23">
-        <v>0.01849063316946903</v>
+        <v>0.0184906310534705</v>
       </c>
       <c r="BA23">
-        <v>2.96E-05</v>
+        <v>2.95E-05</v>
       </c>
       <c r="BB23">
         <v>0.00451</v>
@@ -4630,10 +4630,10 @@
         <v>696</v>
       </c>
       <c r="BG23">
-        <v>0.4046672126436782</v>
+        <v>0.4046641091954024</v>
       </c>
       <c r="BH23">
-        <v>0.2550531103196552</v>
+        <v>0.255051826460404</v>
       </c>
       <c r="BI23">
         <v>0.00159</v>
@@ -4683,10 +4683,10 @@
         <v>696</v>
       </c>
       <c r="K24">
-        <v>43.92543103448278</v>
+        <v>43.92629310344829</v>
       </c>
       <c r="L24">
-        <v>1.708564912008399</v>
+        <v>1.708770788038316</v>
       </c>
       <c r="M24">
         <v>41.7</v>
@@ -4707,10 +4707,10 @@
         <v>696</v>
       </c>
       <c r="S24">
-        <v>9.80653735632184</v>
+        <v>9.807270114942527</v>
       </c>
       <c r="T24">
-        <v>0.9621217223794707</v>
+        <v>0.9618004797795426</v>
       </c>
       <c r="U24">
         <v>8.470000000000001</v>
@@ -4755,10 +4755,10 @@
         <v>696</v>
       </c>
       <c r="AI24">
-        <v>182.2640804597701</v>
+        <v>182.2683908045977</v>
       </c>
       <c r="AJ24">
-        <v>78.19344764552082</v>
+        <v>78.1944358045255</v>
       </c>
       <c r="AK24">
         <v>95</v>
@@ -4779,10 +4779,10 @@
         <v>696</v>
       </c>
       <c r="AQ24">
-        <v>48.10886494252873</v>
+        <v>48.11018678160918</v>
       </c>
       <c r="AR24">
-        <v>31.26480869505788</v>
+        <v>31.26512156214969</v>
       </c>
       <c r="AS24">
         <v>2.16</v>
@@ -4803,10 +4803,10 @@
         <v>696</v>
       </c>
       <c r="AY24">
-        <v>0.01410577629310346</v>
+        <v>0.01410575646551726</v>
       </c>
       <c r="AZ24">
-        <v>0.01868283648298962</v>
+        <v>0.01868284643428244</v>
       </c>
       <c r="BA24">
         <v>2.93E-05</v>
@@ -4827,13 +4827,13 @@
         <v>696</v>
       </c>
       <c r="BG24">
-        <v>0.409795071839081</v>
+        <v>0.4097877873563224</v>
       </c>
       <c r="BH24">
-        <v>0.2586685505763335</v>
+        <v>0.2586667483531394</v>
       </c>
       <c r="BI24">
-        <v>0.00158</v>
+        <v>0.00157</v>
       </c>
       <c r="BJ24">
         <v>0.18775</v>
@@ -4904,10 +4904,10 @@
         <v>696</v>
       </c>
       <c r="S25">
-        <v>9.804022988505752</v>
+        <v>9.80468390804598</v>
       </c>
       <c r="T25">
-        <v>0.960132736351186</v>
+        <v>0.9604054378115975</v>
       </c>
       <c r="U25">
         <v>8.470000000000001</v>
@@ -4952,10 +4952,10 @@
         <v>696</v>
       </c>
       <c r="AI25">
-        <v>182.1936781609195</v>
+        <v>182.1994252873563</v>
       </c>
       <c r="AJ25">
-        <v>78.14913829398228</v>
+        <v>78.15665379251676</v>
       </c>
       <c r="AK25">
         <v>95</v>
@@ -4976,10 +4976,10 @@
         <v>696</v>
       </c>
       <c r="AQ25">
-        <v>48.10090517241379</v>
+        <v>48.10206896551723</v>
       </c>
       <c r="AR25">
-        <v>31.25886393148985</v>
+        <v>31.25902488204859</v>
       </c>
       <c r="AS25">
         <v>2.16</v>
@@ -5000,13 +5000,13 @@
         <v>696</v>
       </c>
       <c r="AY25">
-        <v>0.01427052931034482</v>
+        <v>0.0142707224137931</v>
       </c>
       <c r="AZ25">
-        <v>0.01887083442867609</v>
+        <v>0.01887080145664692</v>
       </c>
       <c r="BA25">
-        <v>3.02E-05</v>
+        <v>3.04E-05</v>
       </c>
       <c r="BB25">
         <v>0.00469</v>
@@ -5024,13 +5024,13 @@
         <v>696</v>
       </c>
       <c r="BG25">
-        <v>0.4146931465517244</v>
+        <v>0.4146948132183909</v>
       </c>
       <c r="BH25">
-        <v>0.262028994105529</v>
+        <v>0.2620296738168037</v>
       </c>
       <c r="BI25">
-        <v>0.00162</v>
+        <v>0.00163</v>
       </c>
       <c r="BJ25">
         <v>0.189</v>
@@ -5101,10 +5101,10 @@
         <v>696</v>
       </c>
       <c r="S26">
-        <v>9.803620689655174</v>
+        <v>9.803548850574716</v>
       </c>
       <c r="T26">
-        <v>0.9603102585140357</v>
+        <v>0.9603604946188565</v>
       </c>
       <c r="U26">
         <v>8.470000000000001</v>
@@ -5197,10 +5197,10 @@
         <v>696</v>
       </c>
       <c r="AY26">
-        <v>0.01442286091954023</v>
+        <v>0.01442284181034483</v>
       </c>
       <c r="AZ26">
-        <v>0.01903207625508329</v>
+        <v>0.01903208581552293</v>
       </c>
       <c r="BA26">
         <v>3.13E-05</v>
@@ -5221,10 +5221,10 @@
         <v>696</v>
       </c>
       <c r="BG26">
-        <v>0.4196055459770113</v>
+        <v>0.4196026005747125</v>
       </c>
       <c r="BH26">
-        <v>0.2657311478946871</v>
+        <v>0.2657255062003975</v>
       </c>
       <c r="BI26">
         <v>0.00168</v>
@@ -5274,10 +5274,10 @@
         <v>696</v>
       </c>
       <c r="K27">
-        <v>43.92399425287359</v>
+        <v>43.92442528735634</v>
       </c>
       <c r="L27">
-        <v>1.709090925835334</v>
+        <v>1.708937475488619</v>
       </c>
       <c r="M27">
         <v>41.7</v>
@@ -5298,10 +5298,10 @@
         <v>696</v>
       </c>
       <c r="S27">
-        <v>9.802701149425291</v>
+        <v>9.803031609195404</v>
       </c>
       <c r="T27">
-        <v>0.9606132048149572</v>
+        <v>0.9605006962457803</v>
       </c>
       <c r="U27">
         <v>8.470000000000001</v>
@@ -5370,10 +5370,10 @@
         <v>696</v>
       </c>
       <c r="AQ27">
-        <v>48.08600574712645</v>
+        <v>48.08659482758621</v>
       </c>
       <c r="AR27">
-        <v>31.2467804821202</v>
+        <v>31.24636497833533</v>
       </c>
       <c r="AS27">
         <v>2.16</v>
@@ -5394,10 +5394,10 @@
         <v>696</v>
       </c>
       <c r="AY27">
-        <v>0.01457282370689655</v>
+        <v>0.01457266925287356</v>
       </c>
       <c r="AZ27">
-        <v>0.01919916477537046</v>
+        <v>0.01919885394840996</v>
       </c>
       <c r="BA27">
         <v>3.22E-05</v>
@@ -5418,10 +5418,10 @@
         <v>696</v>
       </c>
       <c r="BG27">
-        <v>0.4242714511494252</v>
+        <v>0.4242729597701148</v>
       </c>
       <c r="BH27">
-        <v>0.2690765511045027</v>
+        <v>0.2690767015071371</v>
       </c>
       <c r="BI27">
         <v>0.00172</v>
@@ -5471,10 +5471,10 @@
         <v>696</v>
       </c>
       <c r="K28">
-        <v>43.92356321839083</v>
+        <v>43.923275862069</v>
       </c>
       <c r="L28">
-        <v>1.709530443006507</v>
+        <v>1.70944180002582</v>
       </c>
       <c r="M28">
         <v>41.7</v>
@@ -5495,10 +5495,10 @@
         <v>696</v>
       </c>
       <c r="S28">
-        <v>9.801479885057475</v>
+        <v>9.800804597701156</v>
       </c>
       <c r="T28">
-        <v>0.9599500704329899</v>
+        <v>0.9598855967693782</v>
       </c>
       <c r="U28">
         <v>8.470000000000001</v>
@@ -5543,10 +5543,10 @@
         <v>696</v>
       </c>
       <c r="AI28">
-        <v>182.1175287356322</v>
+        <v>182.1146551724138</v>
       </c>
       <c r="AJ28">
-        <v>78.11574631146871</v>
+        <v>78.11558481296984</v>
       </c>
       <c r="AK28">
         <v>95</v>
@@ -5567,10 +5567,10 @@
         <v>696</v>
       </c>
       <c r="AQ28">
-        <v>48.08041666666664</v>
+        <v>48.0801293103448</v>
       </c>
       <c r="AR28">
-        <v>31.24377359966304</v>
+        <v>31.24378861523701</v>
       </c>
       <c r="AS28">
         <v>2.16</v>
@@ -5591,16 +5591,16 @@
         <v>696</v>
       </c>
       <c r="AY28">
-        <v>0.01470972471264366</v>
+        <v>0.01470971738505745</v>
       </c>
       <c r="AZ28">
-        <v>0.01936249656043942</v>
+        <v>0.0193625035218318</v>
       </c>
       <c r="BA28">
         <v>3.35E-05</v>
       </c>
       <c r="BB28">
-        <v>0.00492</v>
+        <v>0.0049175</v>
       </c>
       <c r="BC28">
         <v>0.009095000000000001</v>
@@ -5615,10 +5615,10 @@
         <v>696</v>
       </c>
       <c r="BG28">
-        <v>0.4284972557471267</v>
+        <v>0.4284913505747129</v>
       </c>
       <c r="BH28">
-        <v>0.2717397542350747</v>
+        <v>0.2717348610192246</v>
       </c>
       <c r="BI28">
         <v>0.00178</v>
@@ -5630,7 +5630,7 @@
         <v>0.475</v>
       </c>
       <c r="BL28">
-        <v>0.61825</v>
+        <v>0.619</v>
       </c>
       <c r="BM28">
         <v>1.2</v>
@@ -5668,10 +5668,10 @@
         <v>696</v>
       </c>
       <c r="K29">
-        <v>43.92298850574716</v>
+        <v>43.923275862069</v>
       </c>
       <c r="L29">
-        <v>1.709790758332073</v>
+        <v>1.70944180002582</v>
       </c>
       <c r="M29">
         <v>41.7</v>
@@ -5692,10 +5692,10 @@
         <v>696</v>
       </c>
       <c r="S29">
-        <v>9.799755747126436</v>
+        <v>9.799913793103451</v>
       </c>
       <c r="T29">
-        <v>0.9587000029468948</v>
+        <v>0.9587278702782798</v>
       </c>
       <c r="U29">
         <v>8.470000000000001</v>
@@ -5764,10 +5764,10 @@
         <v>696</v>
       </c>
       <c r="AQ29">
-        <v>48.06926724137926</v>
+        <v>48.07257183908041</v>
       </c>
       <c r="AR29">
-        <v>31.22431202567451</v>
+        <v>31.23475141054088</v>
       </c>
       <c r="AS29">
         <v>2.16</v>
@@ -5788,10 +5788,10 @@
         <v>696</v>
       </c>
       <c r="AY29">
-        <v>0.01483114870689655</v>
+        <v>0.01483122456896551</v>
       </c>
       <c r="AZ29">
-        <v>0.01948477308486083</v>
+        <v>0.019484734590218</v>
       </c>
       <c r="BA29">
         <v>3.49E-05</v>
@@ -5812,10 +5812,10 @@
         <v>696</v>
       </c>
       <c r="BG29">
-        <v>0.4323449281609199</v>
+        <v>0.4323495977011498</v>
       </c>
       <c r="BH29">
-        <v>0.273977461678709</v>
+        <v>0.2739760095071271</v>
       </c>
       <c r="BI29">
         <v>0.00185</v>
@@ -5865,10 +5865,10 @@
         <v>696</v>
       </c>
       <c r="K30">
-        <v>43.9218390804598</v>
+        <v>43.92255747126439</v>
       </c>
       <c r="L30">
-        <v>1.711050855522055</v>
+        <v>1.710313971639238</v>
       </c>
       <c r="M30">
         <v>41.7</v>
@@ -5889,10 +5889,10 @@
         <v>696</v>
       </c>
       <c r="S30">
-        <v>9.796537356321846</v>
+        <v>9.798318965517245</v>
       </c>
       <c r="T30">
-        <v>0.9555696293772159</v>
+        <v>0.9570197544172367</v>
       </c>
       <c r="U30">
         <v>8.470000000000001</v>
@@ -5901,7 +5901,7 @@
         <v>9.024999999999999</v>
       </c>
       <c r="W30">
-        <v>9.675000000000001</v>
+        <v>9.68</v>
       </c>
       <c r="X30">
         <v>10.4</v>
@@ -5961,10 +5961,10 @@
         <v>696</v>
       </c>
       <c r="AQ30">
-        <v>48.05867816091951</v>
+        <v>48.05969827586203</v>
       </c>
       <c r="AR30">
-        <v>31.20277335450835</v>
+        <v>31.20293919093899</v>
       </c>
       <c r="AS30">
         <v>2.16</v>
@@ -5985,10 +5985,10 @@
         <v>696</v>
       </c>
       <c r="AY30">
-        <v>0.01495601925287356</v>
+        <v>0.01495597370689655</v>
       </c>
       <c r="AZ30">
-        <v>0.01964799059061866</v>
+        <v>0.01964801305233441</v>
       </c>
       <c r="BA30">
         <v>3.57E-05</v>
@@ -6009,10 +6009,10 @@
         <v>696</v>
       </c>
       <c r="BG30">
-        <v>0.4359070402298848</v>
+        <v>0.4359026724137929</v>
       </c>
       <c r="BH30">
-        <v>0.2759886540074925</v>
+        <v>0.2759882346148067</v>
       </c>
       <c r="BI30">
         <v>0.00189</v>
@@ -6062,10 +6062,10 @@
         <v>696</v>
       </c>
       <c r="K31">
-        <v>43.92155172413797</v>
+        <v>43.9218390804598</v>
       </c>
       <c r="L31">
-        <v>1.711331983290501</v>
+        <v>1.711050855522055</v>
       </c>
       <c r="M31">
         <v>41.7</v>
@@ -6086,10 +6086,10 @@
         <v>696</v>
       </c>
       <c r="S31">
-        <v>9.795704022988508</v>
+        <v>9.796106321839082</v>
       </c>
       <c r="T31">
-        <v>0.9551391137735125</v>
+        <v>0.9549095765939138</v>
       </c>
       <c r="U31">
         <v>8.470000000000001</v>
@@ -6158,10 +6158,10 @@
         <v>696</v>
       </c>
       <c r="AQ31">
-        <v>48.05443965517239</v>
+        <v>48.05501436781607</v>
       </c>
       <c r="AR31">
-        <v>31.19899673219691</v>
+        <v>31.19885413870417</v>
       </c>
       <c r="AS31">
         <v>2.16</v>
@@ -6182,13 +6182,13 @@
         <v>696</v>
       </c>
       <c r="AY31">
-        <v>0.01506188175287355</v>
+        <v>0.01506110201149423</v>
       </c>
       <c r="AZ31">
-        <v>0.01975184987595229</v>
+        <v>0.01975196442872912</v>
       </c>
       <c r="BA31">
-        <v>3.68E-05</v>
+        <v>3.65E-05</v>
       </c>
       <c r="BB31">
         <v>0.0050375</v>
@@ -6206,13 +6206,13 @@
         <v>696</v>
       </c>
       <c r="BG31">
-        <v>0.4393480028735637</v>
+        <v>0.4393128448275866</v>
       </c>
       <c r="BH31">
-        <v>0.2780051637761817</v>
+        <v>0.2779839911046255</v>
       </c>
       <c r="BI31">
-        <v>0.00195</v>
+        <v>0.00193</v>
       </c>
       <c r="BJ31">
         <v>0.19775</v>
@@ -6379,13 +6379,13 @@
         <v>696</v>
       </c>
       <c r="AY32">
-        <v>0.01517177629310346</v>
+        <v>0.01517175287356323</v>
       </c>
       <c r="AZ32">
-        <v>0.01990444643282663</v>
+        <v>0.01990445916837306</v>
       </c>
       <c r="BA32">
-        <v>3.72E-05</v>
+        <v>3.71E-05</v>
       </c>
       <c r="BB32">
         <v>0.005065</v>
@@ -6403,10 +6403,10 @@
         <v>696</v>
       </c>
       <c r="BG32">
-        <v>0.4425648563218395</v>
+        <v>0.4425588936781613</v>
       </c>
       <c r="BH32">
-        <v>0.2798943027541358</v>
+        <v>0.2798908907476672</v>
       </c>
       <c r="BI32">
         <v>0.00196</v>
@@ -6576,13 +6576,13 @@
         <v>696</v>
       </c>
       <c r="AY33">
-        <v>0.01527307844827586</v>
+        <v>0.01527307816091954</v>
       </c>
       <c r="AZ33">
-        <v>0.02000416069803626</v>
+        <v>0.02000416097179697</v>
       </c>
       <c r="BA33">
-        <v>3.76E-05</v>
+        <v>3.75E-05</v>
       </c>
       <c r="BB33">
         <v>0.0050875</v>
@@ -6600,13 +6600,13 @@
         <v>696</v>
       </c>
       <c r="BG33">
-        <v>0.4457304885057473</v>
+        <v>0.4457289224137934</v>
       </c>
       <c r="BH33">
-        <v>0.2818483978195194</v>
+        <v>0.2818474898434743</v>
       </c>
       <c r="BI33">
-        <v>0.00199</v>
+        <v>0.00198</v>
       </c>
       <c r="BJ33">
         <v>0.19975</v>
@@ -6773,10 +6773,10 @@
         <v>696</v>
       </c>
       <c r="AY34">
-        <v>0.01536768232758621</v>
+        <v>0.01536768060344827</v>
       </c>
       <c r="AZ34">
-        <v>0.02009864868724329</v>
+        <v>0.02009864999599352</v>
       </c>
       <c r="BA34">
         <v>3.82E-05</v>
@@ -6797,13 +6797,13 @@
         <v>696</v>
       </c>
       <c r="BG34">
-        <v>0.4487652011494253</v>
+        <v>0.4487636925287357</v>
       </c>
       <c r="BH34">
-        <v>0.2836989676936859</v>
+        <v>0.2836979715028554</v>
       </c>
       <c r="BI34">
-        <v>0.00202</v>
+        <v>0.00201</v>
       </c>
       <c r="BJ34">
         <v>0.20075</v>
@@ -7561,10 +7561,10 @@
         <v>696</v>
       </c>
       <c r="AY38">
-        <v>0.0157280287356322</v>
+        <v>0.01572801422413795</v>
       </c>
       <c r="AZ38">
-        <v>0.0205032898383799</v>
+        <v>0.02050329683476999</v>
       </c>
       <c r="BA38">
         <v>4.01E-05</v>
@@ -8176,10 +8176,10 @@
         <v>696</v>
       </c>
       <c r="BG41">
-        <v>0.4689290948275869</v>
+        <v>0.4689276724137938</v>
       </c>
       <c r="BH41">
-        <v>0.2966246572458699</v>
+        <v>0.2966240546051548</v>
       </c>
       <c r="BI41">
         <v>0.00215</v>
@@ -8546,10 +8546,10 @@
         <v>696</v>
       </c>
       <c r="AY43">
-        <v>0.01615104540229884</v>
+        <v>0.016151045545977</v>
       </c>
       <c r="AZ43">
-        <v>0.02097151086122099</v>
+        <v>0.02097151075075186</v>
       </c>
       <c r="BA43">
         <v>4.19E-05</v>
@@ -8570,10 +8570,10 @@
         <v>696</v>
       </c>
       <c r="BG43">
-        <v>0.4740838649425289</v>
+        <v>0.4740694971264369</v>
       </c>
       <c r="BH43">
-        <v>0.2998275110387438</v>
+        <v>0.2997996316840237</v>
       </c>
       <c r="BI43">
         <v>0.00218</v>
@@ -8767,10 +8767,10 @@
         <v>696</v>
       </c>
       <c r="BG44">
-        <v>0.4763898275862069</v>
+        <v>0.4763884051724139</v>
       </c>
       <c r="BH44">
-        <v>0.301135188857622</v>
+        <v>0.3011329295592478</v>
       </c>
       <c r="BI44">
         <v>0.00218</v>
@@ -9534,7 +9534,7 @@
         <v>0.01652758893678159</v>
       </c>
       <c r="AZ48">
-        <v>0.02138555664381768</v>
+        <v>0.02138555668210076</v>
       </c>
       <c r="BA48">
         <v>4.4E-05</v>
@@ -9728,10 +9728,10 @@
         <v>696</v>
       </c>
       <c r="AY49">
-        <v>0.01659633117816088</v>
+        <v>0.01659618749999996</v>
       </c>
       <c r="AZ49">
-        <v>0.02146261376004187</v>
+        <v>0.02146261339976568</v>
       </c>
       <c r="BA49">
         <v>4.25E-05</v>
@@ -10199,10 +10199,10 @@
         <v>696</v>
       </c>
       <c r="K52">
-        <v>44.16135057471267</v>
+        <v>44.16120689655175</v>
       </c>
       <c r="L52">
-        <v>1.587256050688016</v>
+        <v>1.587347720541787</v>
       </c>
       <c r="M52">
         <v>41.8</v>
@@ -10223,10 +10223,10 @@
         <v>696</v>
       </c>
       <c r="S52">
-        <v>10.03860632183909</v>
+        <v>10.03837643678162</v>
       </c>
       <c r="T52">
-        <v>1.078205242092193</v>
+        <v>1.078139127828485</v>
       </c>
       <c r="U52">
         <v>8.470000000000001</v>
@@ -10295,10 +10295,10 @@
         <v>696</v>
       </c>
       <c r="AQ52">
-        <v>49.39410919540232</v>
+        <v>49.39382183908049</v>
       </c>
       <c r="AR52">
-        <v>32.58186529736573</v>
+        <v>32.58174335938086</v>
       </c>
       <c r="AS52">
         <v>2.16</v>
@@ -10319,10 +10319,10 @@
         <v>696</v>
       </c>
       <c r="AY52">
-        <v>0.02335170977011495</v>
+        <v>0.02335297413793105</v>
       </c>
       <c r="AZ52">
-        <v>0.022349635184938</v>
+        <v>0.02235045909571565</v>
       </c>
       <c r="BA52">
         <v>0.0013</v>
@@ -10343,10 +10343,10 @@
         <v>696</v>
       </c>
       <c r="BG52">
-        <v>0.8892138793103439</v>
+        <v>0.8892753735632175</v>
       </c>
       <c r="BH52">
-        <v>0.6803101520424197</v>
+        <v>0.6804449072952434</v>
       </c>
       <c r="BI52">
         <v>0.009560000000000001</v>
@@ -10361,7 +10361,7 @@
         <v>1.38</v>
       </c>
       <c r="BM52">
-        <v>3.23</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="53" spans="1:65">
@@ -10396,10 +10396,10 @@
         <v>696</v>
       </c>
       <c r="K53">
-        <v>44.56867816091954</v>
+        <v>44.56752873563218</v>
       </c>
       <c r="L53">
-        <v>1.371727464126498</v>
+        <v>1.371952423522947</v>
       </c>
       <c r="M53">
         <v>42.5</v>
@@ -10420,10 +10420,10 @@
         <v>696</v>
       </c>
       <c r="S53">
-        <v>10.44692528735631</v>
+        <v>10.44613505747126</v>
       </c>
       <c r="T53">
-        <v>1.274604760358841</v>
+        <v>1.274542379890174</v>
       </c>
       <c r="U53">
         <v>8.550000000000001</v>
@@ -10432,7 +10432,7 @@
         <v>9.23</v>
       </c>
       <c r="W53">
-        <v>10.4</v>
+        <v>10.35</v>
       </c>
       <c r="X53">
         <v>11.1</v>
@@ -10468,10 +10468,10 @@
         <v>696</v>
       </c>
       <c r="AI53">
-        <v>194.5867816091954</v>
+        <v>194.5824712643678</v>
       </c>
       <c r="AJ53">
-        <v>89.694979033788</v>
+        <v>89.68757159192529</v>
       </c>
       <c r="AK53">
         <v>95</v>
@@ -10492,10 +10492,10 @@
         <v>696</v>
       </c>
       <c r="AQ53">
-        <v>51.4811925287356</v>
+        <v>51.47946839080458</v>
       </c>
       <c r="AR53">
-        <v>35.0670815715071</v>
+        <v>35.0641611024377</v>
       </c>
       <c r="AS53">
         <v>2.23</v>
@@ -10516,10 +10516,10 @@
         <v>696</v>
       </c>
       <c r="AY53">
-        <v>0.02560466954022989</v>
+        <v>0.02560522988505747</v>
       </c>
       <c r="AZ53">
-        <v>0.02324923200167304</v>
+        <v>0.02324986163069271</v>
       </c>
       <c r="BA53">
         <v>0.00196</v>
@@ -10528,7 +10528,7 @@
         <v>0.012975</v>
       </c>
       <c r="BC53">
-        <v>0.01885</v>
+        <v>0.0189</v>
       </c>
       <c r="BD53">
         <v>0.0311</v>
@@ -10540,10 +10540,10 @@
         <v>696</v>
       </c>
       <c r="BG53">
-        <v>1.043746839080461</v>
+        <v>1.043748563218392</v>
       </c>
       <c r="BH53">
-        <v>0.8200018857436172</v>
+        <v>0.819980385866983</v>
       </c>
       <c r="BI53">
         <v>0.0128</v>
@@ -10617,10 +10617,10 @@
         <v>696</v>
       </c>
       <c r="S54">
-        <v>10.91061781609197</v>
+        <v>10.9105747126437</v>
       </c>
       <c r="T54">
-        <v>1.483177143128211</v>
+        <v>1.483231534298691</v>
       </c>
       <c r="U54">
         <v>8.66</v>
@@ -10689,10 +10689,10 @@
         <v>696</v>
       </c>
       <c r="AQ54">
-        <v>53.3576724137931</v>
+        <v>53.35752873563219</v>
       </c>
       <c r="AR54">
-        <v>37.42530310194415</v>
+        <v>37.42542500442398</v>
       </c>
       <c r="AS54">
         <v>2.32</v>
@@ -10713,10 +10713,10 @@
         <v>696</v>
       </c>
       <c r="AY54">
-        <v>0.02708810344827587</v>
+        <v>0.02708909482758621</v>
       </c>
       <c r="AZ54">
-        <v>0.02433300169239187</v>
+        <v>0.02433348262944139</v>
       </c>
       <c r="BA54">
         <v>0.00255</v>
@@ -10737,16 +10737,16 @@
         <v>696</v>
       </c>
       <c r="BG54">
-        <v>1.1448841954023</v>
+        <v>1.144934482758621</v>
       </c>
       <c r="BH54">
-        <v>0.8916996837953857</v>
+        <v>0.8917261249815969</v>
       </c>
       <c r="BI54">
         <v>0.0155</v>
       </c>
       <c r="BJ54">
-        <v>0.53125</v>
+        <v>0.5315000000000001</v>
       </c>
       <c r="BK54">
         <v>0.7435</v>
@@ -10790,10 +10790,10 @@
         <v>696</v>
       </c>
       <c r="K55">
-        <v>45.52830459770116</v>
+        <v>45.52916666666667</v>
       </c>
       <c r="L55">
-        <v>0.9284104148778448</v>
+        <v>0.9287710737496376</v>
       </c>
       <c r="M55">
         <v>44.1</v>
@@ -10805,7 +10805,7 @@
         <v>45.3</v>
       </c>
       <c r="P55">
-        <v>46.2</v>
+        <v>46.225</v>
       </c>
       <c r="Q55">
         <v>47.4</v>
@@ -10814,10 +10814,10 @@
         <v>696</v>
       </c>
       <c r="S55">
-        <v>11.40748563218391</v>
+        <v>11.40798850574713</v>
       </c>
       <c r="T55">
-        <v>1.689927800533586</v>
+        <v>1.689877005403907</v>
       </c>
       <c r="U55">
         <v>8.81</v>
@@ -10862,10 +10862,10 @@
         <v>696</v>
       </c>
       <c r="AI55">
-        <v>203.2350574712643</v>
+        <v>203.2393678160919</v>
       </c>
       <c r="AJ55">
-        <v>99.83450078096118</v>
+        <v>99.83377711106415</v>
       </c>
       <c r="AK55">
         <v>94.90000000000001</v>
@@ -10886,10 +10886,10 @@
         <v>696</v>
       </c>
       <c r="AQ55">
-        <v>53.84854885057469</v>
+        <v>53.8494109195402</v>
       </c>
       <c r="AR55">
-        <v>38.05939226170045</v>
+        <v>38.05957110375952</v>
       </c>
       <c r="AS55">
         <v>2.32</v>
@@ -10910,10 +10910,10 @@
         <v>696</v>
       </c>
       <c r="AY55">
-        <v>0.02886639367816091</v>
+        <v>0.028865158045977</v>
       </c>
       <c r="AZ55">
-        <v>0.02584455182552138</v>
+        <v>0.02584379652775093</v>
       </c>
       <c r="BA55">
         <v>0.00343</v>
@@ -10934,10 +10934,10 @@
         <v>696</v>
       </c>
       <c r="BG55">
-        <v>1.214144540229885</v>
+        <v>1.214078304597701</v>
       </c>
       <c r="BH55">
-        <v>0.9089698019212079</v>
+        <v>0.9089457614881066</v>
       </c>
       <c r="BI55">
         <v>0.0194</v>
@@ -10987,10 +10987,10 @@
         <v>696</v>
       </c>
       <c r="K56">
-        <v>46.10258620689655</v>
+        <v>46.10545977011493</v>
       </c>
       <c r="L56">
-        <v>0.7416444346031468</v>
+        <v>0.7415900211911599</v>
       </c>
       <c r="M56">
         <v>45</v>
@@ -11011,16 +11011,16 @@
         <v>696</v>
       </c>
       <c r="S56">
-        <v>11.97988505747126</v>
+        <v>11.98211206896551</v>
       </c>
       <c r="T56">
-        <v>1.871606239257275</v>
+        <v>1.87133807213668</v>
       </c>
       <c r="U56">
         <v>9.01</v>
       </c>
       <c r="V56">
-        <v>9.9375</v>
+        <v>9.94</v>
       </c>
       <c r="W56">
         <v>11.9</v>
@@ -11059,10 +11059,10 @@
         <v>696</v>
       </c>
       <c r="AI56">
-        <v>203.2498563218391</v>
+        <v>203.2613505747126</v>
       </c>
       <c r="AJ56">
-        <v>99.84680005885863</v>
+        <v>99.84923476886893</v>
       </c>
       <c r="AK56">
         <v>95</v>
@@ -11083,10 +11083,10 @@
         <v>696</v>
       </c>
       <c r="AQ56">
-        <v>53.85405172413794</v>
+        <v>53.85520114942529</v>
       </c>
       <c r="AR56">
-        <v>38.06723729989139</v>
+        <v>38.06711809747687</v>
       </c>
       <c r="AS56">
         <v>2.32</v>
@@ -11107,13 +11107,13 @@
         <v>696</v>
       </c>
       <c r="AY56">
-        <v>0.03094932471264366</v>
+        <v>0.03094629310344826</v>
       </c>
       <c r="AZ56">
-        <v>0.02785803548834609</v>
+        <v>0.02784752048521372</v>
       </c>
       <c r="BA56">
-        <v>0.00393</v>
+        <v>0.00394</v>
       </c>
       <c r="BB56">
         <v>0.017275</v>
@@ -11131,16 +11131,16 @@
         <v>696</v>
       </c>
       <c r="BG56">
-        <v>1.275616810344826</v>
+        <v>1.275539655172412</v>
       </c>
       <c r="BH56">
-        <v>0.9008974105819511</v>
+        <v>0.9008632766579846</v>
       </c>
       <c r="BI56">
-        <v>0.0221</v>
+        <v>0.0222</v>
       </c>
       <c r="BJ56">
-        <v>0.656</v>
+        <v>0.655</v>
       </c>
       <c r="BK56">
         <v>0.8935</v>
@@ -11184,16 +11184,16 @@
         <v>696</v>
       </c>
       <c r="K57">
-        <v>46.48678160919543</v>
+        <v>46.49224137931036</v>
       </c>
       <c r="L57">
-        <v>0.6313835336982738</v>
+        <v>0.6325443692439816</v>
       </c>
       <c r="M57">
         <v>45.7</v>
       </c>
       <c r="N57">
-        <v>45.9</v>
+        <v>46</v>
       </c>
       <c r="O57">
         <v>46.3</v>
@@ -11208,19 +11208,19 @@
         <v>696</v>
       </c>
       <c r="S57">
-        <v>12.3649856321839</v>
+        <v>12.37274425287355</v>
       </c>
       <c r="T57">
-        <v>1.949784123765931</v>
+        <v>1.950316431982003</v>
       </c>
       <c r="U57">
-        <v>9.289999999999999</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="V57">
         <v>10.2</v>
       </c>
       <c r="W57">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="X57">
         <v>13.8</v>
@@ -11256,10 +11256,10 @@
         <v>696</v>
       </c>
       <c r="AI57">
-        <v>203.4140804597701</v>
+        <v>203.4462643678162</v>
       </c>
       <c r="AJ57">
-        <v>99.88127846131572</v>
+        <v>99.91405796398591</v>
       </c>
       <c r="AK57">
         <v>95</v>
@@ -11268,10 +11268,10 @@
         <v>132</v>
       </c>
       <c r="AM57">
-        <v>152</v>
+        <v>152.5</v>
       </c>
       <c r="AN57">
-        <v>265.75</v>
+        <v>266.5</v>
       </c>
       <c r="AO57">
         <v>516</v>
@@ -11280,10 +11280,10 @@
         <v>696</v>
       </c>
       <c r="AQ57">
-        <v>53.87768678160921</v>
+        <v>53.88415229885063</v>
       </c>
       <c r="AR57">
-        <v>38.07664559948717</v>
+        <v>38.08589012506465</v>
       </c>
       <c r="AS57">
         <v>2.32</v>
@@ -11292,10 +11292,10 @@
         <v>26.475</v>
       </c>
       <c r="AU57">
-        <v>45.05</v>
+        <v>45</v>
       </c>
       <c r="AV57">
-        <v>77.42500000000001</v>
+        <v>77.5</v>
       </c>
       <c r="AW57">
         <v>171</v>
@@ -11304,10 +11304,10 @@
         <v>696</v>
       </c>
       <c r="AY57">
-        <v>0.02492176724137934</v>
+        <v>0.02492954022988509</v>
       </c>
       <c r="AZ57">
-        <v>0.02914146362727842</v>
+        <v>0.02916072544648511</v>
       </c>
       <c r="BA57">
         <v>0.00143</v>
@@ -11328,25 +11328,25 @@
         <v>696</v>
       </c>
       <c r="BG57">
-        <v>0.8787820402298852</v>
+        <v>0.8789524425287356</v>
       </c>
       <c r="BH57">
-        <v>0.5305480844711207</v>
+        <v>0.5306546237083876</v>
       </c>
       <c r="BI57">
         <v>0.0103</v>
       </c>
       <c r="BJ57">
-        <v>0.48775</v>
+        <v>0.487</v>
       </c>
       <c r="BK57">
-        <v>0.7335</v>
+        <v>0.733</v>
       </c>
       <c r="BL57">
         <v>1.34</v>
       </c>
       <c r="BM57">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="58" spans="1:65">
@@ -11381,16 +11381,16 @@
         <v>696</v>
       </c>
       <c r="K58">
-        <v>46.5866379310344</v>
+        <v>46.57040229885056</v>
       </c>
       <c r="L58">
-        <v>0.5995270711195709</v>
+        <v>0.5996285269205149</v>
       </c>
       <c r="M58">
         <v>45.9</v>
       </c>
       <c r="N58">
-        <v>46.1</v>
+        <v>46</v>
       </c>
       <c r="O58">
         <v>46.4</v>
@@ -11405,13 +11405,13 @@
         <v>696</v>
       </c>
       <c r="S58">
-        <v>12.4641235632184</v>
+        <v>12.45063218390804</v>
       </c>
       <c r="T58">
-        <v>1.975163435683186</v>
+        <v>1.976370527780104</v>
       </c>
       <c r="U58">
-        <v>9.359999999999999</v>
+        <v>9.31</v>
       </c>
       <c r="V58">
         <v>10.2</v>
@@ -11453,19 +11453,19 @@
         <v>696</v>
       </c>
       <c r="AI58">
-        <v>203.2454022988506</v>
+        <v>203.1758620689655</v>
       </c>
       <c r="AJ58">
-        <v>99.8380099852933</v>
+        <v>99.81276352173445</v>
       </c>
       <c r="AK58">
-        <v>95</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AL58">
         <v>132</v>
       </c>
       <c r="AM58">
-        <v>152</v>
+        <v>151.5</v>
       </c>
       <c r="AN58">
         <v>265.75</v>
@@ -11477,22 +11477,22 @@
         <v>696</v>
       </c>
       <c r="AQ58">
-        <v>53.85179597701151</v>
+        <v>53.83989942528731</v>
       </c>
       <c r="AR58">
-        <v>38.06294303268462</v>
+        <v>38.05878113052164</v>
       </c>
       <c r="AS58">
         <v>2.32</v>
       </c>
       <c r="AT58">
-        <v>26.475</v>
+        <v>26.4</v>
       </c>
       <c r="AU58">
         <v>45</v>
       </c>
       <c r="AV58">
-        <v>77.42500000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="AW58">
         <v>170</v>
@@ -11501,13 +11501,13 @@
         <v>696</v>
       </c>
       <c r="AY58">
-        <v>0.02289012068965518</v>
+        <v>0.02289177442528736</v>
       </c>
       <c r="AZ58">
-        <v>0.02960070674233716</v>
+        <v>0.0296168829189598</v>
       </c>
       <c r="BA58">
-        <v>0.000553</v>
+        <v>0.0005509999999999999</v>
       </c>
       <c r="BB58">
         <v>0.0089175</v>
@@ -11525,16 +11525,16 @@
         <v>696</v>
       </c>
       <c r="BG58">
-        <v>0.7495823563218397</v>
+        <v>0.7494532040229891</v>
       </c>
       <c r="BH58">
-        <v>0.4385031780079513</v>
+        <v>0.4383789711551122</v>
       </c>
       <c r="BI58">
-        <v>0.00618</v>
+        <v>0.00617</v>
       </c>
       <c r="BJ58">
-        <v>0.42</v>
+        <v>0.41975</v>
       </c>
       <c r="BK58">
         <v>0.6840000000000001</v>
@@ -11578,10 +11578,10 @@
         <v>696</v>
       </c>
       <c r="K59">
-        <v>46.62270114942523</v>
+        <v>46.63117816091946</v>
       </c>
       <c r="L59">
-        <v>0.5888182554048035</v>
+        <v>0.5905654331256973</v>
       </c>
       <c r="M59">
         <v>46</v>
@@ -11590,7 +11590,7 @@
         <v>46.1</v>
       </c>
       <c r="O59">
-        <v>46.4</v>
+        <v>46.45</v>
       </c>
       <c r="P59">
         <v>47.1</v>
@@ -11602,13 +11602,13 @@
         <v>696</v>
       </c>
       <c r="S59">
-        <v>12.50139367816093</v>
+        <v>12.50988505747128</v>
       </c>
       <c r="T59">
-        <v>1.984184426669838</v>
+        <v>1.983275247209441</v>
       </c>
       <c r="U59">
-        <v>9.369999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="V59">
         <v>10.3</v>
@@ -11650,10 +11650,10 @@
         <v>696</v>
       </c>
       <c r="AI59">
-        <v>203.2060344827586</v>
+        <v>203.2666666666666</v>
       </c>
       <c r="AJ59">
-        <v>99.83881581523674</v>
+        <v>99.85097504894685</v>
       </c>
       <c r="AK59">
         <v>94.90000000000001</v>
@@ -11668,16 +11668,16 @@
         <v>265.75</v>
       </c>
       <c r="AO59">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AP59">
         <v>696</v>
       </c>
       <c r="AQ59">
-        <v>53.84783045977009</v>
+        <v>53.85468390804593</v>
       </c>
       <c r="AR59">
-        <v>38.06268277694586</v>
+        <v>38.06442251230022</v>
       </c>
       <c r="AS59">
         <v>2.32</v>
@@ -11692,22 +11692,22 @@
         <v>77.40000000000001</v>
       </c>
       <c r="AW59">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AX59">
         <v>696</v>
       </c>
       <c r="AY59">
-        <v>0.0221799511494253</v>
+        <v>0.02219180890804598</v>
       </c>
       <c r="AZ59">
-        <v>0.02974273387487381</v>
+        <v>0.02976390783539581</v>
       </c>
       <c r="BA59">
-        <v>0.000227</v>
+        <v>0.000229</v>
       </c>
       <c r="BB59">
-        <v>0.008160000000000001</v>
+        <v>0.008167500000000001</v>
       </c>
       <c r="BC59">
         <v>0.01385</v>
@@ -11722,19 +11722,19 @@
         <v>696</v>
       </c>
       <c r="BG59">
-        <v>0.7053561063218395</v>
+        <v>0.7056926867816089</v>
       </c>
       <c r="BH59">
-        <v>0.4133070293583788</v>
+        <v>0.413464276496896</v>
       </c>
       <c r="BI59">
-        <v>0.00475</v>
+        <v>0.00476</v>
       </c>
       <c r="BJ59">
         <v>0.394</v>
       </c>
       <c r="BK59">
-        <v>0.6685000000000001</v>
+        <v>0.669</v>
       </c>
       <c r="BL59">
         <v>1.06</v>
@@ -11775,10 +11775,10 @@
         <v>696</v>
       </c>
       <c r="K60">
-        <v>46.63692528735626</v>
+        <v>46.64410919540222</v>
       </c>
       <c r="L60">
-        <v>0.5877417091819729</v>
+        <v>0.5886160426060135</v>
       </c>
       <c r="M60">
         <v>46</v>
@@ -11799,13 +11799,13 @@
         <v>696</v>
       </c>
       <c r="S60">
-        <v>12.51682471264369</v>
+        <v>12.52596264367817</v>
       </c>
       <c r="T60">
-        <v>1.987010365049179</v>
+        <v>1.987138630114454</v>
       </c>
       <c r="U60">
-        <v>9.359999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="V60">
         <v>10.3</v>
@@ -11847,10 +11847,10 @@
         <v>696</v>
       </c>
       <c r="AI60">
-        <v>203.2130747126437</v>
+        <v>203.2666666666666</v>
       </c>
       <c r="AJ60">
-        <v>99.83724893469909</v>
+        <v>99.84896224493708</v>
       </c>
       <c r="AK60">
         <v>94.90000000000001</v>
@@ -11865,22 +11865,22 @@
         <v>265.75</v>
       </c>
       <c r="AO60">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AP60">
         <v>696</v>
       </c>
       <c r="AQ60">
-        <v>53.84455459770115</v>
+        <v>53.85344827586203</v>
       </c>
       <c r="AR60">
-        <v>38.05968293894264</v>
+        <v>38.06289503319618</v>
       </c>
       <c r="AS60">
         <v>2.32</v>
       </c>
       <c r="AT60">
-        <v>26.4</v>
+        <v>26.475</v>
       </c>
       <c r="AU60">
         <v>45</v>
@@ -11895,16 +11895,16 @@
         <v>696</v>
       </c>
       <c r="AY60">
-        <v>0.02196760919540227</v>
+        <v>0.02197003160919537</v>
       </c>
       <c r="AZ60">
-        <v>0.02976454765157985</v>
+        <v>0.02976657929630673</v>
       </c>
       <c r="BA60">
-        <v>0.000134</v>
+        <v>0.000133</v>
       </c>
       <c r="BB60">
-        <v>0.007957499999999999</v>
+        <v>0.00796</v>
       </c>
       <c r="BC60">
         <v>0.01365</v>
@@ -11919,19 +11919,19 @@
         <v>696</v>
       </c>
       <c r="BG60">
-        <v>0.69265073275862</v>
+        <v>0.692784094827585</v>
       </c>
       <c r="BH60">
-        <v>0.4075707455844895</v>
+        <v>0.407703109330126</v>
       </c>
       <c r="BI60">
-        <v>0.00424</v>
+        <v>0.00423</v>
       </c>
       <c r="BJ60">
         <v>0.38075</v>
       </c>
       <c r="BK60">
-        <v>0.6635</v>
+        <v>0.663</v>
       </c>
       <c r="BL60">
         <v>1.04</v>
@@ -11972,10 +11972,10 @@
         <v>696</v>
       </c>
       <c r="K61">
-        <v>46.64209770114934</v>
+        <v>46.63678160919532</v>
       </c>
       <c r="L61">
-        <v>0.5875403397830687</v>
+        <v>0.5872486645054642</v>
       </c>
       <c r="M61">
         <v>46</v>
@@ -11990,16 +11990,16 @@
         <v>47.1</v>
       </c>
       <c r="Q61">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="R61">
         <v>696</v>
       </c>
       <c r="S61">
-        <v>12.52449712643679</v>
+        <v>12.52077586206897</v>
       </c>
       <c r="T61">
-        <v>1.987931075913264</v>
+        <v>1.98830016010368</v>
       </c>
       <c r="U61">
         <v>9.380000000000001</v>
@@ -12044,13 +12044,13 @@
         <v>696</v>
       </c>
       <c r="AI61">
-        <v>203.2063218390805</v>
+        <v>203.1831896551724</v>
       </c>
       <c r="AJ61">
-        <v>99.83223922538164</v>
+        <v>99.8317627496197</v>
       </c>
       <c r="AK61">
-        <v>95</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AL61">
         <v>132</v>
@@ -12068,10 +12068,10 @@
         <v>696</v>
       </c>
       <c r="AQ61">
-        <v>53.8465948275862</v>
+        <v>53.84281609195401</v>
       </c>
       <c r="AR61">
-        <v>38.06272003099488</v>
+        <v>38.0624832051414</v>
       </c>
       <c r="AS61">
         <v>2.32</v>
@@ -12080,7 +12080,7 @@
         <v>26.45</v>
       </c>
       <c r="AU61">
-        <v>45</v>
+        <v>44.95</v>
       </c>
       <c r="AV61">
         <v>77.40000000000001</v>
@@ -12092,13 +12092,13 @@
         <v>696</v>
       </c>
       <c r="AY61">
-        <v>0.02188965330459768</v>
+        <v>0.02188816853448274</v>
       </c>
       <c r="AZ61">
-        <v>0.02971088869967701</v>
+        <v>0.02970967693583451</v>
       </c>
       <c r="BA61">
-        <v>9.59E-05</v>
+        <v>9.6E-05</v>
       </c>
       <c r="BB61">
         <v>0.00788</v>
@@ -12116,10 +12116,10 @@
         <v>696</v>
       </c>
       <c r="BG61">
-        <v>0.6893389367816091</v>
+        <v>0.6893245258620687</v>
       </c>
       <c r="BH61">
-        <v>0.4074222008113645</v>
+        <v>0.4074253091159949</v>
       </c>
       <c r="BI61">
         <v>0.00391</v>
@@ -12169,10 +12169,10 @@
         <v>696</v>
       </c>
       <c r="K62">
-        <v>46.41824712643673</v>
+        <v>46.42126436781602</v>
       </c>
       <c r="L62">
-        <v>0.6760850713724844</v>
+        <v>0.6756880717438086</v>
       </c>
       <c r="M62">
         <v>45.5</v>
@@ -12193,10 +12193,10 @@
         <v>696</v>
       </c>
       <c r="S62">
-        <v>12.29584770114944</v>
+        <v>12.29886494252875</v>
       </c>
       <c r="T62">
-        <v>1.914356626848116</v>
+        <v>1.914711016873333</v>
       </c>
       <c r="U62">
         <v>9.23</v>
@@ -12241,10 +12241,10 @@
         <v>696</v>
       </c>
       <c r="AI62">
-        <v>203.4385057471264</v>
+        <v>203.4488505747127</v>
       </c>
       <c r="AJ62">
-        <v>99.89362693497742</v>
+        <v>99.90067080582548</v>
       </c>
       <c r="AK62">
         <v>95</v>
@@ -12256,7 +12256,7 @@
         <v>152</v>
       </c>
       <c r="AN62">
-        <v>265.75</v>
+        <v>266.5</v>
       </c>
       <c r="AO62">
         <v>516</v>
@@ -12265,10 +12265,10 @@
         <v>696</v>
       </c>
       <c r="AQ62">
-        <v>53.88242816091954</v>
+        <v>53.88406609195402</v>
       </c>
       <c r="AR62">
-        <v>38.08538882198064</v>
+        <v>38.08524970979575</v>
       </c>
       <c r="AS62">
         <v>2.32</v>
@@ -12289,19 +12289,19 @@
         <v>696</v>
       </c>
       <c r="AY62">
-        <v>0.01393503662356324</v>
+        <v>0.01393533461206898</v>
       </c>
       <c r="AZ62">
-        <v>0.02900861563423717</v>
+        <v>0.02900901471699397</v>
       </c>
       <c r="BA62">
         <v>-0.00848</v>
       </c>
       <c r="BB62">
-        <v>-0.001055</v>
+        <v>-0.0010575</v>
       </c>
       <c r="BC62">
-        <v>0.005925</v>
+        <v>0.00593</v>
       </c>
       <c r="BD62">
         <v>0.0142</v>
@@ -12313,10 +12313,10 @@
         <v>696</v>
       </c>
       <c r="BG62">
-        <v>0.2346233951149427</v>
+        <v>0.2346305316091955</v>
       </c>
       <c r="BH62">
-        <v>0.390507161116933</v>
+        <v>0.3905206786847996</v>
       </c>
       <c r="BI62">
         <v>-1.44</v>
@@ -12366,10 +12366,10 @@
         <v>696</v>
       </c>
       <c r="K63">
-        <v>45.88663793103451</v>
+        <v>45.88247126436784</v>
       </c>
       <c r="L63">
-        <v>0.8445557622939501</v>
+        <v>0.8434480016854488</v>
       </c>
       <c r="M63">
         <v>44.6</v>
@@ -12384,28 +12384,28 @@
         <v>46.5</v>
       </c>
       <c r="Q63">
-        <v>47.7</v>
+        <v>47.6</v>
       </c>
       <c r="R63">
         <v>696</v>
       </c>
       <c r="S63">
-        <v>11.76225574712643</v>
+        <v>11.75955459770114</v>
       </c>
       <c r="T63">
-        <v>1.765870261933561</v>
+        <v>1.765977814995978</v>
       </c>
       <c r="U63">
         <v>8.98</v>
       </c>
       <c r="V63">
-        <v>9.85</v>
+        <v>9.844999999999999</v>
       </c>
       <c r="W63">
         <v>11.7</v>
       </c>
       <c r="X63">
-        <v>13</v>
+        <v>12.925</v>
       </c>
       <c r="Y63">
         <v>15.7</v>
@@ -12414,10 +12414,10 @@
         <v>696</v>
       </c>
       <c r="AA63">
-        <v>45.82442528735633</v>
+        <v>45.82471264367818</v>
       </c>
       <c r="AB63">
-        <v>0.8445038304175109</v>
+        <v>0.84476802190466</v>
       </c>
       <c r="AC63">
         <v>44.6</v>
@@ -12438,10 +12438,10 @@
         <v>696</v>
       </c>
       <c r="AI63">
-        <v>203.3346264367816</v>
+        <v>203.3116379310345</v>
       </c>
       <c r="AJ63">
-        <v>99.8636913839994</v>
+        <v>99.85307447980132</v>
       </c>
       <c r="AK63">
         <v>95</v>
@@ -12462,10 +12462,10 @@
         <v>696</v>
       </c>
       <c r="AQ63">
-        <v>53.86593390804596</v>
+        <v>53.86146551724136</v>
       </c>
       <c r="AR63">
-        <v>38.07187172924768</v>
+        <v>38.06749475583939</v>
       </c>
       <c r="AS63">
         <v>2.32</v>
@@ -12486,10 +12486,10 @@
         <v>696</v>
       </c>
       <c r="AY63">
-        <v>0.009894119008620689</v>
+        <v>0.009893889281609197</v>
       </c>
       <c r="AZ63">
-        <v>0.02717511343306749</v>
+        <v>0.02717162559532303</v>
       </c>
       <c r="BA63">
         <v>-0.0146</v>
@@ -12510,13 +12510,13 @@
         <v>696</v>
       </c>
       <c r="BG63">
-        <v>0.03083105747126437</v>
+        <v>0.03084579310344829</v>
       </c>
       <c r="BH63">
-        <v>0.5037179115879813</v>
+        <v>0.5035533307605436</v>
       </c>
       <c r="BI63">
-        <v>-2.49</v>
+        <v>-2.48</v>
       </c>
       <c r="BJ63">
         <v>-0.22175</v>
@@ -12563,10 +12563,10 @@
         <v>696</v>
       </c>
       <c r="K64">
-        <v>45.32974137931032</v>
+        <v>45.3272988505747</v>
       </c>
       <c r="L64">
-        <v>1.055246811082448</v>
+        <v>1.056123849451368</v>
       </c>
       <c r="M64">
         <v>43.8</v>
@@ -12581,22 +12581,22 @@
         <v>46.2</v>
       </c>
       <c r="Q64">
-        <v>47.4</v>
+        <v>47.5</v>
       </c>
       <c r="R64">
         <v>696</v>
       </c>
       <c r="S64">
-        <v>11.2071551724138</v>
+        <v>11.20487068965518</v>
       </c>
       <c r="T64">
-        <v>1.565584804539001</v>
+        <v>1.565843780791907</v>
       </c>
       <c r="U64">
         <v>8.779999999999999</v>
       </c>
       <c r="V64">
-        <v>9.550000000000001</v>
+        <v>9.557500000000001</v>
       </c>
       <c r="W64">
         <v>11.1</v>
@@ -12635,10 +12635,10 @@
         <v>696</v>
       </c>
       <c r="AI64">
-        <v>203.0823275862069</v>
+        <v>203.0590517241379</v>
       </c>
       <c r="AJ64">
-        <v>99.5322744563764</v>
+        <v>99.52565919807674</v>
       </c>
       <c r="AK64">
         <v>95</v>
@@ -12659,10 +12659,10 @@
         <v>696</v>
       </c>
       <c r="AQ64">
-        <v>53.78274425287354</v>
+        <v>53.78041666666667</v>
       </c>
       <c r="AR64">
-        <v>37.96485755280801</v>
+        <v>37.9633831792698</v>
       </c>
       <c r="AS64">
         <v>2.32</v>
@@ -12683,10 +12683,10 @@
         <v>696</v>
       </c>
       <c r="AY64">
-        <v>0.008392222859195405</v>
+        <v>0.008388464181034481</v>
       </c>
       <c r="AZ64">
-        <v>0.02542257104642003</v>
+        <v>0.02541901943368316</v>
       </c>
       <c r="BA64">
         <v>-0.0173</v>
@@ -12698,7 +12698,7 @@
         <v>0.0011</v>
       </c>
       <c r="BD64">
-        <v>0.009894999999999999</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="BE64">
         <v>0.156</v>
@@ -12707,10 +12707,10 @@
         <v>696</v>
       </c>
       <c r="BG64">
-        <v>-0.03812616954022981</v>
+        <v>-0.03820167528735637</v>
       </c>
       <c r="BH64">
-        <v>0.5617041147253149</v>
+        <v>0.5615540346842752</v>
       </c>
       <c r="BI64">
         <v>-2.95</v>
@@ -12719,7 +12719,7 @@
         <v>-0.26025</v>
       </c>
       <c r="BK64">
-        <v>0.0391</v>
+        <v>0.039</v>
       </c>
       <c r="BL64">
         <v>0.357</v>
@@ -12760,13 +12760,13 @@
         <v>696</v>
       </c>
       <c r="K65">
-        <v>44.78836206896553</v>
+        <v>44.79813218390806</v>
       </c>
       <c r="L65">
-        <v>1.299361067534869</v>
+        <v>1.299190435162923</v>
       </c>
       <c r="M65">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="N65">
         <v>43.6</v>
@@ -12784,16 +12784,16 @@
         <v>696</v>
       </c>
       <c r="S65">
-        <v>10.6657183908046</v>
+        <v>10.67488505747127</v>
       </c>
       <c r="T65">
-        <v>1.330899215035517</v>
+        <v>1.3309070800901</v>
       </c>
       <c r="U65">
-        <v>8.630000000000001</v>
+        <v>8.65</v>
       </c>
       <c r="V65">
-        <v>9.34</v>
+        <v>9.3675</v>
       </c>
       <c r="W65">
         <v>10.6</v>
@@ -12832,10 +12832,10 @@
         <v>696</v>
       </c>
       <c r="AI65">
-        <v>197.9027298850575</v>
+        <v>197.9475574712644</v>
       </c>
       <c r="AJ65">
-        <v>93.27888350342167</v>
+        <v>93.3085658150265</v>
       </c>
       <c r="AK65">
         <v>95</v>
@@ -12856,22 +12856,22 @@
         <v>696</v>
       </c>
       <c r="AQ65">
-        <v>52.3609195402299</v>
+        <v>52.37067528735632</v>
       </c>
       <c r="AR65">
-        <v>36.14642886948224</v>
+        <v>36.15682856354451</v>
       </c>
       <c r="AS65">
         <v>2.29</v>
       </c>
       <c r="AT65">
-        <v>26.275</v>
+        <v>26.35</v>
       </c>
       <c r="AU65">
         <v>44.84999999999999</v>
       </c>
       <c r="AV65">
-        <v>75</v>
+        <v>75.02500000000001</v>
       </c>
       <c r="AW65">
         <v>169</v>
@@ -12880,10 +12880,10 @@
         <v>696</v>
       </c>
       <c r="AY65">
-        <v>0.007877181034482752</v>
+        <v>0.007873447126436771</v>
       </c>
       <c r="AZ65">
-        <v>0.02399611914363617</v>
+        <v>0.02399811660407447</v>
       </c>
       <c r="BA65">
         <v>-0.0189</v>
@@ -12892,7 +12892,7 @@
         <v>-0.0045025</v>
       </c>
       <c r="BC65">
-        <v>0.000964</v>
+        <v>0.0009630000000000001</v>
       </c>
       <c r="BD65">
         <v>0.009599999999999999</v>
@@ -12904,19 +12904,19 @@
         <v>696</v>
       </c>
       <c r="BG65">
-        <v>-0.04672415229885041</v>
+        <v>-0.04696550287356301</v>
       </c>
       <c r="BH65">
-        <v>0.5743215962934568</v>
+        <v>0.5746461064387496</v>
       </c>
       <c r="BI65">
-        <v>-3.19</v>
+        <v>-3.2</v>
       </c>
       <c r="BJ65">
-        <v>-0.23125</v>
+        <v>-0.232</v>
       </c>
       <c r="BK65">
-        <v>0.0331</v>
+        <v>0.03265</v>
       </c>
       <c r="BL65">
         <v>0.35325</v>
@@ -12957,10 +12957,10 @@
         <v>696</v>
       </c>
       <c r="K66">
-        <v>44.2729885057471</v>
+        <v>44.27614942528734</v>
       </c>
       <c r="L66">
-        <v>1.567030911031013</v>
+        <v>1.566751705643355</v>
       </c>
       <c r="M66">
         <v>41.9</v>
@@ -12981,16 +12981,16 @@
         <v>696</v>
       </c>
       <c r="S66">
-        <v>10.15068965517241</v>
+        <v>10.15382183908046</v>
       </c>
       <c r="T66">
-        <v>1.091791524204364</v>
+        <v>1.092251607446018</v>
       </c>
       <c r="U66">
-        <v>8.539999999999999</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="V66">
-        <v>9.1875</v>
+        <v>9.19</v>
       </c>
       <c r="W66">
         <v>10.1</v>
@@ -13029,10 +13029,10 @@
         <v>696</v>
       </c>
       <c r="AI66">
-        <v>188.7906609195402</v>
+        <v>188.8051724137931</v>
       </c>
       <c r="AJ66">
-        <v>83.54981979320019</v>
+        <v>83.5601171722535</v>
       </c>
       <c r="AK66">
         <v>95</v>
@@ -13053,16 +13053,16 @@
         <v>696</v>
       </c>
       <c r="AQ66">
-        <v>49.87545977011495</v>
+        <v>49.88199712643681</v>
       </c>
       <c r="AR66">
-        <v>33.09427174352611</v>
+        <v>33.10526448004179</v>
       </c>
       <c r="AS66">
         <v>2.19</v>
       </c>
       <c r="AT66">
-        <v>26.3</v>
+        <v>26.225</v>
       </c>
       <c r="AU66">
         <v>44.3</v>
@@ -13077,10 +13077,10 @@
         <v>696</v>
       </c>
       <c r="AY66">
-        <v>0.007961478591954023</v>
+        <v>0.007962092816091953</v>
       </c>
       <c r="AZ66">
-        <v>0.02300431660754476</v>
+        <v>0.02301526296134382</v>
       </c>
       <c r="BA66">
         <v>-0.0198</v>
@@ -13092,7 +13092,7 @@
         <v>0.00152</v>
       </c>
       <c r="BD66">
-        <v>0.009925</v>
+        <v>0.009922500000000001</v>
       </c>
       <c r="BE66">
         <v>0.138</v>
@@ -13101,10 +13101,10 @@
         <v>696</v>
       </c>
       <c r="BG66">
-        <v>-0.02003262931034483</v>
+        <v>-0.02010120689655167</v>
       </c>
       <c r="BH66">
-        <v>0.5427011961419836</v>
+        <v>0.5429438043335174</v>
       </c>
       <c r="BI66">
         <v>-3.09</v>
@@ -13113,7 +13113,7 @@
         <v>-0.18625</v>
       </c>
       <c r="BK66">
-        <v>0.0522</v>
+        <v>0.05225</v>
       </c>
       <c r="BL66">
         <v>0.357</v>
@@ -13154,10 +13154,10 @@
         <v>696</v>
       </c>
       <c r="K67">
-        <v>43.97758620689657</v>
+        <v>43.97686781609197</v>
       </c>
       <c r="L67">
-        <v>1.686898454393559</v>
+        <v>1.686329960731026</v>
       </c>
       <c r="M67">
         <v>41.7</v>
@@ -13178,10 +13178,10 @@
         <v>696</v>
       </c>
       <c r="S67">
-        <v>9.856091954022988</v>
+        <v>9.854698275862068</v>
       </c>
       <c r="T67">
-        <v>0.9779624760091418</v>
+        <v>0.9775973606137844</v>
       </c>
       <c r="U67">
         <v>8.48</v>
@@ -13226,10 +13226,10 @@
         <v>696</v>
       </c>
       <c r="AI67">
-        <v>183.3316091954023</v>
+        <v>183.3215517241379</v>
       </c>
       <c r="AJ67">
-        <v>78.95139206355817</v>
+        <v>78.95091432646211</v>
       </c>
       <c r="AK67">
         <v>95</v>
@@ -13250,10 +13250,10 @@
         <v>696</v>
       </c>
       <c r="AQ67">
-        <v>48.38968390804597</v>
+        <v>48.38864942528735</v>
       </c>
       <c r="AR67">
-        <v>31.51163030996698</v>
+        <v>31.51104244342236</v>
       </c>
       <c r="AS67">
         <v>2.16</v>
@@ -13274,10 +13274,10 @@
         <v>696</v>
       </c>
       <c r="AY67">
-        <v>0.01492856925287358</v>
+        <v>0.01492854885057473</v>
       </c>
       <c r="AZ67">
-        <v>0.02182925008168382</v>
+        <v>0.02182878076771661</v>
       </c>
       <c r="BA67">
         <v>-0.00244</v>
@@ -13298,10 +13298,10 @@
         <v>696</v>
       </c>
       <c r="BG67">
-        <v>0.397083106321839</v>
+        <v>0.3970870862068965</v>
       </c>
       <c r="BH67">
-        <v>0.294736012810611</v>
+        <v>0.2947294417462445</v>
       </c>
       <c r="BI67">
         <v>-0.18</v>
@@ -13471,10 +13471,10 @@
         <v>696</v>
       </c>
       <c r="AY68">
-        <v>0.0167805627729885</v>
+        <v>0.01678054734195402</v>
       </c>
       <c r="AZ68">
-        <v>0.02183350553256511</v>
+        <v>0.02183351528236029</v>
       </c>
       <c r="BA68">
         <v>-0.000387</v>
@@ -13495,10 +13495,10 @@
         <v>696</v>
       </c>
       <c r="BG68">
-        <v>0.4951087581896554</v>
+        <v>0.4951087106321842</v>
       </c>
       <c r="BH68">
-        <v>0.3318210246168377</v>
+        <v>0.3318196957344092</v>
       </c>
       <c r="BI68">
         <v>-0.0171</v>
@@ -13548,10 +13548,10 @@
         <v>696</v>
       </c>
       <c r="K69">
-        <v>43.90919540229888</v>
+        <v>43.88922413793104</v>
       </c>
       <c r="L69">
-        <v>1.722671987393857</v>
+        <v>1.722232606986525</v>
       </c>
       <c r="M69">
         <v>41.6</v>
@@ -13560,31 +13560,31 @@
         <v>42.3</v>
       </c>
       <c r="O69">
-        <v>43.7</v>
+        <v>43.65000000000001</v>
       </c>
       <c r="P69">
         <v>45.4</v>
       </c>
       <c r="Q69">
-        <v>47</v>
+        <v>46.9</v>
       </c>
       <c r="R69">
         <v>696</v>
       </c>
       <c r="S69">
-        <v>9.786436781609204</v>
+        <v>9.767672413793111</v>
       </c>
       <c r="T69">
-        <v>0.9482286122205213</v>
+        <v>0.9483250128215228</v>
       </c>
       <c r="U69">
-        <v>8.449999999999999</v>
+        <v>8.41</v>
       </c>
       <c r="V69">
-        <v>9.029999999999999</v>
+        <v>9.01</v>
       </c>
       <c r="W69">
-        <v>9.664999999999999</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="X69">
         <v>10.4</v>
@@ -13620,10 +13620,10 @@
         <v>696</v>
       </c>
       <c r="AI69">
-        <v>181.6317528735632</v>
+        <v>181.5420977011494</v>
       </c>
       <c r="AJ69">
-        <v>77.74876092155219</v>
+        <v>77.73257325380442</v>
       </c>
       <c r="AK69">
         <v>94.90000000000001</v>
@@ -13635,7 +13635,7 @@
         <v>148</v>
       </c>
       <c r="AN69">
-        <v>211.25</v>
+        <v>211</v>
       </c>
       <c r="AO69">
         <v>485</v>
@@ -13644,22 +13644,22 @@
         <v>696</v>
       </c>
       <c r="AQ69">
-        <v>47.93844827586206</v>
+        <v>47.91768678160916</v>
       </c>
       <c r="AR69">
-        <v>31.08014133658914</v>
+        <v>31.06630102290324</v>
       </c>
       <c r="AS69">
         <v>2.15</v>
       </c>
       <c r="AT69">
-        <v>26</v>
+        <v>25.975</v>
       </c>
       <c r="AU69">
-        <v>44.2</v>
+        <v>44.15000000000001</v>
       </c>
       <c r="AV69">
-        <v>67.22499999999999</v>
+        <v>67.15000000000001</v>
       </c>
       <c r="AW69">
         <v>160</v>
@@ -13668,13 +13668,13 @@
         <v>696</v>
       </c>
       <c r="AY69">
-        <v>0.01722051222701149</v>
+        <v>0.01720839688936781</v>
       </c>
       <c r="AZ69">
-        <v>0.02194267788929622</v>
+        <v>0.02192788065463096</v>
       </c>
       <c r="BA69">
-        <v>-2.34E-05</v>
+        <v>-2.33E-05</v>
       </c>
       <c r="BB69">
         <v>0.005445</v>
@@ -13692,13 +13692,13 @@
         <v>696</v>
       </c>
       <c r="BG69">
-        <v>0.5166777787356325</v>
+        <v>0.5163062844827592</v>
       </c>
       <c r="BH69">
-        <v>0.3449253100680947</v>
+        <v>0.3446496294048529</v>
       </c>
       <c r="BI69">
-        <v>-0.00124</v>
+        <v>-0.00123</v>
       </c>
       <c r="BJ69">
         <v>0.20475</v>
@@ -13707,7 +13707,7 @@
         <v>0.471</v>
       </c>
       <c r="BL69">
-        <v>0.8129999999999999</v>
+        <v>0.8115</v>
       </c>
       <c r="BM69">
         <v>1.45</v>
@@ -13745,10 +13745,10 @@
         <v>696</v>
       </c>
       <c r="K70">
-        <v>44.15459770114946</v>
+        <v>44.15531609195407</v>
       </c>
       <c r="L70">
-        <v>1.591788861742918</v>
+        <v>1.591470217722891</v>
       </c>
       <c r="M70">
         <v>41.8</v>
@@ -13769,16 +13769,16 @@
         <v>696</v>
       </c>
       <c r="S70">
-        <v>10.03497126436782</v>
+        <v>10.03596264367817</v>
       </c>
       <c r="T70">
-        <v>1.076195536928791</v>
+        <v>1.076122639522628</v>
       </c>
       <c r="U70">
         <v>8.470000000000001</v>
       </c>
       <c r="V70">
-        <v>9.119999999999999</v>
+        <v>9.127500000000001</v>
       </c>
       <c r="W70">
         <v>9.9</v>
@@ -13817,10 +13817,10 @@
         <v>696</v>
       </c>
       <c r="AI70">
-        <v>186.8570402298851</v>
+        <v>186.8584770114942</v>
       </c>
       <c r="AJ70">
-        <v>81.90261953719485</v>
+        <v>81.9014010648304</v>
       </c>
       <c r="AK70">
         <v>95</v>
@@ -13841,10 +13841,10 @@
         <v>696</v>
       </c>
       <c r="AQ70">
-        <v>49.35406609195405</v>
+        <v>49.35508620689658</v>
       </c>
       <c r="AR70">
-        <v>32.54381601553787</v>
+        <v>32.54423463610892</v>
       </c>
       <c r="AS70">
         <v>2.16</v>
@@ -13865,10 +13865,10 @@
         <v>696</v>
       </c>
       <c r="AY70">
-        <v>0.02395558908045977</v>
+        <v>0.02395431034482759</v>
       </c>
       <c r="AZ70">
-        <v>0.02287665992746008</v>
+        <v>0.02287576325004026</v>
       </c>
       <c r="BA70">
         <v>0.00129</v>
@@ -13889,10 +13889,10 @@
         <v>696</v>
       </c>
       <c r="BG70">
-        <v>0.9213430747126446</v>
+        <v>0.9213672126436794</v>
       </c>
       <c r="BH70">
-        <v>0.7237414460791159</v>
+        <v>0.7237797955042218</v>
       </c>
       <c r="BI70">
         <v>0.00958</v>
@@ -14062,10 +14062,10 @@
         <v>696</v>
       </c>
       <c r="AY71">
-        <v>0.02608333333333334</v>
+        <v>0.02608331896551725</v>
       </c>
       <c r="AZ71">
-        <v>0.02374506851236849</v>
+        <v>0.02374492324485111</v>
       </c>
       <c r="BA71">
         <v>0.00196</v>
@@ -14074,7 +14074,7 @@
         <v>0.0127</v>
       </c>
       <c r="BC71">
-        <v>0.0195</v>
+        <v>0.01955</v>
       </c>
       <c r="BD71">
         <v>0.032125</v>
@@ -14086,10 +14086,10 @@
         <v>696</v>
       </c>
       <c r="BG71">
-        <v>1.070672988505749</v>
+        <v>1.070678591954024</v>
       </c>
       <c r="BH71">
-        <v>0.853462294162489</v>
+        <v>0.8534307569835391</v>
       </c>
       <c r="BI71">
         <v>0.0128</v>
@@ -14139,10 +14139,10 @@
         <v>696</v>
       </c>
       <c r="K72">
-        <v>45.03060344827589</v>
+        <v>45.03031609195405</v>
       </c>
       <c r="L72">
-        <v>1.149762657116817</v>
+        <v>1.149582551984417</v>
       </c>
       <c r="M72">
         <v>43.3</v>
@@ -14163,10 +14163,10 @@
         <v>696</v>
       </c>
       <c r="S72">
-        <v>10.90860632183909</v>
+        <v>10.90814655172415</v>
       </c>
       <c r="T72">
-        <v>1.481592643037357</v>
+        <v>1.481330973102561</v>
       </c>
       <c r="U72">
         <v>8.66</v>
@@ -14235,10 +14235,10 @@
         <v>696</v>
       </c>
       <c r="AQ72">
-        <v>53.33987068965518</v>
+        <v>53.33814655172414</v>
       </c>
       <c r="AR72">
-        <v>37.4027321644362</v>
+        <v>37.39785961460936</v>
       </c>
       <c r="AS72">
         <v>2.32</v>
@@ -14253,16 +14253,16 @@
         <v>75.425</v>
       </c>
       <c r="AW72">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AX72">
         <v>696</v>
       </c>
       <c r="AY72">
-        <v>0.02752232758620686</v>
+        <v>0.0275270833333333</v>
       </c>
       <c r="AZ72">
-        <v>0.02475681155971675</v>
+        <v>0.02476022510616885</v>
       </c>
       <c r="BA72">
         <v>0.00254</v>
@@ -14283,10 +14283,10 @@
         <v>696</v>
       </c>
       <c r="BG72">
-        <v>1.171112068965517</v>
+        <v>1.171274281609196</v>
       </c>
       <c r="BH72">
-        <v>0.923905635795199</v>
+        <v>0.9239542144824676</v>
       </c>
       <c r="BI72">
         <v>0.0155</v>
@@ -14336,10 +14336,10 @@
         <v>696</v>
       </c>
       <c r="K73">
-        <v>45.5191091954023</v>
+        <v>45.51925287356322</v>
       </c>
       <c r="L73">
-        <v>0.9308276256293363</v>
+        <v>0.9310642255387431</v>
       </c>
       <c r="M73">
         <v>44.1</v>
@@ -14360,10 +14360,10 @@
         <v>696</v>
       </c>
       <c r="S73">
-        <v>11.39798850574713</v>
+        <v>11.39826149425287</v>
       </c>
       <c r="T73">
-        <v>1.686644527165926</v>
+        <v>1.6867550032162</v>
       </c>
       <c r="U73">
         <v>8.81</v>
@@ -14408,10 +14408,10 @@
         <v>696</v>
       </c>
       <c r="AI73">
-        <v>203.2235632183908</v>
+        <v>203.2221264367816</v>
       </c>
       <c r="AJ73">
-        <v>99.82869005273457</v>
+        <v>99.82914727877321</v>
       </c>
       <c r="AK73">
         <v>94.90000000000001</v>
@@ -14432,10 +14432,10 @@
         <v>696</v>
       </c>
       <c r="AQ73">
-        <v>53.84754310344825</v>
+        <v>53.84813218390804</v>
       </c>
       <c r="AR73">
-        <v>38.05916840161646</v>
+        <v>38.05915098974489</v>
       </c>
       <c r="AS73">
         <v>2.32</v>
@@ -14456,10 +14456,10 @@
         <v>696</v>
       </c>
       <c r="AY73">
-        <v>0.02927219827586203</v>
+        <v>0.02927199712643674</v>
       </c>
       <c r="AZ73">
-        <v>0.0262392422447352</v>
+        <v>0.02623188252676185</v>
       </c>
       <c r="BA73">
         <v>0.00341</v>
@@ -14468,10 +14468,10 @@
         <v>0.0156</v>
       </c>
       <c r="BC73">
-        <v>0.02155</v>
+        <v>0.0216</v>
       </c>
       <c r="BD73">
-        <v>0.033225</v>
+        <v>0.03325</v>
       </c>
       <c r="BE73">
         <v>0.178</v>
@@ -14480,19 +14480,19 @@
         <v>696</v>
       </c>
       <c r="BG73">
-        <v>1.239962212643677</v>
+        <v>1.239966522988504</v>
       </c>
       <c r="BH73">
-        <v>0.9409551202045322</v>
+        <v>0.9410057877099237</v>
       </c>
       <c r="BI73">
         <v>0.0194</v>
       </c>
       <c r="BJ73">
-        <v>0.5794999999999999</v>
+        <v>0.57975</v>
       </c>
       <c r="BK73">
-        <v>0.8095000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="BL73">
         <v>1.9</v>
@@ -14533,10 +14533,10 @@
         <v>696</v>
       </c>
       <c r="K74">
-        <v>46.09008620689652</v>
+        <v>46.09166666666665</v>
       </c>
       <c r="L74">
-        <v>0.7429685691305891</v>
+        <v>0.7431525949470277</v>
       </c>
       <c r="M74">
         <v>44.9</v>
@@ -14548,7 +14548,7 @@
         <v>45.9</v>
       </c>
       <c r="P74">
-        <v>46.6</v>
+        <v>46.625</v>
       </c>
       <c r="Q74">
         <v>47.7</v>
@@ -14557,10 +14557,10 @@
         <v>696</v>
       </c>
       <c r="S74">
-        <v>11.96761494252874</v>
+        <v>11.96801724137931</v>
       </c>
       <c r="T74">
-        <v>1.868747374408628</v>
+        <v>1.868180534384948</v>
       </c>
       <c r="U74">
         <v>9.01</v>
@@ -14605,10 +14605,10 @@
         <v>696</v>
       </c>
       <c r="AI74">
-        <v>203.2366379310345</v>
+        <v>203.2396551724138</v>
       </c>
       <c r="AJ74">
-        <v>99.84119416059708</v>
+        <v>99.83897053112791</v>
       </c>
       <c r="AK74">
         <v>95</v>
@@ -14629,10 +14629,10 @@
         <v>696</v>
       </c>
       <c r="AQ74">
-        <v>53.84981321839081</v>
+        <v>53.85252873563218</v>
       </c>
       <c r="AR74">
-        <v>38.06275735759174</v>
+        <v>38.06708795338792</v>
       </c>
       <c r="AS74">
         <v>2.32</v>
@@ -14647,22 +14647,22 @@
         <v>77.40000000000001</v>
       </c>
       <c r="AW74">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AX74">
         <v>696</v>
       </c>
       <c r="AY74">
-        <v>0.0313393534482759</v>
+        <v>0.03134699712643682</v>
       </c>
       <c r="AZ74">
-        <v>0.02819585974017895</v>
+        <v>0.02821365632965286</v>
       </c>
       <c r="BA74">
         <v>0.00392</v>
       </c>
       <c r="BB74">
-        <v>0.0172</v>
+        <v>0.017275</v>
       </c>
       <c r="BC74">
         <v>0.02325</v>
@@ -14677,10 +14677,10 @@
         <v>696</v>
       </c>
       <c r="BG74">
-        <v>1.300506609195401</v>
+        <v>1.300650431034482</v>
       </c>
       <c r="BH74">
-        <v>0.9315636875624951</v>
+        <v>0.9315590551837165</v>
       </c>
       <c r="BI74">
         <v>0.0221</v>
@@ -14730,10 +14730,10 @@
         <v>696</v>
       </c>
       <c r="K75">
-        <v>46.47830459770117</v>
+        <v>46.4836206896552</v>
       </c>
       <c r="L75">
-        <v>0.6317070619541283</v>
+        <v>0.6326526043470861</v>
       </c>
       <c r="M75">
         <v>45.7</v>
@@ -14745,7 +14745,7 @@
         <v>46.3</v>
       </c>
       <c r="P75">
-        <v>46.925</v>
+        <v>47</v>
       </c>
       <c r="Q75">
         <v>47.8</v>
@@ -14754,13 +14754,13 @@
         <v>696</v>
       </c>
       <c r="S75">
-        <v>12.35541666666666</v>
+        <v>12.36304597701149</v>
       </c>
       <c r="T75">
-        <v>1.94669529201466</v>
+        <v>1.946871958014871</v>
       </c>
       <c r="U75">
-        <v>9.279999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="V75">
         <v>10.2</v>
@@ -14802,10 +14802,10 @@
         <v>696</v>
       </c>
       <c r="AI75">
-        <v>203.4139367816092</v>
+        <v>203.4558908045977</v>
       </c>
       <c r="AJ75">
-        <v>99.87722805116528</v>
+        <v>99.91203509395346</v>
       </c>
       <c r="AK75">
         <v>95</v>
@@ -14817,7 +14817,7 @@
         <v>152</v>
       </c>
       <c r="AN75">
-        <v>265.75</v>
+        <v>266.5</v>
       </c>
       <c r="AO75">
         <v>516</v>
@@ -14826,10 +14826,10 @@
         <v>696</v>
       </c>
       <c r="AQ75">
-        <v>53.87709770114945</v>
+        <v>53.88364942528737</v>
       </c>
       <c r="AR75">
-        <v>38.07648351715488</v>
+        <v>38.08080462336967</v>
       </c>
       <c r="AS75">
         <v>2.32</v>
@@ -14850,10 +14850,10 @@
         <v>696</v>
       </c>
       <c r="AY75">
-        <v>0.02531854885057473</v>
+        <v>0.02532201149425289</v>
       </c>
       <c r="AZ75">
-        <v>0.02942417949649939</v>
+        <v>0.02942466021475565</v>
       </c>
       <c r="BA75">
         <v>0.00143</v>
@@ -14862,7 +14862,7 @@
         <v>0.0116</v>
       </c>
       <c r="BC75">
-        <v>0.01615</v>
+        <v>0.0162</v>
       </c>
       <c r="BD75">
         <v>0.025525</v>
@@ -14874,10 +14874,10 @@
         <v>696</v>
       </c>
       <c r="BG75">
-        <v>0.9027708333333331</v>
+        <v>0.9029918103448272</v>
       </c>
       <c r="BH75">
-        <v>0.5593677054977675</v>
+        <v>0.5595103231421354</v>
       </c>
       <c r="BI75">
         <v>0.0103</v>
@@ -14886,7 +14886,7 @@
         <v>0.48</v>
       </c>
       <c r="BK75">
-        <v>0.7215</v>
+        <v>0.722</v>
       </c>
       <c r="BL75">
         <v>1.41</v>
@@ -14927,10 +14927,10 @@
         <v>696</v>
       </c>
       <c r="K76">
-        <v>46.57916666666659</v>
+        <v>46.56077586206897</v>
       </c>
       <c r="L76">
-        <v>0.6015183625855306</v>
+        <v>0.6014839933815531</v>
       </c>
       <c r="M76">
         <v>45.9</v>
@@ -14945,19 +14945,19 @@
         <v>47</v>
       </c>
       <c r="Q76">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="R76">
         <v>696</v>
       </c>
       <c r="S76">
-        <v>12.45839080459771</v>
+        <v>12.44107758620689</v>
       </c>
       <c r="T76">
-        <v>1.974028637441845</v>
+        <v>1.972913738942949</v>
       </c>
       <c r="U76">
-        <v>9.35</v>
+        <v>9.31</v>
       </c>
       <c r="V76">
         <v>10.2</v>
@@ -14999,13 +14999,13 @@
         <v>696</v>
       </c>
       <c r="AI76">
-        <v>203.255316091954</v>
+        <v>203.1600574712644</v>
       </c>
       <c r="AJ76">
-        <v>99.84252435480705</v>
+        <v>99.81194684622722</v>
       </c>
       <c r="AK76">
-        <v>95</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AL76">
         <v>132</v>
@@ -15017,22 +15017,22 @@
         <v>265.75</v>
       </c>
       <c r="AO76">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AP76">
         <v>696</v>
       </c>
       <c r="AQ76">
-        <v>53.85518678160918</v>
+        <v>53.83916666666662</v>
       </c>
       <c r="AR76">
-        <v>38.06724425845256</v>
+        <v>38.05886757798956</v>
       </c>
       <c r="AS76">
         <v>2.32</v>
       </c>
       <c r="AT76">
-        <v>26.475</v>
+        <v>26.375</v>
       </c>
       <c r="AU76">
         <v>45</v>
@@ -15041,19 +15041,19 @@
         <v>77.40000000000001</v>
       </c>
       <c r="AW76">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AX76">
         <v>696</v>
       </c>
       <c r="AY76">
-        <v>0.02328288793103445</v>
+        <v>0.02327283333333333</v>
       </c>
       <c r="AZ76">
-        <v>0.02985861910522446</v>
+        <v>0.0298537985596682</v>
       </c>
       <c r="BA76">
-        <v>0.000549</v>
+        <v>0.000545</v>
       </c>
       <c r="BB76">
         <v>0.009197500000000001</v>
@@ -15071,16 +15071,16 @@
         <v>696</v>
       </c>
       <c r="BG76">
-        <v>0.7730867816091955</v>
+        <v>0.7726214798850579</v>
       </c>
       <c r="BH76">
-        <v>0.4652181757520429</v>
+        <v>0.4649129632215862</v>
       </c>
       <c r="BI76">
-        <v>0.00618</v>
+        <v>0.00617</v>
       </c>
       <c r="BJ76">
-        <v>0.41375</v>
+        <v>0.413</v>
       </c>
       <c r="BK76">
         <v>0.665</v>
@@ -15124,13 +15124,13 @@
         <v>696</v>
       </c>
       <c r="K77">
-        <v>46.62083333333324</v>
+        <v>46.61896551724131</v>
       </c>
       <c r="L77">
-        <v>0.5924317848193738</v>
+        <v>0.5895854599941951</v>
       </c>
       <c r="M77">
-        <v>45.9</v>
+        <v>46</v>
       </c>
       <c r="N77">
         <v>46.1</v>
@@ -15148,13 +15148,13 @@
         <v>696</v>
       </c>
       <c r="S77">
-        <v>12.49906609195403</v>
+        <v>12.49706896551724</v>
       </c>
       <c r="T77">
-        <v>1.980400690856523</v>
+        <v>1.981080230250696</v>
       </c>
       <c r="U77">
-        <v>9.35</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="V77">
         <v>10.3</v>
@@ -15166,7 +15166,7 @@
         <v>14</v>
       </c>
       <c r="Y77">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="Z77">
         <v>696</v>
@@ -15196,10 +15196,10 @@
         <v>696</v>
       </c>
       <c r="AI77">
-        <v>203.2737068965517</v>
+        <v>203.2435344827586</v>
       </c>
       <c r="AJ77">
-        <v>99.85587389974768</v>
+        <v>99.84688112488615</v>
       </c>
       <c r="AK77">
         <v>94.90000000000001</v>
@@ -15220,10 +15220,10 @@
         <v>696</v>
       </c>
       <c r="AQ77">
-        <v>53.85222701149421</v>
+        <v>53.85077586206896</v>
       </c>
       <c r="AR77">
-        <v>38.05990379525132</v>
+        <v>38.06421206294325</v>
       </c>
       <c r="AS77">
         <v>2.32</v>
@@ -15238,28 +15238,28 @@
         <v>77.40000000000001</v>
       </c>
       <c r="AW77">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AX77">
         <v>696</v>
       </c>
       <c r="AY77">
-        <v>0.02256502442528738</v>
+        <v>0.02256336350574714</v>
       </c>
       <c r="AZ77">
-        <v>0.02998694737358995</v>
+        <v>0.02997924117399226</v>
       </c>
       <c r="BA77">
-        <v>0.000227</v>
+        <v>0.000229</v>
       </c>
       <c r="BB77">
-        <v>0.0082425</v>
+        <v>0.008235000000000001</v>
       </c>
       <c r="BC77">
         <v>0.0138</v>
       </c>
       <c r="BD77">
-        <v>0.022</v>
+        <v>0.021925</v>
       </c>
       <c r="BE77">
         <v>0.194</v>
@@ -15268,10 +15268,10 @@
         <v>696</v>
       </c>
       <c r="BG77">
-        <v>0.7283061781609182</v>
+        <v>0.7283144252873555</v>
       </c>
       <c r="BH77">
-        <v>0.4383351486794302</v>
+        <v>0.4383164939278072</v>
       </c>
       <c r="BI77">
         <v>0.00476</v>
@@ -15280,7 +15280,7 @@
         <v>0.39</v>
       </c>
       <c r="BK77">
-        <v>0.651</v>
+        <v>0.6515</v>
       </c>
       <c r="BL77">
         <v>1.13</v>
@@ -15321,37 +15321,37 @@
         <v>696</v>
       </c>
       <c r="K78">
-        <v>46.62255747126429</v>
+        <v>46.64698275862059</v>
       </c>
       <c r="L78">
-        <v>0.5879801392685945</v>
+        <v>0.5915637900412073</v>
       </c>
       <c r="M78">
-        <v>45.9</v>
+        <v>46</v>
       </c>
       <c r="N78">
         <v>46.1</v>
       </c>
       <c r="O78">
-        <v>46.4</v>
+        <v>46.5</v>
       </c>
       <c r="P78">
         <v>47.1</v>
       </c>
       <c r="Q78">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="R78">
         <v>696</v>
       </c>
       <c r="S78">
-        <v>12.50245689655173</v>
+        <v>12.52915229885058</v>
       </c>
       <c r="T78">
-        <v>1.984148295508954</v>
+        <v>1.984808129050712</v>
       </c>
       <c r="U78">
-        <v>9.35</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="V78">
         <v>10.3</v>
@@ -15393,13 +15393,13 @@
         <v>696</v>
       </c>
       <c r="AI78">
-        <v>203.1757183908046</v>
+        <v>203.3175287356322</v>
       </c>
       <c r="AJ78">
-        <v>99.83172979000442</v>
+        <v>99.85573900965652</v>
       </c>
       <c r="AK78">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="AL78">
         <v>132</v>
@@ -15411,46 +15411,46 @@
         <v>265.75</v>
       </c>
       <c r="AO78">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AP78">
         <v>696</v>
       </c>
       <c r="AQ78">
-        <v>53.83876436781606</v>
+        <v>53.86524425287357</v>
       </c>
       <c r="AR78">
-        <v>38.05589071782622</v>
+        <v>38.0717392148918</v>
       </c>
       <c r="AS78">
         <v>2.32</v>
       </c>
       <c r="AT78">
-        <v>26.375</v>
+        <v>26.475</v>
       </c>
       <c r="AU78">
         <v>45</v>
       </c>
       <c r="AV78">
-        <v>77.40000000000001</v>
+        <v>77.42500000000001</v>
       </c>
       <c r="AW78">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AX78">
         <v>696</v>
       </c>
       <c r="AY78">
-        <v>0.02232800718390803</v>
+        <v>0.02234089511494251</v>
       </c>
       <c r="AZ78">
-        <v>0.02996738705357299</v>
+        <v>0.02998825852818088</v>
       </c>
       <c r="BA78">
         <v>0.000133</v>
       </c>
       <c r="BB78">
-        <v>0.00787</v>
+        <v>0.007877499999999999</v>
       </c>
       <c r="BC78">
         <v>0.0136</v>
@@ -15459,19 +15459,19 @@
         <v>0.021675</v>
       </c>
       <c r="BE78">
-        <v>0.194</v>
+        <v>0.195</v>
       </c>
       <c r="BF78">
         <v>696</v>
       </c>
       <c r="BG78">
-        <v>0.7149448994252868</v>
+        <v>0.7152198132183902</v>
       </c>
       <c r="BH78">
-        <v>0.4318697959612211</v>
+        <v>0.4319875205892609</v>
       </c>
       <c r="BI78">
-        <v>0.00417</v>
+        <v>0.00418</v>
       </c>
       <c r="BJ78">
         <v>0.38</v>
@@ -15518,10 +15518,10 @@
         <v>696</v>
       </c>
       <c r="K79">
-        <v>46.63836206896543</v>
+        <v>46.63333333333325</v>
       </c>
       <c r="L79">
-        <v>0.5898978484408437</v>
+        <v>0.5891912108760784</v>
       </c>
       <c r="M79">
         <v>46</v>
@@ -15542,13 +15542,13 @@
         <v>696</v>
       </c>
       <c r="S79">
-        <v>12.52307471264369</v>
+        <v>12.51553160919541</v>
       </c>
       <c r="T79">
-        <v>1.986147212158964</v>
+        <v>1.986365830703876</v>
       </c>
       <c r="U79">
-        <v>9.390000000000001</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="V79">
         <v>10.3</v>
@@ -15590,13 +15590,13 @@
         <v>696</v>
       </c>
       <c r="AI79">
-        <v>203.2310344827586</v>
+        <v>203.1989942528736</v>
       </c>
       <c r="AJ79">
-        <v>99.82765284671962</v>
+        <v>99.83097578209752</v>
       </c>
       <c r="AK79">
-        <v>95</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AL79">
         <v>132</v>
@@ -15614,16 +15614,16 @@
         <v>696</v>
       </c>
       <c r="AQ79">
-        <v>53.85064655172414</v>
+        <v>53.84629310344829</v>
       </c>
       <c r="AR79">
-        <v>38.06306887390134</v>
+        <v>38.0627246656484</v>
       </c>
       <c r="AS79">
         <v>2.32</v>
       </c>
       <c r="AT79">
-        <v>26.475</v>
+        <v>26.45</v>
       </c>
       <c r="AU79">
         <v>45</v>
@@ -15638,16 +15638,16 @@
         <v>696</v>
       </c>
       <c r="AY79">
-        <v>0.0222558103448276</v>
+        <v>0.02225404626436783</v>
       </c>
       <c r="AZ79">
-        <v>0.02997215407622282</v>
+        <v>0.0299640582913681</v>
       </c>
       <c r="BA79">
-        <v>9.670000000000001E-05</v>
+        <v>9.679999999999999E-05</v>
       </c>
       <c r="BB79">
-        <v>0.007787499999999999</v>
+        <v>0.007785</v>
       </c>
       <c r="BC79">
         <v>0.0135</v>
@@ -15662,10 +15662,10 @@
         <v>696</v>
       </c>
       <c r="BG79">
-        <v>0.7112809051724135</v>
+        <v>0.711218045977011</v>
       </c>
       <c r="BH79">
-        <v>0.4309372830890332</v>
+        <v>0.4308868556954834</v>
       </c>
       <c r="BI79">
         <v>0.00385</v>
@@ -15715,10 +15715,10 @@
         <v>696</v>
       </c>
       <c r="K80">
-        <v>46.6366379310344</v>
+        <v>46.63692528735623</v>
       </c>
       <c r="L80">
-        <v>0.5892511193600587</v>
+        <v>0.5893552386190227</v>
       </c>
       <c r="M80">
         <v>46</v>
@@ -15733,16 +15733,16 @@
         <v>47.1</v>
       </c>
       <c r="Q80">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="R80">
         <v>696</v>
       </c>
       <c r="S80">
-        <v>12.52303160919541</v>
+        <v>12.52176724137932</v>
       </c>
       <c r="T80">
-        <v>1.987064971006086</v>
+        <v>1.986644228247818</v>
       </c>
       <c r="U80">
         <v>9.390000000000001</v>
@@ -15787,10 +15787,10 @@
         <v>696</v>
       </c>
       <c r="AI80">
-        <v>203.219540229885</v>
+        <v>203.2137931034483</v>
       </c>
       <c r="AJ80">
-        <v>99.83096500818053</v>
+        <v>99.82981005162831</v>
       </c>
       <c r="AK80">
         <v>95</v>
@@ -15799,7 +15799,7 @@
         <v>132</v>
       </c>
       <c r="AM80">
-        <v>152</v>
+        <v>151.5</v>
       </c>
       <c r="AN80">
         <v>265.75</v>
@@ -15811,10 +15811,10 @@
         <v>696</v>
       </c>
       <c r="AQ80">
-        <v>53.84716954022988</v>
+        <v>53.84787356321839</v>
       </c>
       <c r="AR80">
-        <v>38.06290436647607</v>
+        <v>38.06268694706188</v>
       </c>
       <c r="AS80">
         <v>2.32</v>
@@ -15823,10 +15823,10 @@
         <v>26.45</v>
       </c>
       <c r="AU80">
-        <v>44.95</v>
+        <v>45</v>
       </c>
       <c r="AV80">
-        <v>77.42500000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="AW80">
         <v>170</v>
@@ -15835,13 +15835,13 @@
         <v>696</v>
       </c>
       <c r="AY80">
-        <v>0.02221197212643677</v>
+        <v>0.02221206551724137</v>
       </c>
       <c r="AZ80">
-        <v>0.02994032382478147</v>
+        <v>0.02994003790279828</v>
       </c>
       <c r="BA80">
-        <v>8.14E-05</v>
+        <v>8.169999999999999E-05</v>
       </c>
       <c r="BB80">
         <v>0.0077625</v>
@@ -15859,13 +15859,13 @@
         <v>696</v>
       </c>
       <c r="BG80">
-        <v>0.7094759195402305</v>
+        <v>0.7094746551724145</v>
       </c>
       <c r="BH80">
-        <v>0.4305735951181469</v>
+        <v>0.4305769279017629</v>
       </c>
       <c r="BI80">
-        <v>0.00371</v>
+        <v>0.00372</v>
       </c>
       <c r="BJ80">
         <v>0.37375</v>
@@ -15912,10 +15912,10 @@
         <v>696</v>
       </c>
       <c r="K81">
-        <v>46.63793103448267</v>
+        <v>46.63778735632175</v>
       </c>
       <c r="L81">
-        <v>0.5894499578343114</v>
+        <v>0.5891051530383266</v>
       </c>
       <c r="M81">
         <v>46</v>
@@ -15936,10 +15936,10 @@
         <v>696</v>
       </c>
       <c r="S81">
-        <v>12.5235775862069</v>
+        <v>12.5234051724138</v>
       </c>
       <c r="T81">
-        <v>1.986752743306642</v>
+        <v>1.986967839164109</v>
       </c>
       <c r="U81">
         <v>9.390000000000001</v>
@@ -15987,7 +15987,7 @@
         <v>203.2181034482759</v>
       </c>
       <c r="AJ81">
-        <v>99.83199867559189</v>
+        <v>99.82970702955382</v>
       </c>
       <c r="AK81">
         <v>95</v>
@@ -15996,7 +15996,7 @@
         <v>132</v>
       </c>
       <c r="AM81">
-        <v>152</v>
+        <v>151.5</v>
       </c>
       <c r="AN81">
         <v>265.75</v>
@@ -16008,10 +16008,10 @@
         <v>696</v>
       </c>
       <c r="AQ81">
-        <v>53.84701149425287</v>
+        <v>53.84732758620689</v>
       </c>
       <c r="AR81">
-        <v>38.06278789609201</v>
+        <v>38.06302083584653</v>
       </c>
       <c r="AS81">
         <v>2.32</v>
@@ -16032,10 +16032,10 @@
         <v>696</v>
       </c>
       <c r="AY81">
-        <v>0.02218561034482759</v>
+        <v>0.02218561163793104</v>
       </c>
       <c r="AZ81">
-        <v>0.02989605593429332</v>
+        <v>0.02989605351980211</v>
       </c>
       <c r="BA81">
         <v>7.47E-05</v>
@@ -16056,10 +16056,10 @@
         <v>696</v>
       </c>
       <c r="BG81">
-        <v>0.708900761494253</v>
+        <v>0.7089007040229885</v>
       </c>
       <c r="BH81">
-        <v>0.4310775265807954</v>
+        <v>0.4310776206259606</v>
       </c>
       <c r="BI81">
         <v>0.00352</v>
@@ -16109,10 +16109,10 @@
         <v>696</v>
       </c>
       <c r="K82">
-        <v>46.63563218390796</v>
+        <v>46.63620689655164</v>
       </c>
       <c r="L82">
-        <v>0.5882253787208928</v>
+        <v>0.5888747789926694</v>
       </c>
       <c r="M82">
         <v>46</v>
@@ -16133,10 +16133,10 @@
         <v>696</v>
       </c>
       <c r="S82">
-        <v>12.52087643678162</v>
+        <v>12.52191091954024</v>
       </c>
       <c r="T82">
-        <v>1.986109448531145</v>
+        <v>1.987097647967219</v>
       </c>
       <c r="U82">
         <v>9.390000000000001</v>
@@ -16181,10 +16181,10 @@
         <v>696</v>
       </c>
       <c r="AI82">
-        <v>203.2008620689655</v>
+        <v>203.2094827586207</v>
       </c>
       <c r="AJ82">
-        <v>99.83065127758894</v>
+        <v>99.83132535160838</v>
       </c>
       <c r="AK82">
         <v>95</v>
@@ -16205,10 +16205,10 @@
         <v>696</v>
       </c>
       <c r="AQ82">
-        <v>53.84586206896552</v>
+        <v>53.84643678160919</v>
       </c>
       <c r="AR82">
-        <v>38.06300099093113</v>
+        <v>38.06265138114924</v>
       </c>
       <c r="AS82">
         <v>2.32</v>
@@ -16220,7 +16220,7 @@
         <v>44.95</v>
       </c>
       <c r="AV82">
-        <v>77.42500000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="AW82">
         <v>170</v>
@@ -16229,13 +16229,13 @@
         <v>696</v>
       </c>
       <c r="AY82">
-        <v>0.022165079454023</v>
+        <v>0.02216507715517243</v>
       </c>
       <c r="AZ82">
-        <v>0.02984754596834767</v>
+        <v>0.02984754348990928</v>
       </c>
       <c r="BA82">
-        <v>7.169999999999999E-05</v>
+        <v>7.18E-05</v>
       </c>
       <c r="BB82">
         <v>0.007755</v>
@@ -16253,10 +16253,10 @@
         <v>696</v>
       </c>
       <c r="BG82">
-        <v>0.7086185201149423</v>
+        <v>0.7086345402298848</v>
       </c>
       <c r="BH82">
-        <v>0.431551169077711</v>
+        <v>0.4315698396797756</v>
       </c>
       <c r="BI82">
         <v>0.00341</v>
@@ -16306,10 +16306,10 @@
         <v>696</v>
       </c>
       <c r="K83">
-        <v>46.63850574712635</v>
+        <v>46.63721264367807</v>
       </c>
       <c r="L83">
-        <v>0.5897543031605764</v>
+        <v>0.5886775723721839</v>
       </c>
       <c r="M83">
         <v>46</v>
@@ -16330,10 +16330,10 @@
         <v>696</v>
       </c>
       <c r="S83">
-        <v>12.52422413793104</v>
+        <v>12.5225143678161</v>
       </c>
       <c r="T83">
-        <v>1.986434925618926</v>
+        <v>1.987270316073226</v>
       </c>
       <c r="U83">
         <v>9.390000000000001</v>
@@ -16378,10 +16378,10 @@
         <v>696</v>
       </c>
       <c r="AI83">
-        <v>203.2123563218391</v>
+        <v>203.2152298850575</v>
       </c>
       <c r="AJ83">
-        <v>99.83154987627285</v>
+        <v>99.83346059336927</v>
       </c>
       <c r="AK83">
         <v>95</v>
@@ -16402,10 +16402,10 @@
         <v>696</v>
       </c>
       <c r="AQ83">
-        <v>53.84701149425287</v>
+        <v>53.84643678160919</v>
       </c>
       <c r="AR83">
-        <v>38.06278789609201</v>
+        <v>38.06289444800571</v>
       </c>
       <c r="AS83">
         <v>2.32</v>
@@ -16426,10 +16426,10 @@
         <v>696</v>
       </c>
       <c r="AY83">
-        <v>0.02214541652298848</v>
+        <v>0.02214536752873561</v>
       </c>
       <c r="AZ83">
-        <v>0.02980085629642304</v>
+        <v>0.02980088138105517</v>
       </c>
       <c r="BA83">
         <v>7.07E-05</v>
@@ -16450,10 +16450,10 @@
         <v>696</v>
       </c>
       <c r="BG83">
-        <v>0.7090824856321845</v>
+        <v>0.7090794252873568</v>
       </c>
       <c r="BH83">
-        <v>0.432770862371082</v>
+        <v>0.4327705691308694</v>
       </c>
       <c r="BI83">
         <v>0.00337</v>
@@ -16503,10 +16503,10 @@
         <v>696</v>
       </c>
       <c r="K84">
-        <v>46.63749999999991</v>
+        <v>46.63764367816083</v>
       </c>
       <c r="L84">
-        <v>0.5895630011916458</v>
+        <v>0.58941958480592</v>
       </c>
       <c r="M84">
         <v>46</v>
@@ -16527,10 +16527,10 @@
         <v>696</v>
       </c>
       <c r="S84">
-        <v>12.52331896551725</v>
+        <v>12.52352011494254</v>
       </c>
       <c r="T84">
-        <v>1.988249739386921</v>
+        <v>1.98814040430265</v>
       </c>
       <c r="U84">
         <v>9.390000000000001</v>
@@ -16599,10 +16599,10 @@
         <v>696</v>
       </c>
       <c r="AQ84">
-        <v>53.84686781609195</v>
+        <v>53.84758620689655</v>
       </c>
       <c r="AR84">
-        <v>38.06281207778574</v>
+        <v>38.06268133518986</v>
       </c>
       <c r="AS84">
         <v>2.32</v>
@@ -16623,10 +16623,10 @@
         <v>696</v>
       </c>
       <c r="AY84">
-        <v>0.02214257887931036</v>
+        <v>0.02214261120689656</v>
       </c>
       <c r="AZ84">
-        <v>0.02980322533251785</v>
+        <v>0.02980320790339469</v>
       </c>
       <c r="BA84">
         <v>6.830000000000001E-05</v>
@@ -16647,10 +16647,10 @@
         <v>696</v>
       </c>
       <c r="BG84">
-        <v>0.7093743247126435</v>
+        <v>0.7093787499999998</v>
       </c>
       <c r="BH84">
-        <v>0.4340134920746733</v>
+        <v>0.4340104452226008</v>
       </c>
       <c r="BI84">
         <v>0.00328</v>
@@ -16820,10 +16820,10 @@
         <v>696</v>
       </c>
       <c r="AY85">
-        <v>0.02213306451149423</v>
+        <v>0.02213305244252871</v>
       </c>
       <c r="AZ85">
-        <v>0.02976543792810407</v>
+        <v>0.02976544231001953</v>
       </c>
       <c r="BA85">
         <v>6.600000000000001E-05</v>
@@ -16844,10 +16844,10 @@
         <v>696</v>
       </c>
       <c r="BG85">
-        <v>0.7099078879310351</v>
+        <v>0.7099079597701154</v>
       </c>
       <c r="BH85">
-        <v>0.4356142180898221</v>
+        <v>0.4356141014902138</v>
       </c>
       <c r="BI85">
         <v>0.0032</v>
@@ -17017,10 +17017,10 @@
         <v>696</v>
       </c>
       <c r="AY86">
-        <v>0.02212811451149426</v>
+        <v>0.02212810043103449</v>
       </c>
       <c r="AZ86">
-        <v>0.02972000127903264</v>
+        <v>0.02972000799027727</v>
       </c>
       <c r="BA86">
         <v>6.59E-05</v>
@@ -17041,10 +17041,10 @@
         <v>696</v>
       </c>
       <c r="BG86">
-        <v>0.7105922413793097</v>
+        <v>0.7105923275862062</v>
       </c>
       <c r="BH86">
-        <v>0.4371931748684051</v>
+        <v>0.4371930353484192</v>
       </c>
       <c r="BI86">
         <v>0.00319</v>
@@ -17214,10 +17214,10 @@
         <v>696</v>
       </c>
       <c r="AY87">
-        <v>0.02212292672413793</v>
+        <v>0.02212278318965517</v>
       </c>
       <c r="AZ87">
-        <v>0.02970196255613211</v>
+        <v>0.02970201851148494</v>
       </c>
       <c r="BA87">
         <v>6.56E-05</v>
@@ -17238,10 +17238,10 @@
         <v>696</v>
       </c>
       <c r="BG87">
-        <v>0.71103823275862</v>
+        <v>0.711038247126436</v>
       </c>
       <c r="BH87">
-        <v>0.4383711531559971</v>
+        <v>0.4383711299755718</v>
       </c>
       <c r="BI87">
         <v>0.00318</v>
@@ -17411,13 +17411,13 @@
         <v>696</v>
       </c>
       <c r="AY88">
-        <v>0.02212904971264369</v>
+        <v>0.02212905129310346</v>
       </c>
       <c r="AZ88">
-        <v>0.02969940663913394</v>
+        <v>0.02969940547621457</v>
       </c>
       <c r="BA88">
-        <v>6.53E-05</v>
+        <v>6.54E-05</v>
       </c>
       <c r="BB88">
         <v>0.0078225</v>
@@ -17435,10 +17435,10 @@
         <v>696</v>
       </c>
       <c r="BG88">
-        <v>0.7117762643678162</v>
+        <v>0.7117763074712644</v>
       </c>
       <c r="BH88">
-        <v>0.4399061910228925</v>
+        <v>0.4399061215730298</v>
       </c>
       <c r="BI88">
         <v>0.00316</v>
@@ -17608,10 +17608,10 @@
         <v>696</v>
       </c>
       <c r="AY89">
-        <v>0.02212401178160921</v>
+        <v>0.02212401034482761</v>
       </c>
       <c r="AZ89">
-        <v>0.02966480808179552</v>
+        <v>0.02966480914933523</v>
       </c>
       <c r="BA89">
         <v>6.48E-05</v>
@@ -17632,10 +17632,10 @@
         <v>696</v>
       </c>
       <c r="BG89">
-        <v>0.7128158620689654</v>
+        <v>0.7128158620689655</v>
       </c>
       <c r="BH89">
-        <v>0.4418235858666135</v>
+        <v>0.4418235858770346</v>
       </c>
       <c r="BI89">
         <v>0.00314</v>
@@ -17805,10 +17805,10 @@
         <v>696</v>
       </c>
       <c r="AY90">
-        <v>0.02212029195402299</v>
+        <v>0.02212016149425287</v>
       </c>
       <c r="AZ90">
-        <v>0.02962421756786778</v>
+        <v>0.0296241139123307</v>
       </c>
       <c r="BA90">
         <v>6.47E-05</v>
@@ -18002,10 +18002,10 @@
         <v>696</v>
       </c>
       <c r="AY91">
-        <v>0.02212526379310344</v>
+        <v>0.02212512025862068</v>
       </c>
       <c r="AZ91">
-        <v>0.02965008959830658</v>
+        <v>0.02965005879860146</v>
       </c>
       <c r="BA91">
         <v>6.389999999999999E-05</v>
@@ -18079,10 +18079,10 @@
         <v>696</v>
       </c>
       <c r="K92">
-        <v>46.40359195402292</v>
+        <v>46.39942528735627</v>
       </c>
       <c r="L92">
-        <v>0.6809863985319584</v>
+        <v>0.6822938143397228</v>
       </c>
       <c r="M92">
         <v>45.4</v>
@@ -18103,13 +18103,13 @@
         <v>696</v>
       </c>
       <c r="S92">
-        <v>12.28048850574714</v>
+        <v>12.27724137931035</v>
       </c>
       <c r="T92">
-        <v>1.912155751274951</v>
+        <v>1.913560357650528</v>
       </c>
       <c r="U92">
-        <v>9.23</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="V92">
         <v>10.2</v>
@@ -18151,10 +18151,10 @@
         <v>696</v>
       </c>
       <c r="AI92">
-        <v>203.4063218390804</v>
+        <v>203.3745689655173</v>
       </c>
       <c r="AJ92">
-        <v>99.87996127859094</v>
+        <v>99.87711038906785</v>
       </c>
       <c r="AK92">
         <v>95</v>
@@ -18163,7 +18163,7 @@
         <v>132</v>
       </c>
       <c r="AM92">
-        <v>152</v>
+        <v>151.5</v>
       </c>
       <c r="AN92">
         <v>265.75</v>
@@ -18175,10 +18175,10 @@
         <v>696</v>
       </c>
       <c r="AQ92">
-        <v>53.87505747126438</v>
+        <v>53.87280172413792</v>
       </c>
       <c r="AR92">
-        <v>38.07665007402831</v>
+        <v>38.08095745419561</v>
       </c>
       <c r="AS92">
         <v>2.32</v>
@@ -18187,10 +18187,10 @@
         <v>26.475</v>
       </c>
       <c r="AU92">
-        <v>45.05</v>
+        <v>45</v>
       </c>
       <c r="AV92">
-        <v>77.42500000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="AW92">
         <v>171</v>
@@ -18199,10 +18199,10 @@
         <v>696</v>
       </c>
       <c r="AY92">
-        <v>0.01421047011494253</v>
+        <v>0.01420922255747127</v>
       </c>
       <c r="AZ92">
-        <v>0.02885596597606658</v>
+        <v>0.02884703182956649</v>
       </c>
       <c r="BA92">
         <v>-0.008030000000000001</v>
@@ -18223,10 +18223,10 @@
         <v>696</v>
       </c>
       <c r="BG92">
-        <v>0.26111375</v>
+        <v>0.2611441666666667</v>
       </c>
       <c r="BH92">
-        <v>0.3946734712942728</v>
+        <v>0.3946566730346965</v>
       </c>
       <c r="BI92">
         <v>-1.37</v>
@@ -18276,10 +18276,10 @@
         <v>696</v>
       </c>
       <c r="K93">
-        <v>46.13146551724139</v>
+        <v>46.1248563218391</v>
       </c>
       <c r="L93">
-        <v>0.7350631599862296</v>
+        <v>0.7357861607090134</v>
       </c>
       <c r="M93">
         <v>45.2</v>
@@ -18300,13 +18300,13 @@
         <v>696</v>
       </c>
       <c r="S93">
-        <v>12.00863505747127</v>
+        <v>12.00369252873563</v>
       </c>
       <c r="T93">
-        <v>1.846711486428601</v>
+        <v>1.848055641739629</v>
       </c>
       <c r="U93">
-        <v>9.15</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="V93">
         <v>9.94</v>
@@ -18348,19 +18348,19 @@
         <v>696</v>
       </c>
       <c r="AI93">
-        <v>203.3100574712643</v>
+        <v>203.2867816091954</v>
       </c>
       <c r="AJ93">
-        <v>99.85762259731632</v>
+        <v>99.85956944226928</v>
       </c>
       <c r="AK93">
-        <v>95</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AL93">
         <v>132</v>
       </c>
       <c r="AM93">
-        <v>152</v>
+        <v>151.5</v>
       </c>
       <c r="AN93">
         <v>265.75</v>
@@ -18372,10 +18372,10 @@
         <v>696</v>
       </c>
       <c r="AQ93">
-        <v>53.86235632183909</v>
+        <v>53.85620689655174</v>
       </c>
       <c r="AR93">
-        <v>38.06780484806747</v>
+        <v>38.0644143446949</v>
       </c>
       <c r="AS93">
         <v>2.32</v>
@@ -18387,7 +18387,7 @@
         <v>45</v>
       </c>
       <c r="AV93">
-        <v>77.42500000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="AW93">
         <v>171</v>
@@ -18396,10 +18396,10 @@
         <v>696</v>
       </c>
       <c r="AY93">
-        <v>0.01825480158045975</v>
+        <v>0.01825311350574711</v>
       </c>
       <c r="AZ93">
-        <v>0.02758521124584167</v>
+        <v>0.02758344756255133</v>
       </c>
       <c r="BA93">
         <v>-0.00307</v>
@@ -18420,10 +18420,10 @@
         <v>696</v>
       </c>
       <c r="BG93">
-        <v>0.5297056221264367</v>
+        <v>0.5297010876436777</v>
       </c>
       <c r="BH93">
-        <v>0.3727132765737558</v>
+        <v>0.3727406905682212</v>
       </c>
       <c r="BI93">
         <v>-0.143</v>
@@ -18473,10 +18473,10 @@
         <v>696</v>
       </c>
       <c r="K94">
-        <v>46.03333333333335</v>
+        <v>46.03318965517244</v>
       </c>
       <c r="L94">
-        <v>0.759369926881043</v>
+        <v>0.7594614894168228</v>
       </c>
       <c r="M94">
         <v>45.2</v>
@@ -18497,10 +18497,10 @@
         <v>696</v>
       </c>
       <c r="S94">
-        <v>11.91291666666668</v>
+        <v>11.91290229885059</v>
       </c>
       <c r="T94">
-        <v>1.826991464608031</v>
+        <v>1.827008774183733</v>
       </c>
       <c r="U94">
         <v>9.119999999999999</v>
@@ -18593,13 +18593,13 @@
         <v>696</v>
       </c>
       <c r="AY94">
-        <v>0.01980427772988506</v>
+        <v>0.01980407313218392</v>
       </c>
       <c r="AZ94">
-        <v>0.02725404654679901</v>
+        <v>0.02725410168199511</v>
       </c>
       <c r="BA94">
-        <v>-0.000924</v>
+        <v>-0.000923</v>
       </c>
       <c r="BB94">
         <v>0.006455</v>
@@ -18617,10 +18617,10 @@
         <v>696</v>
       </c>
       <c r="BG94">
-        <v>0.629243327586206</v>
+        <v>0.6292190301724131</v>
       </c>
       <c r="BH94">
-        <v>0.4130957466598575</v>
+        <v>0.4130713417279865</v>
       </c>
       <c r="BI94">
         <v>-0.0441</v>
@@ -18670,10 +18670,10 @@
         <v>696</v>
       </c>
       <c r="K95">
-        <v>46.01580459770117</v>
+        <v>46.01709770114945</v>
       </c>
       <c r="L95">
-        <v>0.763639665510782</v>
+        <v>0.7647885280252462</v>
       </c>
       <c r="M95">
         <v>45.1</v>
@@ -18694,13 +18694,13 @@
         <v>696</v>
       </c>
       <c r="S95">
-        <v>11.89050287356322</v>
+        <v>11.89425287356321</v>
       </c>
       <c r="T95">
-        <v>1.817288486893606</v>
+        <v>1.817243153353176</v>
       </c>
       <c r="U95">
-        <v>9.1</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="V95">
         <v>9.869999999999999</v>
@@ -18712,7 +18712,7 @@
         <v>13.2</v>
       </c>
       <c r="Y95">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="Z95">
         <v>696</v>
@@ -18742,10 +18742,10 @@
         <v>696</v>
       </c>
       <c r="AI95">
-        <v>203.2685344827586</v>
+        <v>203.3031609195402</v>
       </c>
       <c r="AJ95">
-        <v>99.8547562544026</v>
+        <v>99.86833816786717</v>
       </c>
       <c r="AK95">
         <v>95</v>
@@ -18766,10 +18766,10 @@
         <v>696</v>
       </c>
       <c r="AQ95">
-        <v>53.85932471264366</v>
+        <v>53.85962643678163</v>
       </c>
       <c r="AR95">
-        <v>38.07433641197697</v>
+        <v>38.06751318953983</v>
       </c>
       <c r="AS95">
         <v>2.32</v>
@@ -18781,7 +18781,7 @@
         <v>45</v>
       </c>
       <c r="AV95">
-        <v>77.47499999999999</v>
+        <v>77.42500000000001</v>
       </c>
       <c r="AW95">
         <v>171</v>
@@ -18790,10 +18790,10 @@
         <v>696</v>
       </c>
       <c r="AY95">
-        <v>0.02032993046839079</v>
+        <v>0.02033135673850574</v>
       </c>
       <c r="AZ95">
-        <v>0.02718101751353854</v>
+        <v>0.02718207231799574</v>
       </c>
       <c r="BA95">
         <v>-0.000208</v>
@@ -18814,10 +18814,10 @@
         <v>696</v>
       </c>
       <c r="BG95">
-        <v>0.6627277059051722</v>
+        <v>0.6627757353448269</v>
       </c>
       <c r="BH95">
-        <v>0.4322789464560803</v>
+        <v>0.4323211510301777</v>
       </c>
       <c r="BI95">
         <v>-0.0109</v>
@@ -18867,10 +18867,10 @@
         <v>696</v>
       </c>
       <c r="K96">
-        <v>45.99956896551721</v>
+        <v>45.98103448275863</v>
       </c>
       <c r="L96">
-        <v>0.7652242542325044</v>
+        <v>0.7660885002244416</v>
       </c>
       <c r="M96">
         <v>45.1</v>
@@ -18891,25 +18891,25 @@
         <v>696</v>
       </c>
       <c r="S96">
-        <v>11.87609195402298</v>
+        <v>11.85829022988506</v>
       </c>
       <c r="T96">
-        <v>1.815236223450812</v>
+        <v>1.814779636769682</v>
       </c>
       <c r="U96">
-        <v>9.09</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="V96">
-        <v>9.85</v>
+        <v>9.84</v>
       </c>
       <c r="W96">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="X96">
         <v>13.2</v>
       </c>
       <c r="Y96">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="Z96">
         <v>696</v>
@@ -18939,70 +18939,70 @@
         <v>696</v>
       </c>
       <c r="AI96">
-        <v>203.2408045977011</v>
+        <v>203.164224137931</v>
       </c>
       <c r="AJ96">
-        <v>99.85472513181465</v>
+        <v>99.82563819974852</v>
       </c>
       <c r="AK96">
-        <v>95</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AL96">
         <v>132</v>
       </c>
       <c r="AM96">
-        <v>152</v>
+        <v>151.5</v>
       </c>
       <c r="AN96">
-        <v>266.5</v>
+        <v>265.75</v>
       </c>
       <c r="AO96">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AP96">
         <v>696</v>
       </c>
       <c r="AQ96">
-        <v>53.85801724137927</v>
+        <v>53.83765804597702</v>
       </c>
       <c r="AR96">
-        <v>38.07590718180843</v>
+        <v>38.05915260991842</v>
       </c>
       <c r="AS96">
         <v>2.32</v>
       </c>
       <c r="AT96">
-        <v>26.475</v>
+        <v>26.375</v>
       </c>
       <c r="AU96">
         <v>45</v>
       </c>
       <c r="AV96">
-        <v>77.47499999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="AW96">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AX96">
         <v>696</v>
       </c>
       <c r="AY96">
-        <v>0.02049901703304598</v>
+        <v>0.02048689170977012</v>
       </c>
       <c r="AZ96">
-        <v>0.02718847608517586</v>
+        <v>0.02716482448933065</v>
       </c>
       <c r="BA96">
-        <v>-2.5E-05</v>
+        <v>-2.63E-05</v>
       </c>
       <c r="BB96">
-        <v>0.0073175</v>
+        <v>0.0073025</v>
       </c>
       <c r="BC96">
         <v>0.0119</v>
       </c>
       <c r="BD96">
-        <v>0.020925</v>
+        <v>0.0209</v>
       </c>
       <c r="BE96">
         <v>0.184</v>
@@ -19011,19 +19011,19 @@
         <v>696</v>
       </c>
       <c r="BG96">
-        <v>0.673131699137931</v>
+        <v>0.6728205784482759</v>
       </c>
       <c r="BH96">
-        <v>0.4394420464273091</v>
+        <v>0.4392244115222839</v>
       </c>
       <c r="BI96">
-        <v>-0.00135</v>
+        <v>-0.00142</v>
       </c>
       <c r="BJ96">
-        <v>0.306</v>
+        <v>0.307</v>
       </c>
       <c r="BK96">
-        <v>0.587</v>
+        <v>0.5865</v>
       </c>
       <c r="BL96">
         <v>1.07</v>
@@ -19064,10 +19064,10 @@
         <v>696</v>
       </c>
       <c r="K97">
-        <v>46.24928160919544</v>
+        <v>46.26005747126442</v>
       </c>
       <c r="L97">
-        <v>0.6932766956253917</v>
+        <v>0.6945311525570014</v>
       </c>
       <c r="M97">
         <v>45.2</v>
@@ -19076,22 +19076,22 @@
         <v>45.7</v>
       </c>
       <c r="O97">
-        <v>46</v>
+        <v>46.1</v>
       </c>
       <c r="P97">
         <v>46.8</v>
       </c>
       <c r="Q97">
-        <v>47.7</v>
+        <v>47.8</v>
       </c>
       <c r="R97">
         <v>696</v>
       </c>
       <c r="S97">
-        <v>12.12629310344829</v>
+        <v>12.1355747126437</v>
       </c>
       <c r="T97">
-        <v>1.902315074330306</v>
+        <v>1.90156223926688</v>
       </c>
       <c r="U97">
         <v>9.119999999999999</v>
@@ -19106,7 +19106,7 @@
         <v>13.5</v>
       </c>
       <c r="Y97">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="Z97">
         <v>696</v>
@@ -19136,10 +19136,10 @@
         <v>696</v>
       </c>
       <c r="AI97">
-        <v>203.269683908046</v>
+        <v>203.3334770114943</v>
       </c>
       <c r="AJ97">
-        <v>99.85235309065918</v>
+        <v>99.86548528424849</v>
       </c>
       <c r="AK97">
         <v>95</v>
@@ -19160,10 +19160,10 @@
         <v>696</v>
       </c>
       <c r="AQ97">
-        <v>53.85587643678161</v>
+        <v>53.86438218390807</v>
       </c>
       <c r="AR97">
-        <v>38.0672777790077</v>
+        <v>38.07159483697399</v>
       </c>
       <c r="AS97">
         <v>2.32</v>
@@ -19184,13 +19184,13 @@
         <v>696</v>
       </c>
       <c r="AY97">
-        <v>0.02841520114942528</v>
+        <v>0.02842893678160918</v>
       </c>
       <c r="AZ97">
-        <v>0.02828591996822252</v>
+        <v>0.02831189764428479</v>
       </c>
       <c r="BA97">
-        <v>0.00278</v>
+        <v>0.00279</v>
       </c>
       <c r="BB97">
         <v>0.0145</v>
@@ -19199,31 +19199,31 @@
         <v>0.02</v>
       </c>
       <c r="BD97">
-        <v>0.031225</v>
+        <v>0.0313</v>
       </c>
       <c r="BE97">
-        <v>0.2</v>
+        <v>0.201</v>
       </c>
       <c r="BF97">
         <v>696</v>
       </c>
       <c r="BG97">
-        <v>1.130061350574714</v>
+        <v>1.130334913793104</v>
       </c>
       <c r="BH97">
-        <v>0.7865361115716368</v>
+        <v>0.7865913036792846</v>
       </c>
       <c r="BI97">
-        <v>0.0167</v>
+        <v>0.0168</v>
       </c>
       <c r="BJ97">
-        <v>0.5617500000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="BK97">
-        <v>0.77</v>
+        <v>0.7705</v>
       </c>
       <c r="BL97">
-        <v>1.8025</v>
+        <v>1.81</v>
       </c>
       <c r="BM97">
         <v>3.28</v>
@@ -19261,10 +19261,10 @@
         <v>696</v>
       </c>
       <c r="K98">
-        <v>46.52011494252878</v>
+        <v>46.52112068965521</v>
       </c>
       <c r="L98">
-        <v>0.6199540372898141</v>
+        <v>0.6205816787058912</v>
       </c>
       <c r="M98">
         <v>45.8</v>
@@ -19285,10 +19285,10 @@
         <v>696</v>
       </c>
       <c r="S98">
-        <v>12.39920977011493</v>
+        <v>12.40037356321838</v>
       </c>
       <c r="T98">
-        <v>1.957290913472485</v>
+        <v>1.956373205511294</v>
       </c>
       <c r="U98">
         <v>9.32</v>
@@ -19300,7 +19300,7 @@
         <v>12.3</v>
       </c>
       <c r="X98">
-        <v>13.825</v>
+        <v>13.9</v>
       </c>
       <c r="Y98">
         <v>16.3</v>
@@ -19333,10 +19333,10 @@
         <v>696</v>
       </c>
       <c r="AI98">
-        <v>203.3561781609196</v>
+        <v>203.3706896551724</v>
       </c>
       <c r="AJ98">
-        <v>99.87049638459976</v>
+        <v>99.86453934607762</v>
       </c>
       <c r="AK98">
         <v>95</v>
@@ -19357,10 +19357,10 @@
         <v>696</v>
       </c>
       <c r="AQ98">
-        <v>53.86942528735629</v>
+        <v>53.87215517241378</v>
       </c>
       <c r="AR98">
-        <v>38.06803512248163</v>
+        <v>38.07665220848733</v>
       </c>
       <c r="AS98">
         <v>2.32</v>
@@ -19381,10 +19381,10 @@
         <v>696</v>
       </c>
       <c r="AY98">
-        <v>0.02440155172413792</v>
+        <v>0.0243955172413793</v>
       </c>
       <c r="AZ98">
-        <v>0.02921276479454155</v>
+        <v>0.02919518449042441</v>
       </c>
       <c r="BA98">
         <v>0.00105</v>
@@ -19405,10 +19405,10 @@
         <v>696</v>
       </c>
       <c r="BG98">
-        <v>0.8617248994252864</v>
+        <v>0.8616695833333325</v>
       </c>
       <c r="BH98">
-        <v>0.5492206430910984</v>
+        <v>0.549200718954738</v>
       </c>
       <c r="BI98">
         <v>0.00844</v>
@@ -19458,13 +19458,13 @@
         <v>696</v>
       </c>
       <c r="K99">
-        <v>46.57830459770114</v>
+        <v>46.57586206896544</v>
       </c>
       <c r="L99">
-        <v>0.599906946531558</v>
+        <v>0.597783053882265</v>
       </c>
       <c r="M99">
-        <v>45.9</v>
+        <v>45.8</v>
       </c>
       <c r="N99">
         <v>46</v>
@@ -19476,19 +19476,19 @@
         <v>47</v>
       </c>
       <c r="Q99">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="R99">
         <v>696</v>
       </c>
       <c r="S99">
-        <v>12.45844827586206</v>
+        <v>12.45307471264368</v>
       </c>
       <c r="T99">
-        <v>1.976764205811689</v>
+        <v>1.976336928471872</v>
       </c>
       <c r="U99">
-        <v>9.289999999999999</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="V99">
         <v>10.2</v>
@@ -19530,10 +19530,10 @@
         <v>696</v>
       </c>
       <c r="AI99">
-        <v>203.2145114942529</v>
+        <v>203.1741379310345</v>
       </c>
       <c r="AJ99">
-        <v>99.82782302316916</v>
+        <v>99.81761176245809</v>
       </c>
       <c r="AK99">
         <v>94.8</v>
@@ -19554,10 +19554,10 @@
         <v>696</v>
       </c>
       <c r="AQ99">
-        <v>53.84652298850573</v>
+        <v>53.84041666666663</v>
       </c>
       <c r="AR99">
-        <v>38.06783970161261</v>
+        <v>38.05943481056332</v>
       </c>
       <c r="AS99">
         <v>2.31</v>
@@ -19572,19 +19572,19 @@
         <v>77.375</v>
       </c>
       <c r="AW99">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AX99">
         <v>696</v>
       </c>
       <c r="AY99">
-        <v>0.0229518606321839</v>
+        <v>0.02296244540229884</v>
       </c>
       <c r="AZ99">
-        <v>0.02951402076266649</v>
+        <v>0.02952037577503331</v>
       </c>
       <c r="BA99">
-        <v>0.000399</v>
+        <v>0.000404</v>
       </c>
       <c r="BB99">
         <v>0.008807499999999999</v>
@@ -19593,7 +19593,7 @@
         <v>0.01365</v>
       </c>
       <c r="BD99">
-        <v>0.023425</v>
+        <v>0.0235</v>
       </c>
       <c r="BE99">
         <v>0.201</v>
@@ -19602,22 +19602,22 @@
         <v>696</v>
       </c>
       <c r="BG99">
-        <v>0.769344382183908</v>
+        <v>0.7698288362068966</v>
       </c>
       <c r="BH99">
-        <v>0.4857334707665587</v>
+        <v>0.4861752530449487</v>
       </c>
       <c r="BI99">
-        <v>0.00543</v>
+        <v>0.00546</v>
       </c>
       <c r="BJ99">
-        <v>0.38475</v>
+        <v>0.385</v>
       </c>
       <c r="BK99">
-        <v>0.651</v>
+        <v>0.652</v>
       </c>
       <c r="BL99">
-        <v>1.2325</v>
+        <v>1.24</v>
       </c>
       <c r="BM99">
         <v>1.85</v>
@@ -19655,10 +19655,10 @@
         <v>696</v>
       </c>
       <c r="K100">
-        <v>46.61293103448269</v>
+        <v>46.60632183908038</v>
       </c>
       <c r="L100">
-        <v>0.5896269039692786</v>
+        <v>0.5897349531574388</v>
       </c>
       <c r="M100">
         <v>45.9</v>
@@ -19670,25 +19670,25 @@
         <v>46.4</v>
       </c>
       <c r="P100">
-        <v>47.1</v>
+        <v>47.025</v>
       </c>
       <c r="Q100">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="R100">
         <v>696</v>
       </c>
       <c r="S100">
-        <v>12.48837643678161</v>
+        <v>12.47989942528737</v>
       </c>
       <c r="T100">
-        <v>1.980544313444142</v>
+        <v>1.980881968004435</v>
       </c>
       <c r="U100">
-        <v>9.359999999999999</v>
+        <v>9.34</v>
       </c>
       <c r="V100">
-        <v>10.275</v>
+        <v>10.2</v>
       </c>
       <c r="W100">
         <v>12.4</v>
@@ -19727,10 +19727,10 @@
         <v>696</v>
       </c>
       <c r="AI100">
-        <v>203.2001436781609</v>
+        <v>203.155459770115</v>
       </c>
       <c r="AJ100">
-        <v>99.84209641131662</v>
+        <v>99.83144354975116</v>
       </c>
       <c r="AK100">
         <v>94.90000000000001</v>
@@ -19745,25 +19745,25 @@
         <v>265.75</v>
       </c>
       <c r="AO100">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AP100">
         <v>696</v>
       </c>
       <c r="AQ100">
-        <v>53.84403735632179</v>
+        <v>53.83438218390797</v>
       </c>
       <c r="AR100">
-        <v>38.06280034373766</v>
+        <v>38.05615056188654</v>
       </c>
       <c r="AS100">
         <v>2.32</v>
       </c>
       <c r="AT100">
-        <v>26.475</v>
+        <v>26.375</v>
       </c>
       <c r="AU100">
-        <v>45</v>
+        <v>44.95</v>
       </c>
       <c r="AV100">
         <v>77.40000000000001</v>
@@ -19775,10 +19775,10 @@
         <v>696</v>
       </c>
       <c r="AY100">
-        <v>0.02247423706896551</v>
+        <v>0.02247035201149424</v>
       </c>
       <c r="AZ100">
-        <v>0.02961842044199806</v>
+        <v>0.02961505358566258</v>
       </c>
       <c r="BA100">
         <v>0.000184</v>
@@ -19799,13 +19799,13 @@
         <v>696</v>
       </c>
       <c r="BG100">
-        <v>0.7391137068965512</v>
+        <v>0.7390834195402293</v>
       </c>
       <c r="BH100">
-        <v>0.4682734639365149</v>
+        <v>0.4682705669808003</v>
       </c>
       <c r="BI100">
-        <v>0.00449</v>
+        <v>0.0045</v>
       </c>
       <c r="BJ100">
         <v>0.36375</v>
@@ -19814,7 +19814,7 @@
         <v>0.6405000000000001</v>
       </c>
       <c r="BL100">
-        <v>1.1725</v>
+        <v>1.17</v>
       </c>
       <c r="BM100">
         <v>1.79</v>
@@ -19852,40 +19852,40 @@
         <v>696</v>
       </c>
       <c r="K101">
-        <v>46.59770114942523</v>
+        <v>46.63477011494246</v>
       </c>
       <c r="L101">
-        <v>0.5881275272061911</v>
+        <v>0.5900842071579721</v>
       </c>
       <c r="M101">
-        <v>45.9</v>
+        <v>46</v>
       </c>
       <c r="N101">
         <v>46.1</v>
       </c>
       <c r="O101">
-        <v>46.4</v>
+        <v>46.5</v>
       </c>
       <c r="P101">
-        <v>47</v>
+        <v>47.1</v>
       </c>
       <c r="Q101">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="R101">
         <v>696</v>
       </c>
       <c r="S101">
-        <v>12.4748275862069</v>
+        <v>12.5144827586207</v>
       </c>
       <c r="T101">
-        <v>1.982356267957</v>
+        <v>1.983231145187536</v>
       </c>
       <c r="U101">
-        <v>9.33</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="V101">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="W101">
         <v>12.4</v>
@@ -19894,16 +19894,16 @@
         <v>14</v>
       </c>
       <c r="Y101">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="Z101">
         <v>696</v>
       </c>
       <c r="AA101">
-        <v>46.60833333333328</v>
+        <v>46.6084770114942</v>
       </c>
       <c r="AB101">
-        <v>0.588341977912183</v>
+        <v>0.5885233143700416</v>
       </c>
       <c r="AC101">
         <v>46</v>
@@ -19924,13 +19924,13 @@
         <v>696</v>
       </c>
       <c r="AI101">
-        <v>203.0844827586207</v>
+        <v>203.2681034482758</v>
       </c>
       <c r="AJ101">
-        <v>99.80837562649589</v>
+        <v>99.84971997090639</v>
       </c>
       <c r="AK101">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="AL101">
         <v>132</v>
@@ -19942,22 +19942,22 @@
         <v>265.75</v>
       </c>
       <c r="AO101">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AP101">
         <v>696</v>
       </c>
       <c r="AQ101">
-        <v>53.82074712643674</v>
+        <v>53.85658045977007</v>
       </c>
       <c r="AR101">
-        <v>38.05219198843152</v>
+        <v>38.07154486912206</v>
       </c>
       <c r="AS101">
         <v>2.32</v>
       </c>
       <c r="AT101">
-        <v>26.375</v>
+        <v>26.475</v>
       </c>
       <c r="AU101">
         <v>45</v>
@@ -19966,19 +19966,19 @@
         <v>77.40000000000001</v>
       </c>
       <c r="AW101">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AX101">
         <v>696</v>
       </c>
       <c r="AY101">
-        <v>0.0223384540229885</v>
+        <v>0.02234254454022988</v>
       </c>
       <c r="AZ101">
-        <v>0.02966889918684269</v>
+        <v>0.0296612894544174</v>
       </c>
       <c r="BA101">
-        <v>0.000114</v>
+        <v>0.000113</v>
       </c>
       <c r="BB101">
         <v>0.0081</v>
@@ -19996,13 +19996,13 @@
         <v>696</v>
       </c>
       <c r="BG101">
-        <v>0.7307197844827588</v>
+        <v>0.7309280172413795</v>
       </c>
       <c r="BH101">
-        <v>0.4643980076582283</v>
+        <v>0.4645437673567693</v>
       </c>
       <c r="BI101">
-        <v>0.0039</v>
+        <v>0.00389</v>
       </c>
       <c r="BJ101">
         <v>0.357</v>
@@ -20049,10 +20049,10 @@
         <v>696</v>
       </c>
       <c r="K102">
-        <v>46.63045977011487</v>
+        <v>46.62959770114934</v>
       </c>
       <c r="L102">
-        <v>0.5897618747281157</v>
+        <v>0.5895130136972788</v>
       </c>
       <c r="M102">
         <v>46</v>
@@ -20067,16 +20067,16 @@
         <v>47.1</v>
       </c>
       <c r="Q102">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="R102">
         <v>696</v>
       </c>
       <c r="S102">
-        <v>12.51212643678162</v>
+        <v>12.51028735632185</v>
       </c>
       <c r="T102">
-        <v>1.983319161461651</v>
+        <v>1.982382964884889</v>
       </c>
       <c r="U102">
         <v>9.380000000000001</v>
@@ -20121,10 +20121,10 @@
         <v>696</v>
       </c>
       <c r="AI102">
-        <v>203.2047413793103</v>
+        <v>203.2004310344828</v>
       </c>
       <c r="AJ102">
-        <v>99.83201152060167</v>
+        <v>99.82975025404583</v>
       </c>
       <c r="AK102">
         <v>95</v>
@@ -20145,10 +20145,10 @@
         <v>696</v>
       </c>
       <c r="AQ102">
-        <v>53.84764367816091</v>
+        <v>53.84594827586206</v>
       </c>
       <c r="AR102">
-        <v>38.06255816048542</v>
+        <v>38.06239084447164</v>
       </c>
       <c r="AS102">
         <v>2.32</v>
@@ -20169,13 +20169,13 @@
         <v>696</v>
       </c>
       <c r="AY102">
-        <v>0.02229500517241377</v>
+        <v>0.02229603433908044</v>
       </c>
       <c r="AZ102">
-        <v>0.02965911427861843</v>
+        <v>0.02966632956682922</v>
       </c>
       <c r="BA102">
-        <v>8.69E-05</v>
+        <v>8.54E-05</v>
       </c>
       <c r="BB102">
         <v>0.00805</v>
@@ -20193,13 +20193,13 @@
         <v>696</v>
       </c>
       <c r="BG102">
-        <v>0.7286485201149435</v>
+        <v>0.7286183764367827</v>
       </c>
       <c r="BH102">
-        <v>0.464542690316599</v>
+        <v>0.4645122160267474</v>
       </c>
       <c r="BI102">
-        <v>0.00365</v>
+        <v>0.00364</v>
       </c>
       <c r="BJ102">
         <v>0.35475</v>
@@ -20246,10 +20246,10 @@
         <v>696</v>
       </c>
       <c r="K103">
-        <v>46.63477011494243</v>
+        <v>46.63433908045969</v>
       </c>
       <c r="L103">
-        <v>0.5907665587462929</v>
+        <v>0.5905360276620923</v>
       </c>
       <c r="M103">
         <v>46</v>
@@ -20270,13 +20270,13 @@
         <v>696</v>
       </c>
       <c r="S103">
-        <v>12.51606321839082</v>
+        <v>12.51742816091955</v>
       </c>
       <c r="T103">
-        <v>1.983392418722319</v>
+        <v>1.983824841568923</v>
       </c>
       <c r="U103">
-        <v>9.390000000000001</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="V103">
         <v>10.3</v>
@@ -20318,10 +20318,10 @@
         <v>696</v>
       </c>
       <c r="AI103">
-        <v>203.226724137931</v>
+        <v>203.2294540229885</v>
       </c>
       <c r="AJ103">
-        <v>99.83193620396088</v>
+        <v>99.83448782134558</v>
       </c>
       <c r="AK103">
         <v>95</v>
@@ -20342,16 +20342,16 @@
         <v>696</v>
       </c>
       <c r="AQ103">
-        <v>53.84988505747126</v>
+        <v>53.85043103448278</v>
       </c>
       <c r="AR103">
-        <v>38.0625497618756</v>
+        <v>38.06294903591081</v>
       </c>
       <c r="AS103">
         <v>2.32</v>
       </c>
       <c r="AT103">
-        <v>26.45</v>
+        <v>26.475</v>
       </c>
       <c r="AU103">
         <v>45</v>
@@ -20366,13 +20366,13 @@
         <v>696</v>
       </c>
       <c r="AY103">
-        <v>0.02228379755747128</v>
+        <v>0.02228393534482761</v>
       </c>
       <c r="AZ103">
-        <v>0.02967286252423915</v>
+        <v>0.02967290582542681</v>
       </c>
       <c r="BA103">
-        <v>7.389999999999999E-05</v>
+        <v>7.42E-05</v>
       </c>
       <c r="BB103">
         <v>0.008042499999999999</v>
@@ -20390,13 +20390,13 @@
         <v>696</v>
       </c>
       <c r="BG103">
-        <v>0.728132025862069</v>
+        <v>0.7281317672413796</v>
       </c>
       <c r="BH103">
-        <v>0.4654547327887626</v>
+        <v>0.4654546805831138</v>
       </c>
       <c r="BI103">
-        <v>0.00341</v>
+        <v>0.00342</v>
       </c>
       <c r="BJ103">
         <v>0.3535</v>
@@ -20443,10 +20443,10 @@
         <v>696</v>
       </c>
       <c r="K104">
-        <v>46.63606321839072</v>
+        <v>46.63477011494246</v>
       </c>
       <c r="L104">
-        <v>0.5907010993755127</v>
+        <v>0.5907665587462945</v>
       </c>
       <c r="M104">
         <v>46</v>
@@ -20461,19 +20461,19 @@
         <v>47.1</v>
       </c>
       <c r="Q104">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="R104">
         <v>696</v>
       </c>
       <c r="S104">
-        <v>12.52097701149426</v>
+        <v>12.51629310344829</v>
       </c>
       <c r="T104">
-        <v>1.98449520088824</v>
+        <v>1.983392354515963</v>
       </c>
       <c r="U104">
-        <v>9.4</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="V104">
         <v>10.3</v>
@@ -20515,10 +20515,10 @@
         <v>696</v>
       </c>
       <c r="AI104">
-        <v>203.2310344827586</v>
+        <v>203.2222701149425</v>
       </c>
       <c r="AJ104">
-        <v>99.83121287579388</v>
+        <v>99.82988483518379</v>
       </c>
       <c r="AK104">
         <v>95</v>
@@ -20527,7 +20527,7 @@
         <v>132</v>
       </c>
       <c r="AM104">
-        <v>152</v>
+        <v>151.5</v>
       </c>
       <c r="AN104">
         <v>265.75</v>
@@ -20539,10 +20539,10 @@
         <v>696</v>
       </c>
       <c r="AQ104">
-        <v>53.85198275862071</v>
+        <v>53.84915229885057</v>
       </c>
       <c r="AR104">
-        <v>38.06372712168301</v>
+        <v>38.06244833855245</v>
       </c>
       <c r="AS104">
         <v>2.32</v>
@@ -20554,7 +20554,7 @@
         <v>45</v>
       </c>
       <c r="AV104">
-        <v>77.42500000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="AW104">
         <v>170</v>
@@ -20563,22 +20563,22 @@
         <v>696</v>
       </c>
       <c r="AY104">
-        <v>0.02227540172413792</v>
+        <v>0.0222713804597701</v>
       </c>
       <c r="AZ104">
-        <v>0.02964077075670547</v>
+        <v>0.02963861667300766</v>
       </c>
       <c r="BA104">
-        <v>6.880000000000001E-05</v>
+        <v>6.81E-05</v>
       </c>
       <c r="BB104">
-        <v>0.008035</v>
+        <v>0.008025000000000001</v>
       </c>
       <c r="BC104">
         <v>0.01305</v>
       </c>
       <c r="BD104">
-        <v>0.02275</v>
+        <v>0.022725</v>
       </c>
       <c r="BE104">
         <v>0.203</v>
@@ -20587,19 +20587,19 @@
         <v>696</v>
       </c>
       <c r="BG104">
-        <v>0.7282213649425295</v>
+        <v>0.7281074712643687</v>
       </c>
       <c r="BH104">
-        <v>0.4665148804375324</v>
+        <v>0.4664473125621733</v>
       </c>
       <c r="BI104">
-        <v>0.00323</v>
+        <v>0.00321</v>
       </c>
       <c r="BJ104">
-        <v>0.35225</v>
+        <v>0.3515</v>
       </c>
       <c r="BK104">
-        <v>0.638</v>
+        <v>0.6375</v>
       </c>
       <c r="BL104">
         <v>1.14</v>
@@ -20640,10 +20640,10 @@
         <v>696</v>
       </c>
       <c r="K105">
-        <v>46.63376436781601</v>
+        <v>46.62844827586198</v>
       </c>
       <c r="L105">
-        <v>0.5901305030115244</v>
+        <v>0.5894720527029995</v>
       </c>
       <c r="M105">
         <v>46</v>
@@ -20652,7 +20652,7 @@
         <v>46.1</v>
       </c>
       <c r="O105">
-        <v>46.5</v>
+        <v>46.45</v>
       </c>
       <c r="P105">
         <v>47.1</v>
@@ -20664,13 +20664,13 @@
         <v>696</v>
       </c>
       <c r="S105">
-        <v>12.51686781609197</v>
+        <v>12.50751436781611</v>
       </c>
       <c r="T105">
-        <v>1.982229386518033</v>
+        <v>1.982932571351602</v>
       </c>
       <c r="U105">
-        <v>9.390000000000001</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="V105">
         <v>10.3</v>
@@ -20682,7 +20682,7 @@
         <v>14</v>
       </c>
       <c r="Y105">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="Z105">
         <v>696</v>
@@ -20712,10 +20712,10 @@
         <v>696</v>
       </c>
       <c r="AI105">
-        <v>203.2209770114942</v>
+        <v>203.1919540229885</v>
       </c>
       <c r="AJ105">
-        <v>99.82993130935786</v>
+        <v>99.82497485215744</v>
       </c>
       <c r="AK105">
         <v>95</v>
@@ -20724,7 +20724,7 @@
         <v>132</v>
       </c>
       <c r="AM105">
-        <v>152</v>
+        <v>151.5</v>
       </c>
       <c r="AN105">
         <v>265.75</v>
@@ -20736,10 +20736,10 @@
         <v>696</v>
       </c>
       <c r="AQ105">
-        <v>53.84817528735631</v>
+        <v>53.84339080459769</v>
       </c>
       <c r="AR105">
-        <v>38.06301216324078</v>
+        <v>38.06220779023722</v>
       </c>
       <c r="AS105">
         <v>2.32</v>
@@ -20751,7 +20751,7 @@
         <v>44.95</v>
       </c>
       <c r="AV105">
-        <v>77.42500000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="AW105">
         <v>170</v>
@@ -20760,10 +20760,10 @@
         <v>696</v>
       </c>
       <c r="AY105">
-        <v>0.02227593836206894</v>
+        <v>0.02227616824712641</v>
       </c>
       <c r="AZ105">
-        <v>0.02967087500933543</v>
+        <v>0.02967118748744221</v>
       </c>
       <c r="BA105">
         <v>6.58E-05</v>
@@ -20784,10 +20784,10 @@
         <v>696</v>
       </c>
       <c r="BG105">
-        <v>0.7288861206896563</v>
+        <v>0.728854956896553</v>
       </c>
       <c r="BH105">
-        <v>0.467837669685313</v>
+        <v>0.4678293053123788</v>
       </c>
       <c r="BI105">
         <v>0.00312</v>
@@ -20837,10 +20837,10 @@
         <v>696</v>
       </c>
       <c r="K106">
-        <v>46.63261494252865</v>
+        <v>46.63175287356313</v>
       </c>
       <c r="L106">
-        <v>0.5903414946405036</v>
+        <v>0.5896813692647216</v>
       </c>
       <c r="M106">
         <v>46</v>
@@ -20849,7 +20849,7 @@
         <v>46.1</v>
       </c>
       <c r="O106">
-        <v>46.45</v>
+        <v>46.5</v>
       </c>
       <c r="P106">
         <v>47.1</v>
@@ -20861,10 +20861,10 @@
         <v>696</v>
       </c>
       <c r="S106">
-        <v>12.51525862068967</v>
+        <v>12.51272988505748</v>
       </c>
       <c r="T106">
-        <v>1.980860489368913</v>
+        <v>1.982702832654555</v>
       </c>
       <c r="U106">
         <v>9.390000000000001</v>
@@ -20879,16 +20879,16 @@
         <v>14</v>
       </c>
       <c r="Y106">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="Z106">
         <v>696</v>
       </c>
       <c r="AA106">
-        <v>46.61350574712639</v>
+        <v>46.61307471264364</v>
       </c>
       <c r="AB106">
-        <v>0.5894187430368866</v>
+        <v>0.5885856967915051</v>
       </c>
       <c r="AC106">
         <v>46</v>
@@ -20909,10 +20909,10 @@
         <v>696</v>
       </c>
       <c r="AI106">
-        <v>203.2181034482759</v>
+        <v>203.2066091954023</v>
       </c>
       <c r="AJ106">
-        <v>99.83199867559189</v>
+        <v>99.82275536484543</v>
       </c>
       <c r="AK106">
         <v>95</v>
@@ -20921,7 +20921,7 @@
         <v>132</v>
       </c>
       <c r="AM106">
-        <v>152</v>
+        <v>151.5</v>
       </c>
       <c r="AN106">
         <v>265.75</v>
@@ -20933,10 +20933,10 @@
         <v>696</v>
       </c>
       <c r="AQ106">
-        <v>53.84758620689655</v>
+        <v>53.84609195402299</v>
       </c>
       <c r="AR106">
-        <v>38.06268133518986</v>
+        <v>38.06233569068487</v>
       </c>
       <c r="AS106">
         <v>2.32</v>
@@ -20948,7 +20948,7 @@
         <v>44.95</v>
       </c>
       <c r="AV106">
-        <v>77.42500000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="AW106">
         <v>170</v>
@@ -20957,13 +20957,13 @@
         <v>696</v>
       </c>
       <c r="AY106">
-        <v>0.02226936982758617</v>
+        <v>0.02227021393678157</v>
       </c>
       <c r="AZ106">
-        <v>0.02962919263771119</v>
+        <v>0.02962920838502225</v>
       </c>
       <c r="BA106">
-        <v>6.499999999999999E-05</v>
+        <v>6.43E-05</v>
       </c>
       <c r="BB106">
         <v>0.0080375</v>
@@ -20981,13 +20981,13 @@
         <v>696</v>
       </c>
       <c r="BG106">
-        <v>0.7299041666666668</v>
+        <v>0.72995808908046</v>
       </c>
       <c r="BH106">
-        <v>0.4696383181456464</v>
+        <v>0.469699145889925</v>
       </c>
       <c r="BI106">
-        <v>0.00309</v>
+        <v>0.00307</v>
       </c>
       <c r="BJ106">
         <v>0.35025</v>
@@ -21034,10 +21034,10 @@
         <v>696</v>
       </c>
       <c r="K107">
-        <v>46.63189655172406</v>
+        <v>46.63405172413785</v>
       </c>
       <c r="L107">
-        <v>0.5908071500613643</v>
+        <v>0.5906745006059487</v>
       </c>
       <c r="M107">
         <v>46</v>
@@ -21046,7 +21046,7 @@
         <v>46.1</v>
       </c>
       <c r="O107">
-        <v>46.45</v>
+        <v>46.5</v>
       </c>
       <c r="P107">
         <v>47.1</v>
@@ -21058,10 +21058,10 @@
         <v>696</v>
       </c>
       <c r="S107">
-        <v>12.51482758620691</v>
+        <v>12.51783045977013</v>
       </c>
       <c r="T107">
-        <v>1.981332223606795</v>
+        <v>1.983276347485476</v>
       </c>
       <c r="U107">
         <v>9.390000000000001</v>
@@ -21076,16 +21076,16 @@
         <v>14</v>
       </c>
       <c r="Y107">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="Z107">
         <v>696</v>
       </c>
       <c r="AA107">
-        <v>46.61364942528731</v>
+        <v>46.61350574712639</v>
       </c>
       <c r="AB107">
-        <v>0.5896960934887802</v>
+        <v>0.5894187430368866</v>
       </c>
       <c r="AC107">
         <v>46</v>
@@ -21106,10 +21106,10 @@
         <v>696</v>
       </c>
       <c r="AI107">
-        <v>203.2181034482759</v>
+        <v>203.2252873563218</v>
       </c>
       <c r="AJ107">
-        <v>99.83199867559189</v>
+        <v>99.82966943347991</v>
       </c>
       <c r="AK107">
         <v>95</v>
@@ -21130,10 +21130,10 @@
         <v>696</v>
       </c>
       <c r="AQ107">
-        <v>53.84758620689655</v>
+        <v>53.84922413793103</v>
       </c>
       <c r="AR107">
-        <v>38.06268133518986</v>
+        <v>38.06330524670248</v>
       </c>
       <c r="AS107">
         <v>2.32</v>
@@ -21154,13 +21154,13 @@
         <v>696</v>
       </c>
       <c r="AY107">
-        <v>0.02226877011494251</v>
+        <v>0.02226925459770113</v>
       </c>
       <c r="AZ107">
-        <v>0.02962026388044543</v>
+        <v>0.02962038676334878</v>
       </c>
       <c r="BA107">
-        <v>6.34E-05</v>
+        <v>6.36E-05</v>
       </c>
       <c r="BB107">
         <v>0.008047499999999999</v>
@@ -21178,13 +21178,13 @@
         <v>696</v>
       </c>
       <c r="BG107">
-        <v>0.7302976867816079</v>
+        <v>0.7303112931034468</v>
       </c>
       <c r="BH107">
-        <v>0.4707954376455646</v>
+        <v>0.4707846211179835</v>
       </c>
       <c r="BI107">
-        <v>0.00303</v>
+        <v>0.00304</v>
       </c>
       <c r="BJ107">
         <v>0.3492499999999999</v>
@@ -21231,37 +21231,37 @@
         <v>696</v>
       </c>
       <c r="K108">
-        <v>46.63189655172406</v>
+        <v>46.63620689655163</v>
       </c>
       <c r="L108">
-        <v>0.5908071500613643</v>
+        <v>0.5908019013414143</v>
       </c>
       <c r="M108">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="N108">
         <v>46.1</v>
       </c>
       <c r="O108">
-        <v>46.45</v>
+        <v>46.5</v>
       </c>
       <c r="P108">
         <v>47.1</v>
       </c>
       <c r="Q108">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="R108">
         <v>696</v>
       </c>
       <c r="S108">
-        <v>12.51459770114944</v>
+        <v>12.5145114942529</v>
       </c>
       <c r="T108">
-        <v>1.981614735569184</v>
+        <v>1.982944266099688</v>
       </c>
       <c r="U108">
-        <v>9.390000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="V108">
         <v>10.3</v>
@@ -21273,7 +21273,7 @@
         <v>14</v>
       </c>
       <c r="Y108">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="Z108">
         <v>696</v>
@@ -21303,13 +21303,13 @@
         <v>696</v>
       </c>
       <c r="AI108">
-        <v>203.2181034482759</v>
+        <v>203.2466954022989</v>
       </c>
       <c r="AJ108">
-        <v>99.83199867559189</v>
+        <v>99.84398803081966</v>
       </c>
       <c r="AK108">
-        <v>95</v>
+        <v>94.8</v>
       </c>
       <c r="AL108">
         <v>132</v>
@@ -21318,49 +21318,49 @@
         <v>152</v>
       </c>
       <c r="AN108">
-        <v>265.75</v>
+        <v>266.25</v>
       </c>
       <c r="AO108">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AP108">
         <v>696</v>
       </c>
       <c r="AQ108">
-        <v>53.84758620689655</v>
+        <v>53.85406609195397</v>
       </c>
       <c r="AR108">
-        <v>38.06268133518986</v>
+        <v>38.07562073152044</v>
       </c>
       <c r="AS108">
-        <v>2.32</v>
+        <v>2.31</v>
       </c>
       <c r="AT108">
-        <v>26.45</v>
+        <v>26.4</v>
       </c>
       <c r="AU108">
-        <v>44.95</v>
+        <v>45</v>
       </c>
       <c r="AV108">
-        <v>77.42500000000001</v>
+        <v>77.45</v>
       </c>
       <c r="AW108">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AX108">
         <v>696</v>
       </c>
       <c r="AY108">
-        <v>0.02228273678160921</v>
+        <v>0.02228265589080462</v>
       </c>
       <c r="AZ108">
-        <v>0.02963452481650074</v>
+        <v>0.02963403994228065</v>
       </c>
       <c r="BA108">
-        <v>6.25E-05</v>
+        <v>5.81E-05</v>
       </c>
       <c r="BB108">
-        <v>0.00805</v>
+        <v>0.008042500000000001</v>
       </c>
       <c r="BC108">
         <v>0.0129</v>
@@ -21375,13 +21375,13 @@
         <v>696</v>
       </c>
       <c r="BG108">
-        <v>0.7310508620689646</v>
+        <v>0.731086795977011</v>
       </c>
       <c r="BH108">
-        <v>0.4724183217651486</v>
+        <v>0.4724192808484273</v>
       </c>
       <c r="BI108">
-        <v>0.003</v>
+        <v>0.00284</v>
       </c>
       <c r="BJ108">
         <v>0.3482499999999999</v>
@@ -21428,10 +21428,10 @@
         <v>696</v>
       </c>
       <c r="K109">
-        <v>46.63189655172406</v>
+        <v>46.63405172413786</v>
       </c>
       <c r="L109">
-        <v>0.5908071500613643</v>
+        <v>0.5902358681532132</v>
       </c>
       <c r="M109">
         <v>46</v>
@@ -21440,25 +21440,25 @@
         <v>46.1</v>
       </c>
       <c r="O109">
-        <v>46.45</v>
+        <v>46.5</v>
       </c>
       <c r="P109">
         <v>47.1</v>
       </c>
       <c r="Q109">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="R109">
         <v>696</v>
       </c>
       <c r="S109">
-        <v>12.51330459770116</v>
+        <v>12.51564655172415</v>
       </c>
       <c r="T109">
-        <v>1.983093651552479</v>
+        <v>1.984827814162474</v>
       </c>
       <c r="U109">
-        <v>9.390000000000001</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="V109">
         <v>10.3</v>
@@ -21470,7 +21470,7 @@
         <v>14</v>
       </c>
       <c r="Y109">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="Z109">
         <v>696</v>
@@ -21500,10 +21500,10 @@
         <v>696</v>
       </c>
       <c r="AI109">
-        <v>203.2181034482759</v>
+        <v>203.2336206896552</v>
       </c>
       <c r="AJ109">
-        <v>99.83199867559189</v>
+        <v>99.83747550646929</v>
       </c>
       <c r="AK109">
         <v>95</v>
@@ -21512,7 +21512,7 @@
         <v>132</v>
       </c>
       <c r="AM109">
-        <v>152</v>
+        <v>151.5</v>
       </c>
       <c r="AN109">
         <v>265.75</v>
@@ -21524,22 +21524,22 @@
         <v>696</v>
       </c>
       <c r="AQ109">
-        <v>53.84758620689655</v>
+        <v>53.85035919540226</v>
       </c>
       <c r="AR109">
-        <v>38.06268133518986</v>
+        <v>38.06298989095758</v>
       </c>
       <c r="AS109">
         <v>2.32</v>
       </c>
       <c r="AT109">
-        <v>26.45</v>
+        <v>26.475</v>
       </c>
       <c r="AU109">
-        <v>44.95</v>
+        <v>45</v>
       </c>
       <c r="AV109">
-        <v>77.42500000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="AW109">
         <v>170</v>
@@ -21548,13 +21548,13 @@
         <v>696</v>
       </c>
       <c r="AY109">
-        <v>0.02228781566091958</v>
+        <v>0.0222887331896552</v>
       </c>
       <c r="AZ109">
-        <v>0.02964693969854331</v>
+        <v>0.02964759403578544</v>
       </c>
       <c r="BA109">
-        <v>6.210000000000001E-05</v>
+        <v>6.18E-05</v>
       </c>
       <c r="BB109">
         <v>0.008060000000000001</v>
@@ -21572,19 +21572,19 @@
         <v>696</v>
       </c>
       <c r="BG109">
-        <v>0.7321993390804602</v>
+        <v>0.7321517672413794</v>
       </c>
       <c r="BH109">
-        <v>0.4744973864999109</v>
+        <v>0.4743825796553552</v>
       </c>
       <c r="BI109">
-        <v>0.00298</v>
+        <v>0.00297</v>
       </c>
       <c r="BJ109">
         <v>0.3472499999999999</v>
       </c>
       <c r="BK109">
-        <v>0.644</v>
+        <v>0.6435</v>
       </c>
       <c r="BL109">
         <v>1.16</v>
@@ -21625,10 +21625,10 @@
         <v>696</v>
       </c>
       <c r="K110">
-        <v>46.63103448275854</v>
+        <v>46.63405172413785</v>
       </c>
       <c r="L110">
-        <v>0.5915102669705143</v>
+        <v>0.5910397789847532</v>
       </c>
       <c r="M110">
         <v>46</v>
@@ -21637,7 +21637,7 @@
         <v>46.1</v>
       </c>
       <c r="O110">
-        <v>46.45</v>
+        <v>46.5</v>
       </c>
       <c r="P110">
         <v>47.1</v>
@@ -21649,10 +21649,10 @@
         <v>696</v>
       </c>
       <c r="S110">
-        <v>12.51301724137932</v>
+        <v>12.51668103448277</v>
       </c>
       <c r="T110">
-        <v>1.983422035141913</v>
+        <v>1.982638977207385</v>
       </c>
       <c r="U110">
         <v>9.390000000000001</v>
@@ -21667,16 +21667,16 @@
         <v>14</v>
       </c>
       <c r="Y110">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="Z110">
         <v>696</v>
       </c>
       <c r="AA110">
-        <v>46.61249999999995</v>
+        <v>46.61235632183903</v>
       </c>
       <c r="AB110">
-        <v>0.5882803251913116</v>
+        <v>0.5882711355890006</v>
       </c>
       <c r="AC110">
         <v>46</v>
@@ -21697,10 +21697,10 @@
         <v>696</v>
       </c>
       <c r="AI110">
-        <v>203.2181034482759</v>
+        <v>203.2238505747126</v>
       </c>
       <c r="AJ110">
-        <v>99.83199867559189</v>
+        <v>99.83125088544757</v>
       </c>
       <c r="AK110">
         <v>95</v>
@@ -21709,7 +21709,7 @@
         <v>132</v>
       </c>
       <c r="AM110">
-        <v>152</v>
+        <v>151.5</v>
       </c>
       <c r="AN110">
         <v>265.75</v>
@@ -21721,10 +21721,10 @@
         <v>696</v>
       </c>
       <c r="AQ110">
-        <v>53.84758620689655</v>
+        <v>53.84994252873564</v>
       </c>
       <c r="AR110">
-        <v>38.06268133518986</v>
+        <v>38.06312985534926</v>
       </c>
       <c r="AS110">
         <v>2.32</v>
@@ -21733,7 +21733,7 @@
         <v>26.45</v>
       </c>
       <c r="AU110">
-        <v>44.95</v>
+        <v>45</v>
       </c>
       <c r="AV110">
         <v>77.42500000000001</v>
@@ -21745,13 +21745,13 @@
         <v>696</v>
       </c>
       <c r="AY110">
-        <v>0.02228456048850575</v>
+        <v>0.02228397959770115</v>
       </c>
       <c r="AZ110">
-        <v>0.02959985062539703</v>
+        <v>0.02959980867898286</v>
       </c>
       <c r="BA110">
-        <v>6.2E-05</v>
+        <v>6.219999999999999E-05</v>
       </c>
       <c r="BB110">
         <v>0.008070000000000001</v>
@@ -21769,10 +21769,10 @@
         <v>696</v>
       </c>
       <c r="BG110">
-        <v>0.7332276149425282</v>
+        <v>0.7331543821839072</v>
       </c>
       <c r="BH110">
-        <v>0.47613501038377</v>
+        <v>0.4760219240047071</v>
       </c>
       <c r="BI110">
         <v>0.00298</v>
@@ -21822,10 +21822,10 @@
         <v>696</v>
       </c>
       <c r="K111">
-        <v>46.63103448275854</v>
+        <v>46.62931034482749</v>
       </c>
       <c r="L111">
-        <v>0.5915102669705143</v>
+        <v>0.5901616276182086</v>
       </c>
       <c r="M111">
         <v>46</v>
@@ -21846,13 +21846,13 @@
         <v>696</v>
       </c>
       <c r="S111">
-        <v>12.51301724137932</v>
+        <v>12.50823275862071</v>
       </c>
       <c r="T111">
-        <v>1.983422035141913</v>
+        <v>1.982938567271514</v>
       </c>
       <c r="U111">
-        <v>9.390000000000001</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="V111">
         <v>10.3</v>
@@ -21894,10 +21894,10 @@
         <v>696</v>
       </c>
       <c r="AI111">
-        <v>203.2181034482759</v>
+        <v>203.1994252873563</v>
       </c>
       <c r="AJ111">
-        <v>99.83199867559189</v>
+        <v>99.82333934910173</v>
       </c>
       <c r="AK111">
         <v>95</v>
@@ -21906,7 +21906,7 @@
         <v>132</v>
       </c>
       <c r="AM111">
-        <v>152</v>
+        <v>151.5</v>
       </c>
       <c r="AN111">
         <v>265.75</v>
@@ -21918,10 +21918,10 @@
         <v>696</v>
       </c>
       <c r="AQ111">
-        <v>53.84758620689655</v>
+        <v>53.84492816091953</v>
       </c>
       <c r="AR111">
-        <v>38.06268133518986</v>
+        <v>38.06241453185587</v>
       </c>
       <c r="AS111">
         <v>2.32</v>
@@ -21933,7 +21933,7 @@
         <v>44.95</v>
       </c>
       <c r="AV111">
-        <v>77.42500000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="AW111">
         <v>170</v>
@@ -21942,16 +21942,16 @@
         <v>696</v>
       </c>
       <c r="AY111">
-        <v>0.02229359109195404</v>
+        <v>0.02229183419540231</v>
       </c>
       <c r="AZ111">
-        <v>0.0296035486019732</v>
+        <v>0.02960418612566182</v>
       </c>
       <c r="BA111">
-        <v>6.23E-05</v>
+        <v>6.2E-05</v>
       </c>
       <c r="BB111">
-        <v>0.00808</v>
+        <v>0.0080725</v>
       </c>
       <c r="BC111">
         <v>0.0129</v>
@@ -21966,13 +21966,13 @@
         <v>696</v>
       </c>
       <c r="BG111">
-        <v>0.7339313649425282</v>
+        <v>0.7339046982758617</v>
       </c>
       <c r="BH111">
-        <v>0.4773937172730737</v>
+        <v>0.4773532055728755</v>
       </c>
       <c r="BI111">
-        <v>0.00299</v>
+        <v>0.00298</v>
       </c>
       <c r="BJ111">
         <v>0.3455</v>
@@ -22019,10 +22019,10 @@
         <v>696</v>
       </c>
       <c r="K112">
-        <v>46.63103448275854</v>
+        <v>46.62974137931026</v>
       </c>
       <c r="L112">
-        <v>0.5915102669705143</v>
+        <v>0.5900059180879568</v>
       </c>
       <c r="M112">
         <v>46</v>
@@ -22043,10 +22043,10 @@
         <v>696</v>
       </c>
       <c r="S112">
-        <v>12.51244252873564</v>
+        <v>12.50949712643679</v>
       </c>
       <c r="T112">
-        <v>1.982685645984515</v>
+        <v>1.982396821230871</v>
       </c>
       <c r="U112">
         <v>9.390000000000001</v>
@@ -22091,10 +22091,10 @@
         <v>696</v>
       </c>
       <c r="AI112">
-        <v>203.2181034482759</v>
+        <v>203.2066091954023</v>
       </c>
       <c r="AJ112">
-        <v>99.83199867559189</v>
+        <v>99.82630115505053</v>
       </c>
       <c r="AK112">
         <v>95</v>
@@ -22103,7 +22103,7 @@
         <v>132</v>
       </c>
       <c r="AM112">
-        <v>152</v>
+        <v>151.5</v>
       </c>
       <c r="AN112">
         <v>265.75</v>
@@ -22115,10 +22115,10 @@
         <v>696</v>
       </c>
       <c r="AQ112">
-        <v>53.84758620689655</v>
+        <v>53.84551724137931</v>
       </c>
       <c r="AR112">
-        <v>38.06268133518986</v>
+        <v>38.06256856513022</v>
       </c>
       <c r="AS112">
         <v>2.32</v>
@@ -22130,7 +22130,7 @@
         <v>44.95</v>
       </c>
       <c r="AV112">
-        <v>77.42500000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="AW112">
         <v>170</v>
@@ -22139,13 +22139,13 @@
         <v>696</v>
       </c>
       <c r="AY112">
-        <v>0.02230141350574712</v>
+        <v>0.02230052140804598</v>
       </c>
       <c r="AZ112">
-        <v>0.02962475082249947</v>
+        <v>0.02962468758415194</v>
       </c>
       <c r="BA112">
-        <v>6.26E-05</v>
+        <v>6.24E-05</v>
       </c>
       <c r="BB112">
         <v>0.008085</v>
@@ -22163,10 +22163,10 @@
         <v>696</v>
       </c>
       <c r="BG112">
-        <v>0.7346547701149414</v>
+        <v>0.7345674712643665</v>
       </c>
       <c r="BH112">
-        <v>0.4786210672397348</v>
+        <v>0.478505746989009</v>
       </c>
       <c r="BI112">
         <v>0.00299</v>
